--- a/test_form_group_28_Kiselev_A.xlsx
+++ b/test_form_group_28_Kiselev_A.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksandr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\homework\test_form_group_28_Kiselev_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="663">
   <si>
     <t>Требования к форме</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>после .</t>
-  </si>
-  <si>
-    <t>Проверка поля "password"</t>
   </si>
   <si>
     <t>Тестирование кнопки "Submit"</t>
@@ -449,9 +446,6 @@
 после точки : нельзя</t>
   </si>
   <si>
-    <t>1 большая буквы, 1 маленькая буква, 1 цифра, 1 @</t>
-  </si>
-  <si>
     <t>кирилица</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>от @ до последней .</t>
   </si>
   <si>
     <t>после последней .</t>
@@ -1787,60 +1778,6 @@
 Success! Hello: Fedor No</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">до @
-(поля </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Name","Surname", "Password", "email" после собаки,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> заполним валидными данными </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Name" : Fedor; "Surname": Novak; "Password": Fivan@8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Email:</t>
   </si>
   <si>
@@ -2279,6 +2216,410 @@
                -Google chrom
 </t>
     </r>
+  </si>
+  <si>
+    <t>"Кнопка submit"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">до @
+(поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name","Surname", "Password", "email" после @,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> заполним валидными данными </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor; "Surname": Novak; "Email": @mail.ru "Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">от @ до последней .
+(поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name","Surname", "Password", "email" до @ и после точки</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, заполним валидными данными </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor; "Surname": Novak; "Email": fedor-86         .ru "Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ссылка на багрепорт 
+bug</t>
+  </si>
+  <si>
+    <t>Отображение символов в виде точек</t>
+  </si>
+  <si>
+    <t>Проверка поля "password"
+(поля "Name","Email", "Surname" заполним валидными данными "Name" : Fedor; "Email": fedor-86@mail.ru; "Surname": Novak</t>
+  </si>
+  <si>
+    <t>Password: Fivan@8</t>
+  </si>
+  <si>
+    <t>Пароль скрыт, отображаются точки</t>
+  </si>
+  <si>
+    <t>Успешная регистрация</t>
+  </si>
+  <si>
+    <t>Разрешенные спецсимволы</t>
+  </si>
+  <si>
+    <t>1 большая буквы, 1 маленькая буква, 1 цифра, 1 из разрешенных спецсимволов</t>
+  </si>
+  <si>
+    <t>собака,_,+,-,!</t>
+  </si>
+  <si>
+    <t>Ввести два подряд спецсимвола в валидном пароле</t>
+  </si>
+  <si>
+    <t>Ввести полностью валидный пароль на латинице, с обязательными символом @</t>
+  </si>
+  <si>
+    <t>Ввести полностью валидный пароль на латинице, с обязательными символом _</t>
+  </si>
+  <si>
+    <t>Ввести полностью валидный пароль на латинице, с обязательными символом +</t>
+  </si>
+  <si>
+    <t>Ввести полностью валидный пароль на латинице, с обязательными символом -</t>
+  </si>
+  <si>
+    <t>Ввести два подряд спецсимвола @ в валидном пароле</t>
+  </si>
+  <si>
+    <t>Password: Fivan_8</t>
+  </si>
+  <si>
+    <t>Password: Fivan+8</t>
+  </si>
+  <si>
+    <t>Password: Fivan-8</t>
+  </si>
+  <si>
+    <t>Password: Fivan!8</t>
+  </si>
+  <si>
+    <t>Ввести полностью валидный пароль на латинице, с обязательными символом !</t>
+  </si>
+  <si>
+    <t>Password: Fivan@_8</t>
+  </si>
+  <si>
+    <t>В поле Password появилось нужное значение</t>
+  </si>
+  <si>
+    <t>Password: FIVANTR</t>
+  </si>
+  <si>
+    <t>id: 71</t>
+  </si>
+  <si>
+    <t>id: 72</t>
+  </si>
+  <si>
+    <t>Password: fivantr</t>
+  </si>
+  <si>
+    <t>id: 73</t>
+  </si>
+  <si>
+    <t>Password: FIVantr</t>
+  </si>
+  <si>
+    <t>id: 74</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password только цифры</t>
+  </si>
+  <si>
+    <t>Password: 123456</t>
+  </si>
+  <si>
+    <t>id: 75</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password только цифры и буквы в вверхнем регистре</t>
+  </si>
+  <si>
+    <t>Password: 123FIVA</t>
+  </si>
+  <si>
+    <t>id: 76</t>
+  </si>
+  <si>
+    <t>Password: 123fiva</t>
+  </si>
+  <si>
+    <t>id: 77</t>
+  </si>
+  <si>
+    <t>Password: 123FIva</t>
+  </si>
+  <si>
+    <t>id: 78</t>
+  </si>
+  <si>
+    <t>id: 79</t>
+  </si>
+  <si>
+    <t>id: 80</t>
+  </si>
+  <si>
+    <t>Password: FIVAN!</t>
+  </si>
+  <si>
+    <t>Password: fivan!</t>
+  </si>
+  <si>
+    <t>id: 81</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  цифры и буквы в верхнем и нижнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  буквы в нижнем регистре и разрешенный спецсимвол</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  буквы в верхнем  регистре и разрешенный спецсимвол</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  цифры и буквы в нижнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  латинские буквы в верхнем и нижнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  латинские буквы в верхнем регистре</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  спесимволы и буквы в верхнем и нижнем регистре</t>
+  </si>
+  <si>
+    <t>Password: Fivan!</t>
+  </si>
+  <si>
+    <t>id: 82</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  спесимволы и цифры</t>
+  </si>
+  <si>
+    <t>Password: 123456!</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  буквы в верхнем  регистре разрешенный спецсимвол и цифру</t>
+  </si>
+  <si>
+    <t>Password: FIVAN1!</t>
+  </si>
+  <si>
+    <t>id: 83</t>
+  </si>
+  <si>
+    <t>id: 84</t>
+  </si>
+  <si>
+    <t>Password: fivan1!</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  буквы в нижнем регистре разрешенный спецсимвол и цифру</t>
+  </si>
+  <si>
+    <t>Вести только разрешенные спецсимволы</t>
+  </si>
+  <si>
+    <t>id: 85</t>
+  </si>
+  <si>
+    <t>Password: !_-+@!</t>
+  </si>
+  <si>
+    <t>id: 86</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  буквы в нижнем и верхнем регистре неразрешенный спецсимвол и цифру</t>
+  </si>
+  <si>
+    <t>Password: fivan1№</t>
+  </si>
+  <si>
+    <t>id: 87</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  пароль с пробелом</t>
+  </si>
+  <si>
+    <t>Password: fivan 1№</t>
+  </si>
+  <si>
+    <t>id: 88</t>
+  </si>
+  <si>
+    <t>id: 89</t>
+  </si>
+  <si>
+    <t>id: 90</t>
+  </si>
+  <si>
+    <t>Password: Фиванко</t>
+  </si>
+  <si>
+    <t>id: 91</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  пароль на кириллице, с обязательным символом @ и цифрой</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  пароль на кириллице</t>
+  </si>
+  <si>
+    <t>Password: Фиван1@</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  пароль на кириллице, с обязательным символом @</t>
+  </si>
+  <si>
+    <t>Password: Фиванr@</t>
+  </si>
+  <si>
+    <t>id: 92</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password  пароль на кириллице и цифру</t>
+  </si>
+  <si>
+    <t>Password: Фиванr1</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 5 знаков</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 6 знаков</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 7 знаков</t>
+  </si>
+  <si>
+    <t>id: 93</t>
+  </si>
+  <si>
+    <t>Password: Fiv!1</t>
+  </si>
+  <si>
+    <t>Password: Fiva!8</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 15 знаков</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 16 знаков</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 17 знаков</t>
+  </si>
+  <si>
+    <t>Password: Fivan!123232329</t>
+  </si>
+  <si>
+    <t>Password: Fivan!1232323299</t>
+  </si>
+  <si>
+    <t>Password: Fivan!12323232999</t>
+  </si>
+  <si>
+    <t>id: 94</t>
+  </si>
+  <si>
+    <t>Ввести в поле Password 8 знаков</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2794,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2512,6 +2853,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FFE06666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2715,7 +3062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2882,6 +3229,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2912,6 +3282,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2936,39 +3310,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2976,17 +3322,38 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3208,10 +3575,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3244,10 +3611,10 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="79"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3255,11 +3622,11 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="24" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -3268,7 +3635,7 @@
     </row>
     <row r="5" spans="2:12" s="44" customFormat="1" ht="21" customHeight="1">
       <c r="B5" s="60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
@@ -3284,10 +3651,10 @@
       <c r="L5" s="62"/>
     </row>
     <row r="6" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B6" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="71" t="s">
+      <c r="B6" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="80" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -3300,31 +3667,31 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B7" s="79"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B8" s="79"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B9" s="80"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B10" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="80" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -3332,29 +3699,29 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B11" s="81"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B12" s="81"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B13" s="82"/>
-      <c r="C13" s="73"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:12" s="44" customFormat="1" ht="12.75">
       <c r="B14" s="60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>14</v>
@@ -3365,7 +3732,7 @@
     </row>
     <row r="15" spans="2:12" s="44" customFormat="1" ht="12.75">
       <c r="B15" s="60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>16</v>
@@ -3376,10 +3743,10 @@
     </row>
     <row r="16" spans="2:12" s="44" customFormat="1" ht="25.5">
       <c r="B16" s="60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>18</v>
@@ -3387,29 +3754,29 @@
     </row>
     <row r="17" spans="2:4" s="44" customFormat="1" ht="25.5">
       <c r="B17" s="60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B18" s="60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B19" s="60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>20</v>
@@ -3420,7 +3787,7 @@
     </row>
     <row r="20" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B20" s="60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>22</v>
@@ -3431,10 +3798,10 @@
     </row>
     <row r="21" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B21" s="60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>21</v>
@@ -3442,33 +3809,33 @@
     </row>
     <row r="22" spans="2:4" s="44" customFormat="1" ht="25.5">
       <c r="B22" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>122</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B23" s="60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="50" t="s">
         <v>131</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1"/>
     <row r="25" spans="2:4" ht="22.5" customHeight="1">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
     </row>
     <row r="26" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B26" s="13">
@@ -3522,7 +3889,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -3563,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>33</v>
@@ -3629,19 +3996,19 @@
         <v>17</v>
       </c>
       <c r="C40" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="42" spans="1:4" ht="24" customHeight="1">
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
     </row>
     <row r="43" spans="1:4" s="44" customFormat="1" ht="25.5">
       <c r="B43" s="13">
@@ -3662,7 +4029,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="44" customFormat="1" ht="12.75">
@@ -3709,7 +4076,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -3742,7 +4109,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -3816,7 +4183,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>51</v>
@@ -3838,16 +4205,18 @@
         <v>18</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+    <row r="62" spans="2:4" ht="26.25" customHeight="1">
+      <c r="B62" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
     </row>
     <row r="63" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B63" s="13">
@@ -3875,22 +4244,22 @@
       <c r="B65" s="13">
         <v>3</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="33" t="s">
         <v>61</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" s="44" customFormat="1" ht="12.75">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="76" customFormat="1" ht="12.75">
       <c r="B66" s="13">
         <v>4</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>28</v>
+      <c r="C66" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -3898,10 +4267,10 @@
         <v>5</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -3909,18 +4278,18 @@
         <v>6</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B69" s="13">
         <v>7</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>40</v>
+      <c r="C69" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>18</v>
@@ -3930,46 +4299,48 @@
       <c r="B70" s="13">
         <v>8</v>
       </c>
-      <c r="C70" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>33</v>
+      <c r="C70" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B71" s="13">
         <v>9</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="44" customFormat="1" ht="12.75">
+      <c r="B72" s="13">
+        <v>10</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D72" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-    </row>
-    <row r="74" spans="2:4" s="44" customFormat="1" ht="12.75">
-      <c r="B74" s="13">
-        <v>1</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>67</v>
-      </c>
+    <row r="74" spans="2:4" ht="24.75" customHeight="1">
+      <c r="B74" s="83" t="s">
+        <v>563</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
     </row>
     <row r="75" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B75" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>67</v>
@@ -3977,69 +4348,75 @@
     </row>
     <row r="76" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B76" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B77" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B78" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B79" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B80" s="13">
+        <v>6</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="44" customFormat="1" ht="12.75">
+      <c r="B81" s="13">
         <v>7</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="26.25" customHeight="1"/>
-    <row r="82" spans="1:8" s="7" customFormat="1" ht="12.75"/>
-    <row r="83" spans="1:8" s="7" customFormat="1" ht="12.75">
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="10"/>
-    </row>
+      <c r="C81" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="26.25" customHeight="1"/>
+    <row r="83" spans="1:8" s="7" customFormat="1" ht="12.75"/>
     <row r="84" spans="1:8" s="7" customFormat="1" ht="12.75">
       <c r="B84" s="8"/>
-      <c r="C84" s="10"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:8" s="7" customFormat="1" ht="12.75">
@@ -4062,21 +4439,16 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
     </row>
-    <row r="89" spans="1:8" ht="12.75"/>
+    <row r="89" spans="1:8" s="7" customFormat="1" ht="12.75">
+      <c r="B89" s="8"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+    </row>
     <row r="90" spans="1:8" ht="12.75"/>
-    <row r="91" spans="1:8" ht="12.75">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-    </row>
+    <row r="91" spans="1:8" ht="12.75"/>
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="7"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4086,111 +4458,111 @@
     </row>
     <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="7"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="22"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="25"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="22"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="8"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="22"/>
-      <c r="G96" s="23"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="7"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="27"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="7"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="H99" s="27"/>
     </row>
     <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="7"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="7"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
@@ -4214,11 +4586,21 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="12.75"/>
+    <row r="106" spans="1:8" ht="12.75">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" ht="12.75"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:C3"/>
@@ -4241,10 +4623,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:J275"/>
+  <dimension ref="B2:J278"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4252,60 +4634,60 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="36" customWidth="1"/>
     <col min="10" max="10" width="19" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1">
-      <c r="B5" s="110" t="s">
-        <v>566</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
+      <c r="B5" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="2:8" ht="26.25" customHeight="1"/>
     <row r="7" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-    </row>
-    <row r="8" spans="2:8" ht="27" customHeight="1">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="2:8" ht="45" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
@@ -4313,44 +4695,44 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>149</v>
+      <c r="H8" s="112" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="24" customHeight="1">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
     </row>
     <row r="10" spans="2:8" ht="51">
       <c r="B10" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="35" t="s">
@@ -4360,39 +4742,39 @@
     </row>
     <row r="11" spans="2:8" ht="51">
       <c r="B11" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="51">
       <c r="B12" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="35" t="s">
@@ -4402,16 +4784,16 @@
     </row>
     <row r="13" spans="2:8" ht="51">
       <c r="B13" s="38" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="35" t="s">
@@ -4421,16 +4803,16 @@
     </row>
     <row r="14" spans="2:8" ht="51">
       <c r="B14" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="35" t="s">
@@ -4440,16 +4822,16 @@
     </row>
     <row r="15" spans="2:8" ht="51">
       <c r="B15" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="35" t="s">
@@ -4459,39 +4841,39 @@
     </row>
     <row r="16" spans="2:8" ht="51">
       <c r="B16" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51">
       <c r="B17" s="38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="35" t="s">
@@ -4501,16 +4883,16 @@
     </row>
     <row r="18" spans="2:10" ht="51">
       <c r="B18" s="38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="35" t="s">
@@ -4520,16 +4902,16 @@
     </row>
     <row r="19" spans="2:10" ht="51">
       <c r="B19" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="35" t="s">
@@ -4539,16 +4921,16 @@
     </row>
     <row r="20" spans="2:10" ht="51">
       <c r="B20" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="35" t="s">
@@ -4558,16 +4940,16 @@
     </row>
     <row r="21" spans="2:10" ht="51">
       <c r="B21" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="35" t="s">
@@ -4577,16 +4959,16 @@
     </row>
     <row r="22" spans="2:10" ht="63.75">
       <c r="B22" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="35" t="s">
@@ -4596,48 +4978,48 @@
     </row>
     <row r="23" spans="2:10" ht="51">
       <c r="B23" s="38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="51">
       <c r="B24" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="12.75"/>
@@ -4652,41 +5034,41 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
     </row>
     <row r="28" spans="2:10" ht="89.25">
       <c r="B28" s="40">
         <v>1</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="57" customFormat="1" ht="38.25">
@@ -4694,11 +5076,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="35" t="s">
@@ -4713,22 +5095,22 @@
         <v>3</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="49"/>
@@ -4738,22 +5120,22 @@
         <v>4</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D31" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="49"/>
@@ -4763,22 +5145,22 @@
         <v>5</v>
       </c>
       <c r="C32" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="47" t="s">
-        <v>244</v>
-      </c>
       <c r="E32" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="49"/>
@@ -4788,22 +5170,22 @@
         <v>6</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="49"/>
@@ -4813,22 +5195,22 @@
         <v>7</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="49"/>
@@ -4838,22 +5220,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>246</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>249</v>
       </c>
       <c r="G35" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="49"/>
@@ -4863,22 +5245,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J36" s="49"/>
     </row>
@@ -4887,22 +5269,22 @@
         <v>10</v>
       </c>
       <c r="C37" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>256</v>
-      </c>
       <c r="E37" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J37" s="49"/>
     </row>
@@ -4911,22 +5293,22 @@
         <v>11</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J38" s="49"/>
     </row>
@@ -4935,22 +5317,22 @@
         <v>12</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J39" s="49"/>
     </row>
@@ -4959,13 +5341,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="35" t="s">
@@ -4979,13 +5361,13 @@
         <v>14</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="35" t="s">
@@ -4999,13 +5381,13 @@
         <v>15</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="35" t="s">
@@ -5019,13 +5401,13 @@
         <v>16</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="35" t="s">
@@ -5039,22 +5421,22 @@
         <v>17</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J44" s="49"/>
     </row>
@@ -5063,13 +5445,13 @@
         <v>18</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="35" t="s">
@@ -5083,13 +5465,13 @@
         <v>19</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="35" t="s">
@@ -5103,13 +5485,13 @@
         <v>20</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="35" t="s">
@@ -5123,13 +5505,13 @@
         <v>21</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="35" t="s">
@@ -5143,13 +5525,13 @@
         <v>22</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="35" t="s">
@@ -5163,13 +5545,13 @@
         <v>23</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="35" t="s">
@@ -5183,22 +5565,22 @@
         <v>24</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G51" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J51" s="49"/>
     </row>
@@ -5207,13 +5589,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="35" t="s">
@@ -5239,15 +5621,15 @@
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B55" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
+      <c r="B55" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
     </row>
     <row r="56" spans="2:10" ht="24.75" customHeight="1">
       <c r="B56" s="2" t="s">
@@ -5257,19 +5639,19 @@
         <v>77</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="25.5">
@@ -5277,13 +5659,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="35" t="s">
@@ -5296,13 +5678,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="35" t="s">
@@ -5315,13 +5697,13 @@
         <v>3</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="35" t="s">
@@ -5334,13 +5716,13 @@
         <v>4</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="35" t="s">
@@ -5353,13 +5735,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" s="51" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="35" t="s">
@@ -5372,13 +5754,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="35" t="s">
@@ -5391,13 +5773,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="35" t="s">
@@ -5410,13 +5792,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="35" t="s">
@@ -5429,13 +5811,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="35" t="s">
@@ -5448,13 +5830,13 @@
         <v>10</v>
       </c>
       <c r="C66" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="D66" s="51" t="s">
-        <v>311</v>
-      </c>
       <c r="E66" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="35" t="s">
@@ -5467,13 +5849,13 @@
         <v>11</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="35" t="s">
@@ -5487,13 +5869,13 @@
         <v>12</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="35" t="s">
@@ -5507,13 +5889,13 @@
         <v>13</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="35" t="s">
@@ -5526,22 +5908,22 @@
         <v>14</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H70" s="37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="25.5">
@@ -5549,13 +5931,13 @@
         <v>15</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="35" t="s">
@@ -5568,13 +5950,13 @@
         <v>16</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="35" t="s">
@@ -5587,22 +5969,22 @@
         <v>17</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="25.5">
@@ -5610,13 +5992,13 @@
         <v>18</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="35" t="s">
@@ -5629,10 +6011,10 @@
         <v>19</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -5647,13 +6029,13 @@
         <v>20</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="35" t="s">
@@ -5666,22 +6048,22 @@
         <v>21</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="38.25">
@@ -5689,22 +6071,22 @@
         <v>22</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="25.5">
@@ -5712,13 +6094,13 @@
         <v>23</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D79" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="35" t="s">
@@ -5731,22 +6113,22 @@
         <v>24</v>
       </c>
       <c r="C80" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="33" t="s">
         <v>343</v>
-      </c>
-      <c r="D80" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>346</v>
       </c>
       <c r="G80" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="25.5">
@@ -5754,22 +6136,22 @@
         <v>25</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G81" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="25.5">
@@ -5777,22 +6159,22 @@
         <v>26</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G82" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="2:10" s="17" customFormat="1" ht="25.5">
@@ -5800,13 +6182,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D83" s="51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="35" t="s">
@@ -5820,13 +6202,13 @@
         <v>28</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="35" t="s">
@@ -5839,22 +6221,22 @@
         <v>29</v>
       </c>
       <c r="C85" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="D85" s="51" t="s">
-        <v>361</v>
-      </c>
       <c r="E85" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G85" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="76.5">
@@ -5862,22 +6244,22 @@
         <v>30</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F86" s="50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G86" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="76.5">
@@ -5885,13 +6267,13 @@
         <v>31</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="35" t="s">
@@ -5904,22 +6286,22 @@
         <v>32</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F88" s="50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G88" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H88" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="25.5">
@@ -5927,13 +6309,13 @@
         <v>33</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="35" t="s">
@@ -5945,17 +6327,17 @@
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B91" s="88" t="s">
-        <v>372</v>
-      </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-    </row>
-    <row r="92" spans="2:10" ht="27.75" customHeight="1">
+      <c r="B91" s="116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="117"/>
+    </row>
+    <row r="92" spans="2:10" ht="43.5" customHeight="1">
       <c r="B92" s="2" t="s">
         <v>76</v>
       </c>
@@ -5963,19 +6345,19 @@
         <v>77</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>149</v>
+      <c r="H92" s="112" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="25.5">
@@ -5983,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="35" t="s">
@@ -6002,13 +6384,13 @@
         <v>2</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D94" s="51" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="35" t="s">
@@ -6021,13 +6403,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D95" s="51" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="35" t="s">
@@ -6040,13 +6422,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D96" s="51" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="35" t="s">
@@ -6059,13 +6441,13 @@
         <v>5</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="35" t="s">
@@ -6078,13 +6460,13 @@
         <v>6</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="35" t="s">
@@ -6097,13 +6479,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="35" t="s">
@@ -6116,13 +6498,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="35" t="s">
@@ -6135,13 +6517,13 @@
         <v>9</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="35" t="s">
@@ -6155,13 +6537,13 @@
         <v>10</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="35" t="s">
@@ -6174,13 +6556,13 @@
         <v>11</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D103" s="51" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="35" t="s">
@@ -6191,13 +6573,13 @@
     <row r="104" spans="2:10" ht="51">
       <c r="B104" s="13"/>
       <c r="C104" s="50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D104" s="51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="35" t="s">
@@ -6210,13 +6592,13 @@
         <v>12</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D105" s="51" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E105" s="50" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="35" t="s">
@@ -6229,22 +6611,22 @@
         <v>13</v>
       </c>
       <c r="C106" s="50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G106" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="25.5">
@@ -6252,13 +6634,13 @@
         <v>14</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="35" t="s">
@@ -6271,13 +6653,13 @@
         <v>15</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="35" t="s">
@@ -6290,22 +6672,22 @@
         <v>16</v>
       </c>
       <c r="C109" s="50" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D109" s="52" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G109" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="25.5">
@@ -6313,13 +6695,13 @@
         <v>17</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="35" t="s">
@@ -6332,13 +6714,13 @@
         <v>18</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="35" t="s">
@@ -6351,22 +6733,22 @@
         <v>19</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G112" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H112" s="37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="38.25">
@@ -6374,22 +6756,22 @@
         <v>20</v>
       </c>
       <c r="C113" s="50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G113" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="38.25">
@@ -6397,22 +6779,22 @@
         <v>21</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F114" s="50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G114" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="38.25">
@@ -6420,22 +6802,22 @@
         <v>22</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D115" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F115" s="33" t="s">
         <v>409</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>412</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="38.25">
@@ -6443,22 +6825,22 @@
         <v>23</v>
       </c>
       <c r="C116" s="50" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G116" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="25.5">
@@ -6466,22 +6848,22 @@
         <v>24</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G117" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="24" customHeight="1">
@@ -6489,13 +6871,13 @@
         <v>24</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D118" s="51" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="35" t="s">
@@ -6508,13 +6890,13 @@
         <v>25</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D119" s="51" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="35" t="s">
@@ -6527,13 +6909,13 @@
         <v>26</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D120" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="35" t="s">
@@ -6546,13 +6928,13 @@
         <v>27</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D121" s="51" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="35" t="s">
@@ -6565,22 +6947,22 @@
         <v>28</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D122" s="51" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G122" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="51">
@@ -6588,13 +6970,13 @@
         <v>29</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D123" s="51" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="35" t="s">
@@ -6607,37 +6989,37 @@
         <v>30</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="27.75" customHeight="1"/>
     <row r="126" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B126" s="93" t="s">
+      <c r="B126" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="89"/>
-      <c r="G126" s="89"/>
-      <c r="H126" s="89"/>
-    </row>
-    <row r="127" spans="2:8" ht="30" customHeight="1">
+      <c r="C126" s="100"/>
+      <c r="D126" s="100"/>
+      <c r="E126" s="100"/>
+      <c r="F126" s="100"/>
+      <c r="G126" s="100"/>
+      <c r="H126" s="100"/>
+    </row>
+    <row r="127" spans="2:8" ht="40.5" customHeight="1">
       <c r="B127" s="2" t="s">
         <v>76</v>
       </c>
@@ -6645,53 +7027,53 @@
         <v>77</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="26.25" customHeight="1">
-      <c r="B128" s="94" t="s">
-        <v>427</v>
-      </c>
-      <c r="C128" s="87"/>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="87"/>
-      <c r="H128" s="87"/>
+      <c r="H127" s="112" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B128" s="115" t="s">
+        <v>564</v>
+      </c>
+      <c r="C128" s="114"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="114"/>
+      <c r="F128" s="114"/>
+      <c r="G128" s="114"/>
+      <c r="H128" s="114"/>
     </row>
     <row r="129" spans="2:10" ht="38.25">
       <c r="B129" s="13">
         <v>1</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D129" s="52" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F129" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G129" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="2:10" s="56" customFormat="1" ht="63.75">
@@ -6699,13 +7081,13 @@
         <v>2</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F130" s="50"/>
       <c r="G130" s="35" t="s">
@@ -6719,13 +7101,13 @@
         <v>3</v>
       </c>
       <c r="C131" s="50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="35" t="s">
@@ -6738,13 +7120,13 @@
         <v>4</v>
       </c>
       <c r="C132" s="50" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D132" s="51" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="35" t="s">
@@ -6757,13 +7139,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="50" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D133" s="51" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="35" t="s">
@@ -6776,13 +7158,13 @@
         <v>6</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D134" s="51" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="35" t="s">
@@ -6795,13 +7177,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="35" t="s">
@@ -6814,13 +7196,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="35" t="s">
@@ -6833,13 +7215,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="50" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="35" t="s">
@@ -6852,13 +7234,13 @@
         <v>10</v>
       </c>
       <c r="C138" s="50" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="35" t="s">
@@ -6871,22 +7253,22 @@
         <v>11</v>
       </c>
       <c r="C139" s="50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F139" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G139" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H139" s="37" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="38.25">
@@ -6894,22 +7276,22 @@
         <v>12</v>
       </c>
       <c r="C140" s="50" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F140" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G140" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H140" s="37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="38.25">
@@ -6917,22 +7299,22 @@
         <v>13</v>
       </c>
       <c r="C141" s="50" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F141" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G141" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="38.25">
@@ -6940,22 +7322,22 @@
         <v>14</v>
       </c>
       <c r="C142" s="50" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D142" s="52" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F142" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G142" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H142" s="37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="38.25">
@@ -6963,22 +7345,22 @@
         <v>15</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D143" s="52" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F143" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G143" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="38.25">
@@ -6986,22 +7368,22 @@
         <v>16</v>
       </c>
       <c r="C144" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D144" s="52" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F144" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G144" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H144" s="37" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="38.25">
@@ -7009,22 +7391,22 @@
         <v>17</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F145" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G145" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -7032,13 +7414,13 @@
         <v>18</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D146" s="51" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="35" t="s">
@@ -7052,13 +7434,13 @@
         <v>19</v>
       </c>
       <c r="C147" s="50" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D147" s="51" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="35" t="s">
@@ -7072,13 +7454,13 @@
         <v>20</v>
       </c>
       <c r="C148" s="50" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D148" s="51" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="35" t="s">
@@ -7092,13 +7474,13 @@
         <v>21</v>
       </c>
       <c r="C149" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="D149" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="51" t="s">
-        <v>471</v>
-      </c>
       <c r="E149" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="35" t="s">
@@ -7112,22 +7494,22 @@
         <v>22</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D150" s="52" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F150" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G150" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J150" s="44"/>
     </row>
@@ -7136,13 +7518,13 @@
         <v>23</v>
       </c>
       <c r="C151" s="50" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D151" s="51" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="35" t="s">
@@ -7155,47 +7537,47 @@
         <v>24</v>
       </c>
       <c r="C152" s="50" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D152" s="52" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F152" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G152" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B153" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" s="87"/>
-      <c r="D153" s="87"/>
-      <c r="E153" s="87"/>
-      <c r="F153" s="87"/>
-      <c r="G153" s="87"/>
-      <c r="H153" s="87"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="42" customHeight="1">
+      <c r="B153" s="115" t="s">
+        <v>565</v>
+      </c>
+      <c r="C153" s="114"/>
+      <c r="D153" s="114"/>
+      <c r="E153" s="114"/>
+      <c r="F153" s="114"/>
+      <c r="G153" s="114"/>
+      <c r="H153" s="114"/>
     </row>
     <row r="154" spans="2:10" ht="25.5">
       <c r="B154" s="13">
         <v>25</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D154" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="35" t="s">
@@ -7208,22 +7590,22 @@
         <v>26</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D155" s="52" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F155" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G155" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="2:10" ht="38.25">
@@ -7231,22 +7613,22 @@
         <v>27</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D156" s="52" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F156" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G156" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H156" s="37" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="2:10" ht="25.5">
@@ -7257,10 +7639,10 @@
         <v>37</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="35" t="s">
@@ -7273,13 +7655,13 @@
         <v>29</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D158" s="51" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="35" t="s">
@@ -7292,13 +7674,13 @@
         <v>30</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D159" s="51" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="35" t="s">
@@ -7311,22 +7693,22 @@
         <v>31</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D160" s="52" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F160" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G160" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="2:10" ht="25.5">
@@ -7334,13 +7716,13 @@
         <v>32</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D161" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E161" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="35" t="s">
@@ -7353,22 +7735,22 @@
         <v>33</v>
       </c>
       <c r="C162" s="50" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F162" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G162" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="38.25">
@@ -7376,22 +7758,22 @@
         <v>34</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D163" s="52" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F163" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G163" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="38.25">
@@ -7399,22 +7781,22 @@
         <v>35</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D164" s="52" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F164" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G164" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="2:10" ht="38.25">
@@ -7422,22 +7804,22 @@
         <v>36</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D165" s="52" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F165" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G165" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="2:10" ht="38.25">
@@ -7445,22 +7827,22 @@
         <v>37</v>
       </c>
       <c r="C166" s="50" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D166" s="52" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F166" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G166" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="38.25">
@@ -7468,22 +7850,22 @@
         <v>38</v>
       </c>
       <c r="C167" s="50" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D167" s="52" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F167" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G167" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="2:10" ht="38.25">
@@ -7491,22 +7873,22 @@
         <v>39</v>
       </c>
       <c r="C168" s="50" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D168" s="52" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F168" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G168" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H168" s="37" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="2:10" ht="38.25">
@@ -7514,22 +7896,22 @@
         <v>40</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D169" s="52" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E169" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F169" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G169" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="170" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -7537,13 +7919,13 @@
         <v>41</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D170" s="51" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="35" t="s">
@@ -7557,13 +7939,13 @@
         <v>42</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D171" s="51" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="35" t="s">
@@ -7576,13 +7958,13 @@
         <v>43</v>
       </c>
       <c r="C172" s="50" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D172" s="51" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="35" t="s">
@@ -7595,13 +7977,13 @@
         <v>44</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D173" s="51" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="35" t="s">
@@ -7614,22 +7996,22 @@
         <v>45</v>
       </c>
       <c r="C174" s="50" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D174" s="52" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F174" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G174" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H174" s="37" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="175" spans="2:10" ht="25.5">
@@ -7637,10 +8019,10 @@
         <v>46</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D175" s="51" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="15"/>
@@ -7652,29 +8034,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B176" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C176" s="87"/>
-      <c r="D176" s="87"/>
-      <c r="E176" s="87"/>
-      <c r="F176" s="87"/>
-      <c r="G176" s="87"/>
-      <c r="H176" s="87"/>
+    <row r="176" spans="2:10" s="76" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B176" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C176" s="114"/>
+      <c r="D176" s="114"/>
+      <c r="E176" s="114"/>
+      <c r="F176" s="114"/>
+      <c r="G176" s="114"/>
+      <c r="H176" s="114"/>
     </row>
     <row r="177" spans="2:10" ht="25.5">
       <c r="B177" s="13">
         <v>47</v>
       </c>
       <c r="C177" s="50" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D177" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F177" s="15"/>
       <c r="G177" s="35" t="s">
@@ -7687,13 +8069,13 @@
         <v>48</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D178" s="51" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E178" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F178" s="15"/>
       <c r="G178" s="35" t="s">
@@ -7706,13 +8088,13 @@
         <v>49</v>
       </c>
       <c r="C179" s="50" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D179" s="51" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E179" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="35" t="s">
@@ -7728,19 +8110,19 @@
         <v>37</v>
       </c>
       <c r="D180" s="52" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E180" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F180" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G180" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H180" s="37" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="25.5">
@@ -7748,13 +8130,13 @@
         <v>51</v>
       </c>
       <c r="C181" s="50" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D181" s="51" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E181" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F181" s="15"/>
       <c r="G181" s="35" t="s">
@@ -7767,22 +8149,22 @@
         <v>52</v>
       </c>
       <c r="C182" s="50" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D182" s="52" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E182" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F182" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G182" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H182" s="37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="25.5">
@@ -7790,13 +8172,13 @@
         <v>53</v>
       </c>
       <c r="C183" s="50" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D183" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E183" s="50" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="35" t="s">
@@ -7809,22 +8191,22 @@
         <v>54</v>
       </c>
       <c r="C184" s="50" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D184" s="52" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E184" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F184" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G184" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H184" s="37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="2:10" ht="38.25">
@@ -7832,22 +8214,22 @@
         <v>55</v>
       </c>
       <c r="C185" s="50" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D185" s="52" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E185" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F185" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G185" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="186" spans="2:10" ht="38.25">
@@ -7855,22 +8237,22 @@
         <v>56</v>
       </c>
       <c r="C186" s="50" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D186" s="52" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F186" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G186" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="38.25">
@@ -7878,22 +8260,22 @@
         <v>57</v>
       </c>
       <c r="C187" s="50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D187" s="52" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F187" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G187" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="2:10" ht="38.25">
@@ -7901,22 +8283,22 @@
         <v>58</v>
       </c>
       <c r="C188" s="50" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D188" s="52" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F188" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G188" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="38.25">
@@ -7924,22 +8306,22 @@
         <v>59</v>
       </c>
       <c r="C189" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D189" s="52" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F189" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G189" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="38.25">
@@ -7947,22 +8329,22 @@
         <v>60</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D190" s="52" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F190" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G190" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -7970,13 +8352,13 @@
         <v>61</v>
       </c>
       <c r="C191" s="50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D191" s="51" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F191" s="15"/>
       <c r="G191" s="35" t="s">
@@ -7990,13 +8372,13 @@
         <v>62</v>
       </c>
       <c r="C192" s="50" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D192" s="51" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F192" s="15"/>
       <c r="G192" s="35" t="s">
@@ -8010,13 +8392,13 @@
         <v>63</v>
       </c>
       <c r="C193" s="50" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F193" s="15"/>
       <c r="G193" s="35" t="s">
@@ -8030,13 +8412,13 @@
         <v>64</v>
       </c>
       <c r="C194" s="50" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E194" s="33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F194" s="15"/>
       <c r="G194" s="35" t="s">
@@ -8049,22 +8431,22 @@
         <v>65</v>
       </c>
       <c r="C195" s="50" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D195" s="52" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E195" s="33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F195" s="50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G195" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H195" s="37" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="2:10" ht="25.5">
@@ -8072,13 +8454,13 @@
         <v>66</v>
       </c>
       <c r="C196" s="50" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F196" s="14"/>
       <c r="G196" s="35" t="s">
@@ -8087,18 +8469,18 @@
       <c r="H196" s="16"/>
     </row>
     <row r="197" spans="2:10" ht="27" customHeight="1"/>
-    <row r="198" spans="2:10" ht="33" customHeight="1">
-      <c r="B198" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C198" s="89"/>
-      <c r="D198" s="89"/>
-      <c r="E198" s="89"/>
-      <c r="F198" s="89"/>
-      <c r="G198" s="89"/>
-      <c r="H198" s="89"/>
-    </row>
-    <row r="199" spans="2:10" ht="27" customHeight="1">
+    <row r="198" spans="2:10" ht="36.75" customHeight="1">
+      <c r="B198" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="C198" s="100"/>
+      <c r="D198" s="100"/>
+      <c r="E198" s="100"/>
+      <c r="F198" s="100"/>
+      <c r="G198" s="100"/>
+      <c r="H198" s="100"/>
+    </row>
+    <row r="199" spans="2:10" ht="43.5" customHeight="1">
       <c r="B199" s="2" t="s">
         <v>76</v>
       </c>
@@ -8106,398 +8488,882 @@
         <v>77</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F199" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" ht="18">
-      <c r="B200" s="13"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
+      <c r="H199" s="112" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="25.5">
+      <c r="B200" s="13">
+        <v>1</v>
+      </c>
+      <c r="C200" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="D200" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="E200" s="50" t="s">
+        <v>570</v>
+      </c>
       <c r="F200" s="14"/>
-      <c r="G200" s="13"/>
+      <c r="G200" s="35" t="s">
+        <v>79</v>
+      </c>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="2:10" ht="18">
-      <c r="B201" s="13"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
+    <row r="201" spans="2:10" ht="63.75">
+      <c r="B201" s="13">
+        <v>2</v>
+      </c>
+      <c r="C201" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="D201" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="E201" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F201" s="14"/>
-      <c r="G201" s="13"/>
+      <c r="G201" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H201" s="16"/>
     </row>
-    <row r="202" spans="2:10" ht="18">
-      <c r="B202" s="13"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
+    <row r="202" spans="2:10" ht="51">
+      <c r="B202" s="13">
+        <v>3</v>
+      </c>
+      <c r="C202" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="D202" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="E202" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F202" s="14"/>
-      <c r="G202" s="13"/>
+      <c r="G202" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H202" s="16"/>
     </row>
-    <row r="203" spans="2:10" ht="18">
-      <c r="B203" s="13"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
+    <row r="203" spans="2:10" ht="51">
+      <c r="B203" s="13">
+        <v>4</v>
+      </c>
+      <c r="C203" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="D203" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E203" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F203" s="14"/>
-      <c r="G203" s="13"/>
+      <c r="G203" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H203" s="16"/>
     </row>
-    <row r="204" spans="2:10" ht="18">
-      <c r="B204" s="13"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
+    <row r="204" spans="2:10" ht="51">
+      <c r="B204" s="13">
+        <v>5</v>
+      </c>
+      <c r="C204" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="D204" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="E204" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F204" s="14"/>
-      <c r="G204" s="13"/>
+      <c r="G204" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H204" s="16"/>
     </row>
-    <row r="205" spans="2:10" ht="18">
-      <c r="B205" s="13"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14"/>
+    <row r="205" spans="2:10" ht="51">
+      <c r="B205" s="13">
+        <v>6</v>
+      </c>
+      <c r="C205" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="D205" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="E205" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F205" s="14"/>
-      <c r="G205" s="13"/>
+      <c r="G205" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H205" s="16"/>
     </row>
-    <row r="206" spans="2:10" ht="12.75">
-      <c r="B206" s="13"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="14"/>
+    <row r="206" spans="2:10" ht="38.25">
+      <c r="B206" s="13">
+        <v>7</v>
+      </c>
+      <c r="C206" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D206" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="E206" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F206" s="14"/>
-      <c r="G206" s="13"/>
+      <c r="G206" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H206" s="13"/>
     </row>
-    <row r="207" spans="2:10" ht="18">
-      <c r="B207" s="13"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="14"/>
+    <row r="207" spans="2:10" ht="38.25">
+      <c r="B207" s="13">
+        <v>8</v>
+      </c>
+      <c r="C207" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="D207" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="E207" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F207" s="14"/>
-      <c r="G207" s="13"/>
+      <c r="G207" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H207" s="16"/>
     </row>
-    <row r="208" spans="2:10" ht="12.75">
-      <c r="B208" s="13"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="14"/>
+    <row r="208" spans="2:10" ht="38.25">
+      <c r="B208" s="13">
+        <v>9</v>
+      </c>
+      <c r="C208" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D208" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="E208" s="50" t="s">
+        <v>587</v>
+      </c>
       <c r="F208" s="14"/>
-      <c r="G208" s="13"/>
+      <c r="G208" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H208" s="13"/>
     </row>
-    <row r="209" spans="2:8" ht="12.75">
-      <c r="B209" s="13"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-    </row>
-    <row r="210" spans="2:8" ht="18">
-      <c r="B210" s="13"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="16"/>
-    </row>
-    <row r="211" spans="2:8" ht="18">
-      <c r="B211" s="13"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="16"/>
-    </row>
-    <row r="212" spans="2:8" ht="18">
-      <c r="B212" s="13"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="13"/>
-      <c r="H212" s="16"/>
-    </row>
-    <row r="213" spans="2:8" ht="18">
-      <c r="B213" s="13"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="13"/>
-      <c r="H213" s="16"/>
-    </row>
-    <row r="214" spans="2:8" ht="18">
-      <c r="B214" s="13"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="13"/>
-      <c r="H214" s="16"/>
-    </row>
-    <row r="215" spans="2:8" ht="18">
-      <c r="B215" s="13"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="16"/>
-    </row>
-    <row r="216" spans="2:8" ht="18">
-      <c r="B216" s="13"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="16"/>
-    </row>
-    <row r="217" spans="2:8" ht="18">
-      <c r="B217" s="13"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="16"/>
-    </row>
-    <row r="218" spans="2:8" ht="18">
-      <c r="B218" s="13"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="16"/>
-    </row>
-    <row r="219" spans="2:8" ht="12.75">
-      <c r="B219" s="13"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="13"/>
-    </row>
-    <row r="220" spans="2:8" ht="18">
-      <c r="B220" s="13"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="13"/>
-      <c r="H220" s="16"/>
-    </row>
-    <row r="221" spans="2:8" ht="18">
-      <c r="B221" s="13"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="16"/>
-    </row>
-    <row r="222" spans="2:8" ht="18">
-      <c r="B222" s="13"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="16"/>
-    </row>
-    <row r="223" spans="2:8" ht="18">
-      <c r="B223" s="13"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="16"/>
-    </row>
-    <row r="224" spans="2:8" ht="18">
-      <c r="B224" s="13"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="16"/>
-    </row>
-    <row r="225" spans="2:8" ht="18">
-      <c r="B225" s="13"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="13"/>
-      <c r="H225" s="16"/>
-    </row>
-    <row r="226" spans="2:8" ht="18">
-      <c r="B226" s="13"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="16"/>
-    </row>
-    <row r="227" spans="2:8" ht="18">
-      <c r="B227" s="13"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="13"/>
-      <c r="H227" s="16"/>
-    </row>
-    <row r="228" spans="2:8" ht="12.75">
-      <c r="B228" s="13"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="13"/>
-      <c r="H228" s="13"/>
-    </row>
-    <row r="229" spans="2:8" ht="12.75">
-      <c r="B229" s="13"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
-    </row>
-    <row r="230" spans="2:8" ht="12.75">
-      <c r="B230" s="13"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-    </row>
-    <row r="231" spans="2:8" ht="12.75">
-      <c r="B231" s="13"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="13"/>
-      <c r="H231" s="13"/>
-    </row>
-    <row r="232" spans="2:8" ht="18">
-      <c r="B232" s="13"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
+    <row r="209" spans="2:8" ht="38.25">
+      <c r="B209" s="13">
+        <v>10</v>
+      </c>
+      <c r="C209" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="D209" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="E209" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F209" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G209" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H209" s="37" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="38.25">
+      <c r="B210" s="13">
+        <v>11</v>
+      </c>
+      <c r="C210" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="D210" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="E210" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F210" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G210" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H210" s="37" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="38.25">
+      <c r="B211" s="13">
+        <v>12</v>
+      </c>
+      <c r="C211" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="D211" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="E211" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F211" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G211" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H211" s="37" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="38.25">
+      <c r="B212" s="13">
+        <v>13</v>
+      </c>
+      <c r="C212" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="D212" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="E212" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F212" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G212" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H212" s="37" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="38.25">
+      <c r="B213" s="13">
+        <v>14</v>
+      </c>
+      <c r="C213" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="D213" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="E213" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F213" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G213" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H213" s="37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="38.25">
+      <c r="B214" s="13">
+        <v>15</v>
+      </c>
+      <c r="C214" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="D214" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="E214" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G214" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H214" s="37" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="38.25">
+      <c r="B215" s="13">
+        <v>16</v>
+      </c>
+      <c r="C215" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="D215" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="E215" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G215" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H215" s="37" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" ht="38.25">
+      <c r="B216" s="13">
+        <v>17</v>
+      </c>
+      <c r="C216" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="D216" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="E216" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F216" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G216" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H216" s="37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="51">
+      <c r="B217" s="13">
+        <v>18</v>
+      </c>
+      <c r="C217" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="D217" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="E217" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F217" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G217" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H217" s="37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="38.25">
+      <c r="B218" s="13">
+        <v>19</v>
+      </c>
+      <c r="C218" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="D218" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="E218" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F218" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G218" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H218" s="37" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" ht="38.25">
+      <c r="B219" s="13">
+        <v>20</v>
+      </c>
+      <c r="C219" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="D219" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="E219" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G219" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H219" s="37" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="38.25">
+      <c r="B220" s="13">
+        <v>21</v>
+      </c>
+      <c r="C220" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="D220" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="E220" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F220" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G220" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H220" s="37" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="51">
+      <c r="B221" s="13">
+        <v>22</v>
+      </c>
+      <c r="C221" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="D221" s="52" t="s">
+        <v>622</v>
+      </c>
+      <c r="E221" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F221" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G221" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" s="37" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="51">
+      <c r="B222" s="13">
+        <v>23</v>
+      </c>
+      <c r="C222" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="D222" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="E222" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G222" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H222" s="37" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="38.25">
+      <c r="B223" s="13">
+        <v>24</v>
+      </c>
+      <c r="C223" s="50" t="s">
+        <v>627</v>
+      </c>
+      <c r="D223" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="E223" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F223" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G223" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H223" s="37" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="51">
+      <c r="B224" s="13">
+        <v>25</v>
+      </c>
+      <c r="C224" s="50" t="s">
+        <v>631</v>
+      </c>
+      <c r="D224" s="52" t="s">
+        <v>632</v>
+      </c>
+      <c r="E224" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F224" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G224" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H224" s="37" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" ht="38.25">
+      <c r="B225" s="13">
+        <v>26</v>
+      </c>
+      <c r="C225" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="D225" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="E225" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F225" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G225" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H225" s="37" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" ht="38.25">
+      <c r="B226" s="13">
+        <v>27</v>
+      </c>
+      <c r="C226" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="D226" s="52" t="s">
+        <v>635</v>
+      </c>
+      <c r="E226" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F226" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G226" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H226" s="37" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" ht="51">
+      <c r="B227" s="13">
+        <v>28</v>
+      </c>
+      <c r="C227" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="D227" s="52" t="s">
+        <v>643</v>
+      </c>
+      <c r="E227" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F227" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G227" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H227" s="37" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" ht="38.25">
+      <c r="B228" s="13">
+        <v>29</v>
+      </c>
+      <c r="C228" s="50" t="s">
+        <v>642</v>
+      </c>
+      <c r="D228" s="52" t="s">
+        <v>639</v>
+      </c>
+      <c r="E228" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F228" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G228" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H228" s="37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" ht="38.25">
+      <c r="B229" s="13">
+        <v>30</v>
+      </c>
+      <c r="C229" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="D229" s="52" t="s">
+        <v>645</v>
+      </c>
+      <c r="E229" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F229" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G229" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H229" s="37" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" ht="38.25">
+      <c r="B230" s="13">
+        <v>31</v>
+      </c>
+      <c r="C230" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="D230" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="E230" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F230" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G230" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H230" s="37" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" ht="38.25">
+      <c r="B231" s="13">
+        <v>32</v>
+      </c>
+      <c r="C231" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="D231" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="E231" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F231" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G231" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H231" s="37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" s="70" customFormat="1" ht="25.5">
+      <c r="B232" s="13">
+        <v>33</v>
+      </c>
+      <c r="C232" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="D232" s="51" t="s">
+        <v>654</v>
+      </c>
+      <c r="E232" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F232" s="14"/>
-      <c r="G232" s="13"/>
+      <c r="G232" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H232" s="16"/>
-    </row>
-    <row r="233" spans="2:8" ht="18">
-      <c r="B233" s="13"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
+      <c r="J232" s="76"/>
+    </row>
+    <row r="233" spans="2:10" s="70" customFormat="1" ht="25.5">
+      <c r="B233" s="13">
+        <v>34</v>
+      </c>
+      <c r="C233" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="D233" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="E233" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F233" s="14"/>
-      <c r="G233" s="13"/>
+      <c r="G233" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H233" s="16"/>
-    </row>
-    <row r="234" spans="2:8" ht="18">
-      <c r="B234" s="13"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
+      <c r="J233" s="76"/>
+    </row>
+    <row r="234" spans="2:10" ht="25.5">
+      <c r="B234" s="13">
+        <v>35</v>
+      </c>
+      <c r="C234" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="D234" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="E234" s="33" t="s">
+        <v>571</v>
+      </c>
       <c r="F234" s="14"/>
-      <c r="G234" s="13"/>
+      <c r="G234" s="120" t="s">
+        <v>79</v>
+      </c>
       <c r="H234" s="16"/>
     </row>
-    <row r="235" spans="2:8" ht="32.25" customHeight="1"/>
-    <row r="236" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B236" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C236" s="75"/>
-      <c r="D236" s="75"/>
-      <c r="E236" s="75"/>
-      <c r="F236" s="75"/>
-      <c r="G236" s="76"/>
-    </row>
-    <row r="237" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B237" s="2" t="s">
+    <row r="235" spans="2:10" s="70" customFormat="1" ht="25.5">
+      <c r="B235" s="13">
+        <v>36</v>
+      </c>
+      <c r="C235" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="D235" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="E235" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F235" s="14"/>
+      <c r="G235" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H235" s="16"/>
+      <c r="J235" s="76"/>
+    </row>
+    <row r="236" spans="2:10" s="70" customFormat="1" ht="38.25">
+      <c r="B236" s="13">
+        <v>37</v>
+      </c>
+      <c r="C236" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="D236" s="52" t="s">
+        <v>660</v>
+      </c>
+      <c r="E236" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F236" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G236" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H236" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="J236" s="76"/>
+    </row>
+    <row r="237" spans="2:10" s="70" customFormat="1" ht="25.5">
+      <c r="B237" s="13">
+        <v>38</v>
+      </c>
+      <c r="C237" s="50" t="s">
+        <v>662</v>
+      </c>
+      <c r="D237" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="E237" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F237" s="14"/>
+      <c r="G237" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="H237" s="16"/>
+      <c r="J237" s="76"/>
+    </row>
+    <row r="238" spans="2:10" ht="32.25" customHeight="1"/>
+    <row r="239" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B239" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C239" s="84"/>
+      <c r="D239" s="84"/>
+      <c r="E239" s="84"/>
+      <c r="F239" s="84"/>
+      <c r="G239" s="85"/>
+    </row>
+    <row r="240" spans="2:10" ht="24.75" customHeight="1">
+      <c r="B240" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E237" s="1" t="s">
+      <c r="D240" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" ht="12.75">
-      <c r="B238" s="13"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="13"/>
-    </row>
-    <row r="239" spans="2:8" ht="12.75">
-      <c r="B239" s="13"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="14"/>
-      <c r="G239" s="13"/>
-    </row>
-    <row r="240" spans="2:8" ht="12.75">
-      <c r="B240" s="13"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="14"/>
-      <c r="G240" s="13"/>
-    </row>
-    <row r="241" spans="2:7" ht="18">
+    </row>
+    <row r="241" spans="2:7" ht="12.75">
       <c r="B241" s="13"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
       <c r="F241" s="14"/>
-      <c r="G241" s="16"/>
+      <c r="G241" s="13"/>
     </row>
     <row r="242" spans="2:7" ht="12.75">
       <c r="B242" s="13"/>
@@ -8515,13 +9381,13 @@
       <c r="F243" s="14"/>
       <c r="G243" s="13"/>
     </row>
-    <row r="244" spans="2:7" ht="12.75">
+    <row r="244" spans="2:7" ht="18">
       <c r="B244" s="13"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
       <c r="E244" s="14"/>
       <c r="F244" s="14"/>
-      <c r="G244" s="13"/>
+      <c r="G244" s="16"/>
     </row>
     <row r="245" spans="2:7" ht="12.75">
       <c r="B245" s="13"/>
@@ -8539,35 +9405,35 @@
       <c r="F246" s="14"/>
       <c r="G246" s="13"/>
     </row>
-    <row r="247" spans="2:7" ht="33" customHeight="1"/>
-    <row r="248" spans="2:7" ht="23.25">
-      <c r="B248" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251" spans="2:7" ht="12.75">
-      <c r="B251" s="13"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="13"/>
-    </row>
-    <row r="252" spans="2:7" ht="12.75">
-      <c r="B252" s="13"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="14"/>
-      <c r="F252" s="14"/>
-      <c r="G252" s="13"/>
-    </row>
-    <row r="253" spans="2:7" ht="12.75">
-      <c r="B253" s="13"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
-      <c r="F253" s="14"/>
-      <c r="G253" s="13"/>
+    <row r="247" spans="2:7" ht="12.75">
+      <c r="B247" s="13"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="13"/>
+    </row>
+    <row r="248" spans="2:7" ht="12.75">
+      <c r="B248" s="13"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="13"/>
+    </row>
+    <row r="249" spans="2:7" ht="12.75">
+      <c r="B249" s="13"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="13"/>
+    </row>
+    <row r="250" spans="2:7" ht="33" customHeight="1"/>
+    <row r="251" spans="2:7" ht="23.25">
+      <c r="B251" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="254" spans="2:7" ht="12.75">
       <c r="B254" s="13"/>
@@ -8633,21 +9499,21 @@
       <c r="F261" s="14"/>
       <c r="G261" s="13"/>
     </row>
-    <row r="262" spans="2:7" ht="18">
+    <row r="262" spans="2:7" ht="12.75">
       <c r="B262" s="13"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
       <c r="E262" s="14"/>
       <c r="F262" s="14"/>
-      <c r="G262" s="16"/>
-    </row>
-    <row r="263" spans="2:7" ht="18">
+      <c r="G262" s="13"/>
+    </row>
+    <row r="263" spans="2:7" ht="12.75">
       <c r="B263" s="13"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
       <c r="E263" s="14"/>
       <c r="F263" s="14"/>
-      <c r="G263" s="16"/>
+      <c r="G263" s="13"/>
     </row>
     <row r="264" spans="2:7" ht="12.75">
       <c r="B264" s="13"/>
@@ -8665,13 +9531,13 @@
       <c r="F265" s="14"/>
       <c r="G265" s="16"/>
     </row>
-    <row r="266" spans="2:7" ht="12.75">
+    <row r="266" spans="2:7" ht="18">
       <c r="B266" s="13"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
       <c r="E266" s="14"/>
       <c r="F266" s="14"/>
-      <c r="G266" s="13"/>
+      <c r="G266" s="16"/>
     </row>
     <row r="267" spans="2:7" ht="12.75">
       <c r="B267" s="13"/>
@@ -8689,21 +9555,21 @@
       <c r="F268" s="14"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="2:7" ht="18">
+    <row r="269" spans="2:7" ht="12.75">
       <c r="B269" s="13"/>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
-      <c r="G269" s="16"/>
-    </row>
-    <row r="270" spans="2:7" ht="18">
+      <c r="G269" s="13"/>
+    </row>
+    <row r="270" spans="2:7" ht="12.75">
       <c r="B270" s="13"/>
       <c r="C270" s="14"/>
       <c r="D270" s="14"/>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
-      <c r="G270" s="16"/>
+      <c r="G270" s="13"/>
     </row>
     <row r="271" spans="2:7" ht="18">
       <c r="B271" s="13"/>
@@ -8713,41 +9579,65 @@
       <c r="F271" s="14"/>
       <c r="G271" s="16"/>
     </row>
-    <row r="272" spans="2:7" ht="12.75">
+    <row r="272" spans="2:7" ht="18">
       <c r="B272" s="13"/>
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
       <c r="E272" s="14"/>
       <c r="F272" s="14"/>
-      <c r="G272" s="13"/>
-    </row>
-    <row r="273" spans="2:7" ht="12.75">
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="2:7" ht="18">
       <c r="B273" s="13"/>
       <c r="C273" s="14"/>
       <c r="D273" s="14"/>
       <c r="E273" s="14"/>
       <c r="F273" s="14"/>
-      <c r="G273" s="13"/>
-    </row>
-    <row r="274" spans="2:7" ht="12.75">
+      <c r="G273" s="16"/>
+    </row>
+    <row r="274" spans="2:7" ht="18">
       <c r="B274" s="13"/>
       <c r="C274" s="14"/>
       <c r="D274" s="14"/>
       <c r="E274" s="14"/>
       <c r="F274" s="14"/>
-      <c r="G274" s="13"/>
-    </row>
-    <row r="275" spans="2:7" ht="18">
+      <c r="G274" s="16"/>
+    </row>
+    <row r="275" spans="2:7" ht="12.75">
       <c r="B275" s="13"/>
       <c r="C275" s="14"/>
       <c r="D275" s="14"/>
       <c r="E275" s="14"/>
       <c r="F275" s="14"/>
-      <c r="G275" s="16"/>
+      <c r="G275" s="13"/>
+    </row>
+    <row r="276" spans="2:7" ht="12.75">
+      <c r="B276" s="13"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="13"/>
+    </row>
+    <row r="277" spans="2:7" ht="12.75">
+      <c r="B277" s="13"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="13"/>
+    </row>
+    <row r="278" spans="2:7" ht="18">
+      <c r="B278" s="13"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B239:G239"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:H5"/>
@@ -8796,46 +9686,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="33.75" customHeight="1">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="R3" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="R3" s="98" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="4" spans="1:18" ht="26.25" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="G4" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="H4" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="I4" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" s="70"/>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:18" s="44" customFormat="1" ht="12.75">
       <c r="B5" s="13"/>
@@ -8868,34 +9758,34 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:18" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="A11" s="7"/>
@@ -8910,41 +9800,41 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B12" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="B12" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
     </row>
     <row r="13" spans="1:18" ht="26.25" customHeight="1">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="112" t="s">
+      <c r="C13" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="G13" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="H13" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="I13" s="78" t="s">
         <v>153</v>
-      </c>
-      <c r="H13" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="112" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="44" customFormat="1" ht="12.75">
@@ -9039,41 +9929,41 @@
     </row>
     <row r="23" spans="2:9" ht="35.25" customHeight="1"/>
     <row r="24" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B24" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
+      <c r="B24" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="111" t="s">
+      <c r="C25" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="G25" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="H25" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="111" t="s">
+      <c r="I25" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H25" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="2:9" s="44" customFormat="1" ht="12.75">
@@ -9138,53 +10028,53 @@
     </row>
     <row r="32" spans="2:9" ht="31.5" customHeight="1"/>
     <row r="33" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85"/>
+    </row>
+    <row r="34" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B34" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-    </row>
-    <row r="34" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B34" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="2:9" ht="24" customHeight="1">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="111" t="s">
+      <c r="C35" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="111" t="s">
+      <c r="G35" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="111" t="s">
+      <c r="H35" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="I35" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H35" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="44" customFormat="1" ht="12.75">
@@ -9289,41 +10179,41 @@
     </row>
     <row r="46" spans="2:9" s="44" customFormat="1" ht="30" customHeight="1"/>
     <row r="47" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="85"/>
     </row>
     <row r="48" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="111" t="s">
+      <c r="C48" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="111" t="s">
+      <c r="G48" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="111" t="s">
+      <c r="H48" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="111" t="s">
+      <c r="I48" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H48" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I48" s="111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="44" customFormat="1" ht="12.75">
@@ -9408,41 +10298,41 @@
     </row>
     <row r="57" spans="2:9" ht="29.25" customHeight="1"/>
     <row r="58" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="85"/>
     </row>
     <row r="59" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B59" s="111" t="s">
+      <c r="B59" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="111" t="s">
+      <c r="C59" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="111" t="s">
+      <c r="G59" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="111" t="s">
+      <c r="H59" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="111" t="s">
+      <c r="I59" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H59" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" s="111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="2:9" s="44" customFormat="1" ht="12.75">
@@ -9537,41 +10427,41 @@
     </row>
     <row r="69" spans="2:9" ht="28.5" customHeight="1"/>
     <row r="70" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B70" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="76"/>
+      <c r="B70" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="85"/>
     </row>
     <row r="71" spans="2:9" ht="27" customHeight="1">
-      <c r="B71" s="111" t="s">
+      <c r="B71" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="111" t="s">
+      <c r="C71" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="111" t="s">
+      <c r="G71" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="111" t="s">
+      <c r="H71" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G71" s="111" t="s">
+      <c r="I71" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H71" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I71" s="111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:9" s="44" customFormat="1" ht="12.75">
@@ -9626,82 +10516,82 @@
     </row>
     <row r="77" spans="2:9" ht="31.5" customHeight="1"/>
     <row r="78" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B78" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="76"/>
+      <c r="B78" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="85"/>
     </row>
     <row r="79" spans="2:9" ht="27" customHeight="1">
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="111" t="s">
+      <c r="C79" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E79" s="111" t="s">
+      <c r="G79" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="111" t="s">
+      <c r="H79" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G79" s="111" t="s">
+      <c r="I79" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="H79" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I79" s="111" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="80" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B80" s="108"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108"/>
-      <c r="G80" s="108"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
     </row>
     <row r="81" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B81" s="108"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
-      <c r="G81" s="108"/>
-      <c r="H81" s="108"/>
-      <c r="I81" s="108"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="75"/>
     </row>
     <row r="82" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="108"/>
-      <c r="H82" s="108"/>
-      <c r="I82" s="108"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
     </row>
     <row r="83" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="108"/>
-      <c r="I83" s="108"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
     </row>
     <row r="84" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="B84" s="13"/>
@@ -9715,41 +10605,41 @@
     </row>
     <row r="85" spans="2:9" s="59" customFormat="1" ht="29.25" customHeight="1"/>
     <row r="86" spans="2:9" s="59" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B86" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="106"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="106"/>
-      <c r="G86" s="106"/>
-      <c r="H86" s="106"/>
-      <c r="I86" s="107"/>
+      <c r="B86" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="108"/>
     </row>
     <row r="87" spans="2:9" s="59" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B87" s="111" t="s">
+      <c r="B87" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" s="111" t="s">
+      <c r="C87" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="111" t="s">
+      <c r="G87" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="F87" s="111" t="s">
+      <c r="H87" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G87" s="111" t="s">
+      <c r="I87" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H87" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="I87" s="111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="88" spans="2:9" s="44" customFormat="1" ht="12.75">
@@ -9804,17 +10694,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B86:I86"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B86:I86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9848,7 +10738,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9856,10 +10746,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9867,10 +10757,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9878,10 +10768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9889,10 +10779,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9900,10 +10790,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="44" customFormat="1" ht="102">
@@ -9911,10 +10801,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>111</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:4" s="44" customFormat="1" ht="51">
@@ -9922,10 +10812,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9933,10 +10823,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="44" customFormat="1" ht="51">
@@ -9944,10 +10834,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:4" s="44" customFormat="1" ht="51">
@@ -9955,10 +10845,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9966,10 +10856,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -9977,10 +10867,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -9988,10 +10878,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/test_form_group_28_Kiselev_A.xlsx
+++ b/test_form_group_28_Kiselev_A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="734">
   <si>
     <t>Требования к форме</t>
   </si>
@@ -550,9 +550,6 @@
 Success! Hello: Fedor Ivanov</t>
   </si>
   <si>
-    <t>id: 1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -625,9 +622,6 @@
 "Surname" : Ivanov</t>
   </si>
   <si>
-    <t>id: 2</t>
-  </si>
-  <si>
     <t>"Name" : Fedor
 "Email": fedor-86@mail.ru</t>
   </si>
@@ -660,12 +654,6 @@
     <t>"Name" : Fedor
 "Surname" : Ivanov
 "Email": fedor-86@mail.ru</t>
-  </si>
-  <si>
-    <t>id: 3</t>
-  </si>
-  <si>
-    <t>id: 4</t>
   </si>
   <si>
     <t>"Name" : Fedor
@@ -737,30 +725,6 @@
   <si>
     <t>Успешная регистрация
 Success! Hello: Feda Nova</t>
-  </si>
-  <si>
-    <t>id: 5</t>
-  </si>
-  <si>
-    <t>id: 6</t>
-  </si>
-  <si>
-    <t>id: 7</t>
-  </si>
-  <si>
-    <t>id: 8</t>
-  </si>
-  <si>
-    <t>id: 9</t>
-  </si>
-  <si>
-    <t>id: 10</t>
-  </si>
-  <si>
-    <t>id: 11</t>
-  </si>
-  <si>
-    <t>id: 12</t>
   </si>
   <si>
     <t>Если количество символов в поле name &gt;=4 &lt;=25, а в других полях любое количество &gt; 1, то регистрация будет успешной</t>
@@ -1010,14 +974,8 @@
     </r>
   </si>
   <si>
-    <t>id: 13</t>
-  </si>
-  <si>
     <t>Заполнить поля "Name", "Password" валидными данными, а поля,
 "Email" ,"Surname",  невалидными и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>id: 14</t>
   </si>
   <si>
     <t>Заполнить поля "Name", "Password" невалидными данными, а поля,
@@ -1103,9 +1061,6 @@
     </r>
   </si>
   <si>
-    <t>id: 15</t>
-  </si>
-  <si>
     <t>Заполнить поля "Name", "Email" невалидными данными, а поля,
 "Surname", "Password" валидными и нажать на кнопку "Submit"</t>
   </si>
@@ -1161,34 +1116,16 @@
     <t>id: 17</t>
   </si>
   <si>
-    <t>id: 18</t>
-  </si>
-  <si>
-    <t>Заполнить только поле "Name" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
     <t>"Name" : Feda</t>
   </si>
   <si>
-    <t>Заполнить только поле "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
     <t>"Surname" : Nova</t>
   </si>
   <si>
-    <t>Заполнить только поле "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
     <t>"Email": fedo@l.ru</t>
   </si>
   <si>
-    <t>Заполнить только поле "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
     <t>"Password": ivan</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Name", "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
   </si>
   <si>
     <t>"Name" : Feda
@@ -1197,24 +1134,6 @@
   <si>
     <t>"Name" : Feda
 "Email": fedo@l.ru</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Name", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Name", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Surname", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Surname","Email", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить только поля "Name","Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
   </si>
   <si>
     <t>Заполнить только поля "Name","Email", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
@@ -1393,16 +1312,7 @@
     <t>"Name": " Fedor "</t>
   </si>
   <si>
-    <t>id: 20</t>
-  </si>
-  <si>
     <t>"Name": Fedor..</t>
-  </si>
-  <si>
-    <t>id: 21</t>
-  </si>
-  <si>
-    <t>id: 22</t>
   </si>
   <si>
     <t>Ввод двух . подряд вместе с латинскими буквами</t>
@@ -1453,15 +1363,9 @@
 Success! Hello: er##34%^&amp;*456 Novak</t>
   </si>
   <si>
-    <t>id: 23</t>
-  </si>
-  <si>
     <t>Ввод только пробелов</t>
   </si>
   <si>
-    <t>id: 24</t>
-  </si>
-  <si>
     <t>Возможность copy-paste в поле ввода "Name"</t>
   </si>
   <si>
@@ -1469,9 +1373,6 @@
   </si>
   <si>
     <t>"Name": Федор</t>
-  </si>
-  <si>
-    <t>id: 25</t>
   </si>
   <si>
     <t>Успешная регистрация
@@ -1497,9 +1398,6 @@
 Success! Hello: Fedo Novak</t>
   </si>
   <si>
-    <t>id: 26</t>
-  </si>
-  <si>
     <t>Вводим 6 символов</t>
   </si>
   <si>
@@ -1524,13 +1422,7 @@
     <t>"Name":FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfe</t>
   </si>
   <si>
-    <t>id: 27</t>
-  </si>
-  <si>
     <t>"Name":FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfed</t>
-  </si>
-  <si>
-    <t>id: 28</t>
   </si>
   <si>
     <t>"Name":FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedo</t>
@@ -1576,6 +1468,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> заполним валидными данными </t>
@@ -1598,6 +1492,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -2211,6 +2107,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
                -Google chrom
@@ -2621,12 +2519,1226 @@
   <si>
     <t>Ввести в поле Password 8 знаков</t>
   </si>
+  <si>
+    <t>Bug_1</t>
+  </si>
+  <si>
+    <t>Bug_2</t>
+  </si>
+  <si>
+    <t>Bug_3</t>
+  </si>
+  <si>
+    <t>Bug_4</t>
+  </si>
+  <si>
+    <t>Bug_5</t>
+  </si>
+  <si>
+    <t>Bug_6</t>
+  </si>
+  <si>
+    <t>Bug_7</t>
+  </si>
+  <si>
+    <t>Bug_8</t>
+  </si>
+  <si>
+    <t>Bug_9</t>
+  </si>
+  <si>
+    <t>Bug_10</t>
+  </si>
+  <si>
+    <t>Bug_11</t>
+  </si>
+  <si>
+    <t>Bug_12</t>
+  </si>
+  <si>
+    <t>Bug_13</t>
+  </si>
+  <si>
+    <t>Bug_14</t>
+  </si>
+  <si>
+    <t>Bug_15</t>
+  </si>
+  <si>
+    <t>Bug_16</t>
+  </si>
+  <si>
+    <t>Bug_17</t>
+  </si>
+  <si>
+    <t>Bug_18</t>
+  </si>
+  <si>
+    <t>ID: 1</t>
+  </si>
+  <si>
+    <t>Пользователь не регистрируется при заполнении всех обязательных полей</t>
+  </si>
+  <si>
+    <t>Пользователь не зарегистрирован. Под формой регистрации появилось сообщение: 
+Error: Error: All Fields are Required</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>ID: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь регистрируется при заполнении полей "Name", "Surname" </t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor Ivanov</t>
+  </si>
+  <si>
+    <t>ID: 5</t>
+  </si>
+  <si>
+    <t>ID: 6</t>
+  </si>
+  <si>
+    <t>ID: 3</t>
+  </si>
+  <si>
+    <t>ID: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь регистрируется при заполнении полей "Name", "Surname", "Email"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь регистрируется при заполнении полей "Name", "Email", "Password"  </t>
+  </si>
+  <si>
+    <t>ID: 7</t>
+  </si>
+  <si>
+    <t>ID: 8</t>
+  </si>
+  <si>
+    <t>ID: 9</t>
+  </si>
+  <si>
+    <t>ID: 10</t>
+  </si>
+  <si>
+    <t>ID: 11</t>
+  </si>
+  <si>
+    <t>ID: 12</t>
+  </si>
+  <si>
+    <t>ID: 13</t>
+  </si>
+  <si>
+    <t>ID: 14</t>
+  </si>
+  <si>
+    <t>ID: 15</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Feda Nova</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении всех полей невалидными данными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении полей "Name", "Email", "Password" невалидными данными , а поле "Surname" валидными</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Feda Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении полей "Surname", "Email", "Password" невалидными данными, а поле "Name" валидными</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor Nova</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Surname", "Password" невалидными данными, а поле "Email" валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name",
+"Surname", "Email" невалидными данными, а поле "Password" валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести валидные данные во все обязательные поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести валидные данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor
+"Surname": Ivanov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести валидные данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor
+"Surname": Ivanov
+"Email": fedor-86@mail.ru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести валидные данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor
+"Surname": Ivanov
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести невалидные данные во все поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova
+"Email": fedo@l.ru
+"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedo@l.ru
+"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Nova
+"Email": fedo@l.ru
+"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova
+"Email": fedo@l.ru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Surname", невалидными данными, а поля 
+"Email", "Password" валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor
+"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Email": fedo@l.ru
+"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Windows 10 Google chrome Версия 102.0.5005.61 (Официальная сборка), (64 бит)</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Email" валидными данными, а поля,
+"Surname", "Password" невалидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : Fedor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Nova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Email": fedor-86@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Password" валидными данными, а поля,
+"Email" ,"Surname",  невалидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : Fedor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Nova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedo@l.ru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : Novak
+"Email":  fedor-86@mail.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password": ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Password" невалидными данными, а поля,
+"Email" ,"Surname",  валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Email" невалидными данными, а поля,
+"Surname", "Password" валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : Feda
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Email": fedo@l.ru
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении полей "Name", "Surname" невалидными данными, остальные поля пустые</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email":
+"Password":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>ID: 18</t>
+  </si>
+  <si>
+    <t>ID: 19</t>
+  </si>
+  <si>
+    <t>ID: 20</t>
+  </si>
+  <si>
+    <t>ID: 21</t>
+  </si>
+  <si>
+    <t>ID: 22</t>
+  </si>
+  <si>
+    <t>ID: 23</t>
+  </si>
+  <si>
+    <t>ID: 24</t>
+  </si>
+  <si>
+    <t>ID: 25</t>
+  </si>
+  <si>
+    <t>ID: 26</t>
+  </si>
+  <si>
+    <t>ID: 27</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name","Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Surname","Email", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Emale", "Password" валидными данными и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Surname", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name", "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Name" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении полей "Name","Surname", "Email" невалидными данными остальные поля пустые</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные во поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova
+"Email": fedo@l.ru
+"Password":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug_19</t>
+  </si>
+  <si>
+    <t>Bug_20</t>
+  </si>
+  <si>
+    <t>Bug_21</t>
+  </si>
+  <si>
+    <t>Bug_22</t>
+  </si>
+  <si>
+    <t>Bug_23</t>
+  </si>
+  <si>
+    <t>Bug_24</t>
+  </si>
+  <si>
+    <t>Bug_25</t>
+  </si>
+  <si>
+    <t>Bug_26</t>
+  </si>
+  <si>
+    <t>Bug_27</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2646,6 +3758,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2653,16 +3767,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2674,24 +3794,32 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2699,6 +3827,8 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2712,6 +3842,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2734,6 +3866,8 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2793,8 +3927,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2858,6 +4000,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3062,7 +4216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3228,18 +4382,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3250,18 +4392,25 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3292,10 +4441,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3310,16 +4468,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3329,31 +4490,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3577,8 +4732,8 @@
   </sheetPr>
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3611,10 +4766,10 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="85"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3622,11 +4777,11 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="24" customHeight="1">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -3651,10 +4806,10 @@
       <c r="L5" s="62"/>
     </row>
     <row r="6" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -3667,31 +4822,31 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B7" s="88"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B8" s="88"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B9" s="89"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -3699,22 +4854,22 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B11" s="90"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B12" s="90"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B13" s="91"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
@@ -3831,11 +4986,11 @@
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1"/>
     <row r="25" spans="2:4" ht="22.5" customHeight="1">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
     </row>
     <row r="26" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B26" s="13">
@@ -3889,7 +5044,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -3930,7 +5085,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>33</v>
@@ -4004,11 +5159,11 @@
     </row>
     <row r="41" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="42" spans="1:4" ht="24" customHeight="1">
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="80"/>
     </row>
     <row r="43" spans="1:4" s="44" customFormat="1" ht="25.5">
       <c r="B43" s="13">
@@ -4076,7 +5231,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -4212,11 +5367,11 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="26.25" customHeight="1">
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80"/>
     </row>
     <row r="63" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B63" s="13">
@@ -4248,18 +5403,18 @@
         <v>61</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" s="76" customFormat="1" ht="12.75">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="72" customFormat="1" ht="12.75">
       <c r="B66" s="13">
         <v>4</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -4329,11 +5484,11 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="24.75" customHeight="1">
-      <c r="B74" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="C74" s="84"/>
-      <c r="D74" s="85"/>
+      <c r="B74" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="C74" s="79"/>
+      <c r="D74" s="80"/>
     </row>
     <row r="75" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B75" s="13">
@@ -4625,8 +5780,8 @@
   </sheetPr>
   <dimension ref="B2:J278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4643,49 +5798,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1">
-      <c r="B5" s="95" t="s">
-        <v>562</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
+      <c r="B5" s="94" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="2:8" ht="26.25" customHeight="1"/>
     <row r="7" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="2:8" ht="45" customHeight="1">
       <c r="B8" s="2" t="s">
@@ -4706,33 +5861,33 @@
       <c r="G8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="112" t="s">
-        <v>566</v>
+      <c r="H8" s="76" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="24" customHeight="1">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
     </row>
     <row r="10" spans="2:8" ht="51">
       <c r="B10" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="35" t="s">
@@ -4742,39 +5897,39 @@
     </row>
     <row r="11" spans="2:8" ht="51">
       <c r="B11" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>169</v>
+      <c r="H11" s="118" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="51">
       <c r="B12" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="35" t="s">
@@ -4784,16 +5939,16 @@
     </row>
     <row r="13" spans="2:8" ht="51">
       <c r="B13" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="35" t="s">
@@ -4803,16 +5958,16 @@
     </row>
     <row r="14" spans="2:8" ht="51">
       <c r="B14" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="35" t="s">
@@ -4822,16 +5977,16 @@
     </row>
     <row r="15" spans="2:8" ht="51">
       <c r="B15" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="35" t="s">
@@ -4841,16 +5996,16 @@
     </row>
     <row r="16" spans="2:8" ht="51">
       <c r="B16" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>212</v>
+        <v>175</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>168</v>
@@ -4858,22 +6013,22 @@
       <c r="G16" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="37" t="s">
-        <v>192</v>
+      <c r="H16" s="118" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51">
       <c r="B17" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="35" t="s">
@@ -4883,16 +6038,16 @@
     </row>
     <row r="18" spans="2:10" ht="51">
       <c r="B18" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="35" t="s">
@@ -4902,16 +6057,16 @@
     </row>
     <row r="19" spans="2:10" ht="51">
       <c r="B19" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="35" t="s">
@@ -4921,16 +6076,16 @@
     </row>
     <row r="20" spans="2:10" ht="51">
       <c r="B20" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="35" t="s">
@@ -4940,16 +6095,16 @@
     </row>
     <row r="21" spans="2:10" ht="51">
       <c r="B21" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="35" t="s">
@@ -4959,16 +6114,16 @@
     </row>
     <row r="22" spans="2:10" ht="63.75">
       <c r="B22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="35" t="s">
@@ -4978,16 +6133,16 @@
     </row>
     <row r="23" spans="2:10" ht="51">
       <c r="B23" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>219</v>
+        <v>182</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="D23" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>200</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>204</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>168</v>
@@ -4995,22 +6150,22 @@
       <c r="G23" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="51">
+      <c r="H23" s="118" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="63.75">
       <c r="B24" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F24" s="33" t="s">
         <v>168</v>
@@ -5018,8 +6173,8 @@
       <c r="G24" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="37" t="s">
-        <v>202</v>
+      <c r="H24" s="118" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="12.75"/>
@@ -5034,41 +6189,41 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
     </row>
     <row r="28" spans="2:10" ht="89.25">
       <c r="B28" s="40">
         <v>1</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="37" t="s">
-        <v>224</v>
+      <c r="H28" s="118" t="s">
+        <v>654</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="48" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="57" customFormat="1" ht="38.25">
@@ -5076,11 +6231,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="35" t="s">
@@ -5095,22 +6250,22 @@
         <v>3</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>235</v>
+        <v>222</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>225</v>
+      <c r="H30" s="118" t="s">
+        <v>655</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="49"/>
@@ -5120,22 +6275,22 @@
         <v>4</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>237</v>
+        <v>224</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="37" t="s">
-        <v>226</v>
+      <c r="H31" s="118" t="s">
+        <v>660</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="49"/>
@@ -5145,22 +6300,22 @@
         <v>5</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="37" t="s">
-        <v>227</v>
+      <c r="H32" s="118" t="s">
+        <v>661</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="49"/>
@@ -5170,22 +6325,22 @@
         <v>6</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="37" t="s">
-        <v>228</v>
+      <c r="H33" s="118" t="s">
+        <v>662</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="49"/>
@@ -5195,22 +6350,22 @@
         <v>7</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="37" t="s">
-        <v>229</v>
+      <c r="H34" s="118" t="s">
+        <v>663</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="49"/>
@@ -5220,22 +6375,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G35" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="37" t="s">
-        <v>230</v>
+      <c r="H35" s="118" t="s">
+        <v>664</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="49"/>
@@ -5245,22 +6400,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="37" t="s">
-        <v>231</v>
+      <c r="H36" s="118" t="s">
+        <v>665</v>
       </c>
       <c r="J36" s="49"/>
     </row>
@@ -5269,22 +6424,22 @@
         <v>10</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="37" t="s">
-        <v>249</v>
+      <c r="H37" s="118" t="s">
+        <v>666</v>
       </c>
       <c r="J37" s="49"/>
     </row>
@@ -5293,22 +6448,22 @@
         <v>11</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="37" t="s">
-        <v>251</v>
+      <c r="H38" s="118" t="s">
+        <v>667</v>
       </c>
       <c r="J38" s="49"/>
     </row>
@@ -5317,37 +6472,37 @@
         <v>12</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="37" t="s">
-        <v>255</v>
+      <c r="H39" s="118" t="s">
+        <v>668</v>
       </c>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" spans="2:10" s="17" customFormat="1" ht="63.75">
+    <row r="40" spans="2:10" s="17" customFormat="1" ht="51">
       <c r="B40" s="40">
         <v>13</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>262</v>
+      <c r="C40" s="15" t="s">
+        <v>722</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="35" t="s">
@@ -5356,18 +6511,18 @@
       <c r="H40" s="33"/>
       <c r="J40" s="49"/>
     </row>
-    <row r="41" spans="2:10" s="17" customFormat="1" ht="63.75">
+    <row r="41" spans="2:10" s="17" customFormat="1" ht="51">
       <c r="B41" s="40">
         <v>14</v>
       </c>
-      <c r="C41" s="33" t="s">
-        <v>264</v>
+      <c r="C41" s="15" t="s">
+        <v>721</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="35" t="s">
@@ -5376,18 +6531,18 @@
       <c r="H41" s="33"/>
       <c r="J41" s="49"/>
     </row>
-    <row r="42" spans="2:10" s="17" customFormat="1" ht="63.75">
+    <row r="42" spans="2:10" s="17" customFormat="1" ht="51">
       <c r="B42" s="40">
         <v>15</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>266</v>
+      <c r="C42" s="15" t="s">
+        <v>720</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="35" t="s">
@@ -5400,14 +6555,14 @@
       <c r="B43" s="40">
         <v>16</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>268</v>
+      <c r="C43" s="15" t="s">
+        <v>719</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="35" t="s">
@@ -5420,23 +6575,23 @@
       <c r="B44" s="40">
         <v>17</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>270</v>
+      <c r="C44" s="15" t="s">
+        <v>718</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="37" t="s">
-        <v>259</v>
+      <c r="H44" s="118" t="s">
+        <v>244</v>
       </c>
       <c r="J44" s="49"/>
     </row>
@@ -5444,14 +6599,14 @@
       <c r="B45" s="40">
         <v>18</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>273</v>
+      <c r="C45" s="15" t="s">
+        <v>717</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="35" t="s">
@@ -5464,14 +6619,14 @@
       <c r="B46" s="40">
         <v>19</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>274</v>
+      <c r="C46" s="15" t="s">
+        <v>716</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="35" t="s">
@@ -5484,14 +6639,14 @@
       <c r="B47" s="40">
         <v>20</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>275</v>
+      <c r="C47" s="15" t="s">
+        <v>715</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="35" t="s">
@@ -5504,14 +6659,14 @@
       <c r="B48" s="40">
         <v>21</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>276</v>
+      <c r="C48" s="15" t="s">
+        <v>714</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="35" t="s">
@@ -5524,14 +6679,14 @@
       <c r="B49" s="40">
         <v>22</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>217</v>
+      <c r="C49" s="15" t="s">
+        <v>713</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="35" t="s">
@@ -5544,14 +6699,14 @@
       <c r="B50" s="40">
         <v>23</v>
       </c>
-      <c r="C50" s="33" t="s">
-        <v>277</v>
+      <c r="C50" s="15" t="s">
+        <v>712</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="35" t="s">
@@ -5564,38 +6719,38 @@
       <c r="B51" s="40">
         <v>24</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>278</v>
+      <c r="C51" s="15" t="s">
+        <v>711</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G51" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="37" t="s">
-        <v>260</v>
+      <c r="H51" s="118" t="s">
+        <v>245</v>
       </c>
       <c r="J51" s="49"/>
     </row>
-    <row r="52" spans="2:10" s="17" customFormat="1" ht="63.75">
+    <row r="52" spans="2:10" s="17" customFormat="1" ht="76.5">
       <c r="B52" s="40">
         <v>25</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="35" t="s">
@@ -5621,15 +6776,15 @@
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B55" s="118" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
+      <c r="B55" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
     </row>
     <row r="56" spans="2:10" ht="24.75" customHeight="1">
       <c r="B56" s="2" t="s">
@@ -5659,13 +6814,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="35" t="s">
@@ -5678,13 +6833,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="35" t="s">
@@ -5697,13 +6852,13 @@
         <v>3</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="35" t="s">
@@ -5716,13 +6871,13 @@
         <v>4</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="35" t="s">
@@ -5735,13 +6890,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D61" s="51" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="35" t="s">
@@ -5754,13 +6909,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="35" t="s">
@@ -5773,13 +6928,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="35" t="s">
@@ -5792,13 +6947,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="35" t="s">
@@ -5811,13 +6966,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="35" t="s">
@@ -5830,13 +6985,13 @@
         <v>10</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="35" t="s">
@@ -5849,13 +7004,13 @@
         <v>11</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="35" t="s">
@@ -5869,13 +7024,13 @@
         <v>12</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="35" t="s">
@@ -5889,13 +7044,13 @@
         <v>13</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="35" t="s">
@@ -5908,22 +7063,22 @@
         <v>14</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H70" s="37" t="s">
-        <v>261</v>
+      <c r="H70" s="121" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="25.5">
@@ -5931,13 +7086,13 @@
         <v>15</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="35" t="s">
@@ -5950,13 +7105,13 @@
         <v>16</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="35" t="s">
@@ -5969,22 +7124,22 @@
         <v>17</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H73" s="37" t="s">
-        <v>317</v>
+      <c r="H73" s="121" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="25.5">
@@ -5992,13 +7147,13 @@
         <v>18</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="35" t="s">
@@ -6011,10 +7166,10 @@
         <v>19</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -6029,13 +7184,13 @@
         <v>20</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="35" t="s">
@@ -6048,22 +7203,22 @@
         <v>21</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H77" s="37" t="s">
-        <v>319</v>
+      <c r="H77" s="121" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="38.25">
@@ -6071,22 +7226,22 @@
         <v>22</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H78" s="37" t="s">
-        <v>320</v>
+      <c r="H78" s="121" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="25.5">
@@ -6094,13 +7249,13 @@
         <v>23</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="D79" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="35" t="s">
@@ -6113,22 +7268,22 @@
         <v>24</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="G80" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H80" s="37" t="s">
-        <v>336</v>
+      <c r="H80" s="121" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="25.5">
@@ -6136,22 +7291,22 @@
         <v>25</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="G81" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H81" s="37" t="s">
-        <v>338</v>
+      <c r="H81" s="121" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="25.5">
@@ -6159,22 +7314,22 @@
         <v>26</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="G82" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H82" s="37" t="s">
-        <v>342</v>
+      <c r="H82" s="121" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="83" spans="2:10" s="17" customFormat="1" ht="25.5">
@@ -6182,13 +7337,13 @@
         <v>27</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="D83" s="51" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="35" t="s">
@@ -6202,13 +7357,13 @@
         <v>28</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="35" t="s">
@@ -6216,64 +7371,64 @@
       </c>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="2:10" ht="76.5">
+    <row r="85" spans="2:10" ht="63.75">
       <c r="B85" s="13">
         <v>29</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="D85" s="51" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G85" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H85" s="37" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" ht="76.5">
+      <c r="H85" s="121" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="63.75">
       <c r="B86" s="13">
         <v>30</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F86" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G86" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H86" s="37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" ht="76.5">
+      <c r="H86" s="121" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="63.75">
       <c r="B87" s="13">
         <v>31</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="35" t="s">
@@ -6286,22 +7441,22 @@
         <v>32</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F88" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G88" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="37" t="s">
-        <v>361</v>
+      <c r="H88" s="121" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="25.5">
@@ -6309,13 +7464,13 @@
         <v>33</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="35" t="s">
@@ -6327,15 +7482,15 @@
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B91" s="116" t="s">
-        <v>369</v>
-      </c>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="117"/>
-      <c r="H91" s="117"/>
+      <c r="B91" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" s="102"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="102"/>
     </row>
     <row r="92" spans="2:10" ht="43.5" customHeight="1">
       <c r="B92" s="2" t="s">
@@ -6356,8 +7511,8 @@
       <c r="G92" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H92" s="112" t="s">
-        <v>566</v>
+      <c r="H92" s="76" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="25.5">
@@ -6365,13 +7520,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="35" t="s">
@@ -6384,13 +7539,13 @@
         <v>2</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D94" s="51" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="35" t="s">
@@ -6403,13 +7558,13 @@
         <v>3</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D95" s="51" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="35" t="s">
@@ -6422,13 +7577,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D96" s="51" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="35" t="s">
@@ -6441,13 +7596,13 @@
         <v>5</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="35" t="s">
@@ -6460,13 +7615,13 @@
         <v>6</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="35" t="s">
@@ -6479,13 +7634,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="35" t="s">
@@ -6498,13 +7653,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="35" t="s">
@@ -6517,13 +7672,13 @@
         <v>9</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="35" t="s">
@@ -6537,13 +7692,13 @@
         <v>10</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="35" t="s">
@@ -6556,13 +7711,13 @@
         <v>11</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="D103" s="51" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="35" t="s">
@@ -6573,13 +7728,13 @@
     <row r="104" spans="2:10" ht="51">
       <c r="B104" s="13"/>
       <c r="C104" s="50" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="D104" s="51" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="35" t="s">
@@ -6592,13 +7747,13 @@
         <v>12</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D105" s="51" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="E105" s="50" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="35" t="s">
@@ -6611,22 +7766,22 @@
         <v>13</v>
       </c>
       <c r="C106" s="50" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="G106" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H106" s="37" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="25.5">
@@ -6634,13 +7789,13 @@
         <v>14</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="35" t="s">
@@ -6653,13 +7808,13 @@
         <v>15</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="35" t="s">
@@ -6672,22 +7827,22 @@
         <v>16</v>
       </c>
       <c r="C109" s="50" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="D109" s="52" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="G109" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="25.5">
@@ -6695,13 +7850,13 @@
         <v>17</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="35" t="s">
@@ -6714,13 +7869,13 @@
         <v>18</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="35" t="s">
@@ -6733,22 +7888,22 @@
         <v>19</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="G112" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H112" s="37" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="38.25">
@@ -6756,22 +7911,22 @@
         <v>20</v>
       </c>
       <c r="C113" s="50" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="G113" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="38.25">
@@ -6779,22 +7934,22 @@
         <v>21</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F114" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G114" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="38.25">
@@ -6802,22 +7957,22 @@
         <v>22</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D115" s="52" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="38.25">
@@ -6825,22 +7980,22 @@
         <v>23</v>
       </c>
       <c r="C116" s="50" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="G116" s="42" t="s">
         <v>80</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="25.5">
@@ -6848,22 +8003,22 @@
         <v>24</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G117" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="24" customHeight="1">
@@ -6871,13 +8026,13 @@
         <v>24</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="D118" s="51" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="35" t="s">
@@ -6890,13 +8045,13 @@
         <v>25</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D119" s="51" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="35" t="s">
@@ -6909,13 +8064,13 @@
         <v>26</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="D120" s="51" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="35" t="s">
@@ -6928,13 +8083,13 @@
         <v>27</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="D121" s="51" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="35" t="s">
@@ -6947,36 +8102,36 @@
         <v>28</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="D122" s="51" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="G122" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" ht="51">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="38.25">
       <c r="B123" s="13">
         <v>29</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D123" s="51" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="35" t="s">
@@ -6989,35 +8144,35 @@
         <v>30</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="27.75" customHeight="1"/>
     <row r="126" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B126" s="104" t="s">
+      <c r="B126" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="100"/>
-      <c r="D126" s="100"/>
-      <c r="E126" s="100"/>
-      <c r="F126" s="100"/>
-      <c r="G126" s="100"/>
-      <c r="H126" s="100"/>
+      <c r="C126" s="107"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="107"/>
+      <c r="G126" s="107"/>
+      <c r="H126" s="107"/>
     </row>
     <row r="127" spans="2:8" ht="40.5" customHeight="1">
       <c r="B127" s="2" t="s">
@@ -7038,56 +8193,56 @@
       <c r="G127" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H127" s="112" t="s">
-        <v>566</v>
+      <c r="H127" s="76" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="41.25" customHeight="1">
-      <c r="B128" s="115" t="s">
-        <v>564</v>
-      </c>
-      <c r="C128" s="114"/>
-      <c r="D128" s="114"/>
-      <c r="E128" s="114"/>
-      <c r="F128" s="114"/>
-      <c r="G128" s="114"/>
-      <c r="H128" s="114"/>
+      <c r="B128" s="98" t="s">
+        <v>528</v>
+      </c>
+      <c r="C128" s="99"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="99"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="99"/>
     </row>
     <row r="129" spans="2:10" ht="38.25">
       <c r="B129" s="13">
         <v>1</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="D129" s="52" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F129" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G129" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" s="56" customFormat="1" ht="63.75">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" s="56" customFormat="1" ht="51">
       <c r="B130" s="13">
         <v>2</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F130" s="50"/>
       <c r="G130" s="35" t="s">
@@ -7101,13 +8256,13 @@
         <v>3</v>
       </c>
       <c r="C131" s="50" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="35" t="s">
@@ -7120,13 +8275,13 @@
         <v>4</v>
       </c>
       <c r="C132" s="50" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D132" s="51" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="35" t="s">
@@ -7139,13 +8294,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="50" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="D133" s="51" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="35" t="s">
@@ -7158,13 +8313,13 @@
         <v>6</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="D134" s="51" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="35" t="s">
@@ -7177,13 +8332,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="50" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="35" t="s">
@@ -7196,13 +8351,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="35" t="s">
@@ -7215,13 +8370,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="50" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="35" t="s">
@@ -7234,13 +8389,13 @@
         <v>10</v>
       </c>
       <c r="C138" s="50" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="35" t="s">
@@ -7253,22 +8408,22 @@
         <v>11</v>
       </c>
       <c r="C139" s="50" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F139" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G139" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H139" s="37" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="38.25">
@@ -7276,22 +8431,22 @@
         <v>12</v>
       </c>
       <c r="C140" s="50" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F140" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G140" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H140" s="37" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="38.25">
@@ -7299,22 +8454,22 @@
         <v>13</v>
       </c>
       <c r="C141" s="50" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F141" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G141" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="38.25">
@@ -7322,22 +8477,22 @@
         <v>14</v>
       </c>
       <c r="C142" s="50" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="D142" s="52" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F142" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G142" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H142" s="37" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="38.25">
@@ -7345,22 +8500,22 @@
         <v>15</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="D143" s="52" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F143" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G143" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="38.25">
@@ -7368,22 +8523,22 @@
         <v>16</v>
       </c>
       <c r="C144" s="50" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D144" s="52" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F144" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G144" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H144" s="37" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="38.25">
@@ -7391,22 +8546,22 @@
         <v>17</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F145" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G145" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -7414,13 +8569,13 @@
         <v>18</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D146" s="51" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="35" t="s">
@@ -7434,13 +8589,13 @@
         <v>19</v>
       </c>
       <c r="C147" s="50" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="D147" s="51" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="35" t="s">
@@ -7454,13 +8609,13 @@
         <v>20</v>
       </c>
       <c r="C148" s="50" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="D148" s="51" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="35" t="s">
@@ -7474,13 +8629,13 @@
         <v>21</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="D149" s="51" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F149" s="15"/>
       <c r="G149" s="35" t="s">
@@ -7494,22 +8649,22 @@
         <v>22</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D150" s="52" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F150" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G150" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="J150" s="44"/>
     </row>
@@ -7518,13 +8673,13 @@
         <v>23</v>
       </c>
       <c r="C151" s="50" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="D151" s="51" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F151" s="15"/>
       <c r="G151" s="35" t="s">
@@ -7537,47 +8692,47 @@
         <v>24</v>
       </c>
       <c r="C152" s="50" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="D152" s="52" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F152" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G152" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="2:10" ht="42" customHeight="1">
-      <c r="B153" s="115" t="s">
-        <v>565</v>
-      </c>
-      <c r="C153" s="114"/>
-      <c r="D153" s="114"/>
-      <c r="E153" s="114"/>
-      <c r="F153" s="114"/>
-      <c r="G153" s="114"/>
-      <c r="H153" s="114"/>
+      <c r="B153" s="98" t="s">
+        <v>529</v>
+      </c>
+      <c r="C153" s="99"/>
+      <c r="D153" s="99"/>
+      <c r="E153" s="99"/>
+      <c r="F153" s="99"/>
+      <c r="G153" s="99"/>
+      <c r="H153" s="99"/>
     </row>
     <row r="154" spans="2:10" ht="25.5">
       <c r="B154" s="13">
         <v>25</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="D154" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F154" s="15"/>
       <c r="G154" s="35" t="s">
@@ -7590,22 +8745,22 @@
         <v>26</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="D155" s="52" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F155" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G155" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="2:10" ht="38.25">
@@ -7613,22 +8768,22 @@
         <v>27</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="D156" s="52" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F156" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G156" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H156" s="37" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
     </row>
     <row r="157" spans="2:10" ht="25.5">
@@ -7639,10 +8794,10 @@
         <v>37</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="35" t="s">
@@ -7655,13 +8810,13 @@
         <v>29</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="D158" s="51" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F158" s="15"/>
       <c r="G158" s="35" t="s">
@@ -7674,13 +8829,13 @@
         <v>30</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="D159" s="51" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F159" s="15"/>
       <c r="G159" s="35" t="s">
@@ -7693,22 +8848,22 @@
         <v>31</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="D160" s="52" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F160" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G160" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="2:10" ht="25.5">
@@ -7716,13 +8871,13 @@
         <v>32</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="D161" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E161" s="50" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="35" t="s">
@@ -7735,22 +8890,22 @@
         <v>33</v>
       </c>
       <c r="C162" s="50" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F162" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G162" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="38.25">
@@ -7758,22 +8913,22 @@
         <v>34</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="D163" s="52" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F163" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G163" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="38.25">
@@ -7781,22 +8936,22 @@
         <v>35</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="D164" s="52" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F164" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G164" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="2:10" ht="38.25">
@@ -7804,22 +8959,22 @@
         <v>36</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="D165" s="52" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F165" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G165" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="2:10" ht="38.25">
@@ -7827,22 +8982,22 @@
         <v>37</v>
       </c>
       <c r="C166" s="50" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D166" s="52" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F166" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G166" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="38.25">
@@ -7850,22 +9005,22 @@
         <v>38</v>
       </c>
       <c r="C167" s="50" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="D167" s="52" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F167" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G167" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="2:10" ht="38.25">
@@ -7873,22 +9028,22 @@
         <v>39</v>
       </c>
       <c r="C168" s="50" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="D168" s="52" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F168" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G168" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H168" s="37" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="2:10" ht="38.25">
@@ -7896,22 +9051,22 @@
         <v>40</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="D169" s="52" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="E169" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F169" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G169" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -7919,13 +9074,13 @@
         <v>41</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D170" s="51" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F170" s="15"/>
       <c r="G170" s="35" t="s">
@@ -7939,13 +9094,13 @@
         <v>42</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="D171" s="51" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F171" s="15"/>
       <c r="G171" s="35" t="s">
@@ -7958,13 +9113,13 @@
         <v>43</v>
       </c>
       <c r="C172" s="50" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="D172" s="51" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F172" s="15"/>
       <c r="G172" s="35" t="s">
@@ -7977,13 +9132,13 @@
         <v>44</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="D173" s="51" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F173" s="15"/>
       <c r="G173" s="35" t="s">
@@ -7996,33 +9151,33 @@
         <v>45</v>
       </c>
       <c r="C174" s="50" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="D174" s="52" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F174" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G174" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H174" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10" ht="25.5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" ht="18">
       <c r="B175" s="13">
         <v>46</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="D175" s="51" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="15"/>
@@ -8034,29 +9189,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="176" spans="2:10" s="76" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B176" s="113" t="s">
+    <row r="176" spans="2:10" s="72" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B176" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C176" s="114"/>
-      <c r="D176" s="114"/>
-      <c r="E176" s="114"/>
-      <c r="F176" s="114"/>
-      <c r="G176" s="114"/>
-      <c r="H176" s="114"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="99"/>
+      <c r="E176" s="99"/>
+      <c r="F176" s="99"/>
+      <c r="G176" s="99"/>
+      <c r="H176" s="99"/>
     </row>
     <row r="177" spans="2:10" ht="25.5">
       <c r="B177" s="13">
         <v>47</v>
       </c>
       <c r="C177" s="50" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="D177" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F177" s="15"/>
       <c r="G177" s="35" t="s">
@@ -8069,13 +9224,13 @@
         <v>48</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="D178" s="51" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="E178" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F178" s="15"/>
       <c r="G178" s="35" t="s">
@@ -8088,13 +9243,13 @@
         <v>49</v>
       </c>
       <c r="C179" s="50" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="D179" s="51" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="E179" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F179" s="15"/>
       <c r="G179" s="35" t="s">
@@ -8110,19 +9265,19 @@
         <v>37</v>
       </c>
       <c r="D180" s="52" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="E180" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F180" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G180" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H180" s="37" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="25.5">
@@ -8130,13 +9285,13 @@
         <v>51</v>
       </c>
       <c r="C181" s="50" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="D181" s="51" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="E181" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F181" s="15"/>
       <c r="G181" s="35" t="s">
@@ -8149,22 +9304,22 @@
         <v>52</v>
       </c>
       <c r="C182" s="50" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="D182" s="52" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="E182" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F182" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G182" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H182" s="37" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="25.5">
@@ -8172,13 +9327,13 @@
         <v>53</v>
       </c>
       <c r="C183" s="50" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="D183" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E183" s="50" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="35" t="s">
@@ -8191,22 +9346,22 @@
         <v>54</v>
       </c>
       <c r="C184" s="50" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="D184" s="52" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="E184" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F184" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G184" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H184" s="37" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="2:10" ht="38.25">
@@ -8214,22 +9369,22 @@
         <v>55</v>
       </c>
       <c r="C185" s="50" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="D185" s="52" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="E185" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F185" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G185" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
     </row>
     <row r="186" spans="2:10" ht="38.25">
@@ -8237,22 +9392,22 @@
         <v>56</v>
       </c>
       <c r="C186" s="50" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="D186" s="52" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F186" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G186" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="38.25">
@@ -8260,22 +9415,22 @@
         <v>57</v>
       </c>
       <c r="C187" s="50" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D187" s="52" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F187" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G187" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="2:10" ht="38.25">
@@ -8283,22 +9438,22 @@
         <v>58</v>
       </c>
       <c r="C188" s="50" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="D188" s="52" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F188" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G188" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="38.25">
@@ -8306,22 +9461,22 @@
         <v>59</v>
       </c>
       <c r="C189" s="50" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="D189" s="52" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F189" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G189" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="38.25">
@@ -8329,22 +9484,22 @@
         <v>60</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="D190" s="52" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F190" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G190" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -8352,13 +9507,13 @@
         <v>61</v>
       </c>
       <c r="C191" s="50" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D191" s="51" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F191" s="15"/>
       <c r="G191" s="35" t="s">
@@ -8372,13 +9527,13 @@
         <v>62</v>
       </c>
       <c r="C192" s="50" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="D192" s="51" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F192" s="15"/>
       <c r="G192" s="35" t="s">
@@ -8392,13 +9547,13 @@
         <v>63</v>
       </c>
       <c r="C193" s="50" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F193" s="15"/>
       <c r="G193" s="35" t="s">
@@ -8407,18 +9562,18 @@
       <c r="H193" s="13"/>
       <c r="J193" s="44"/>
     </row>
-    <row r="194" spans="2:10" ht="38.25">
+    <row r="194" spans="2:10" ht="25.5">
       <c r="B194" s="13">
         <v>64</v>
       </c>
       <c r="C194" s="50" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="E194" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F194" s="15"/>
       <c r="G194" s="35" t="s">
@@ -8431,22 +9586,22 @@
         <v>65</v>
       </c>
       <c r="C195" s="50" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="D195" s="52" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="E195" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F195" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G195" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H195" s="37" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
     </row>
     <row r="196" spans="2:10" ht="25.5">
@@ -8454,13 +9609,13 @@
         <v>66</v>
       </c>
       <c r="C196" s="50" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F196" s="14"/>
       <c r="G196" s="35" t="s">
@@ -8470,15 +9625,15 @@
     </row>
     <row r="197" spans="2:10" ht="27" customHeight="1"/>
     <row r="198" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B198" s="99" t="s">
-        <v>568</v>
-      </c>
-      <c r="C198" s="100"/>
-      <c r="D198" s="100"/>
-      <c r="E198" s="100"/>
-      <c r="F198" s="100"/>
-      <c r="G198" s="100"/>
-      <c r="H198" s="100"/>
+      <c r="B198" s="108" t="s">
+        <v>532</v>
+      </c>
+      <c r="C198" s="107"/>
+      <c r="D198" s="107"/>
+      <c r="E198" s="107"/>
+      <c r="F198" s="107"/>
+      <c r="G198" s="107"/>
+      <c r="H198" s="107"/>
     </row>
     <row r="199" spans="2:10" ht="43.5" customHeight="1">
       <c r="B199" s="2" t="s">
@@ -8499,8 +9654,8 @@
       <c r="G199" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H199" s="112" t="s">
-        <v>566</v>
+      <c r="H199" s="76" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="200" spans="2:10" ht="25.5">
@@ -8508,13 +9663,13 @@
         <v>1</v>
       </c>
       <c r="C200" s="50" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="D200" s="51" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="F200" s="14"/>
       <c r="G200" s="35" t="s">
@@ -8527,16 +9682,16 @@
         <v>2</v>
       </c>
       <c r="C201" s="50" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="E201" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F201" s="14"/>
-      <c r="G201" s="120" t="s">
+      <c r="G201" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H201" s="16"/>
@@ -8546,16 +9701,16 @@
         <v>3</v>
       </c>
       <c r="C202" s="50" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="D202" s="51" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="E202" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F202" s="14"/>
-      <c r="G202" s="120" t="s">
+      <c r="G202" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H202" s="16"/>
@@ -8565,16 +9720,16 @@
         <v>4</v>
       </c>
       <c r="C203" s="50" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D203" s="51" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="E203" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F203" s="14"/>
-      <c r="G203" s="120" t="s">
+      <c r="G203" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H203" s="16"/>
@@ -8584,16 +9739,16 @@
         <v>5</v>
       </c>
       <c r="C204" s="50" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="D204" s="51" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="E204" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F204" s="14"/>
-      <c r="G204" s="120" t="s">
+      <c r="G204" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H204" s="16"/>
@@ -8603,16 +9758,16 @@
         <v>6</v>
       </c>
       <c r="C205" s="50" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="D205" s="51" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="E205" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F205" s="14"/>
-      <c r="G205" s="120" t="s">
+      <c r="G205" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H205" s="16"/>
@@ -8622,16 +9777,16 @@
         <v>7</v>
       </c>
       <c r="C206" s="50" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="D206" s="51" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="E206" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F206" s="14"/>
-      <c r="G206" s="120" t="s">
+      <c r="G206" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H206" s="13"/>
@@ -8641,16 +9796,16 @@
         <v>8</v>
       </c>
       <c r="C207" s="50" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="D207" s="51" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F207" s="14"/>
-      <c r="G207" s="120" t="s">
+      <c r="G207" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H207" s="16"/>
@@ -8660,16 +9815,16 @@
         <v>9</v>
       </c>
       <c r="C208" s="50" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="D208" s="51" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="E208" s="50" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="F208" s="14"/>
-      <c r="G208" s="120" t="s">
+      <c r="G208" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H208" s="13"/>
@@ -8679,22 +9834,22 @@
         <v>10</v>
       </c>
       <c r="C209" s="50" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="D209" s="52" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F209" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G209" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H209" s="37" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="2:8" ht="38.25">
@@ -8702,22 +9857,22 @@
         <v>11</v>
       </c>
       <c r="C210" s="50" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="D210" s="52" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F210" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G210" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H210" s="37" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="2:8" ht="38.25">
@@ -8725,22 +9880,22 @@
         <v>12</v>
       </c>
       <c r="C211" s="50" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="D211" s="52" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F211" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G211" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H211" s="37" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="2:8" ht="38.25">
@@ -8748,22 +9903,22 @@
         <v>13</v>
       </c>
       <c r="C212" s="50" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="D212" s="52" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F212" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G212" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H212" s="37" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
     </row>
     <row r="213" spans="2:8" ht="38.25">
@@ -8771,22 +9926,22 @@
         <v>14</v>
       </c>
       <c r="C213" s="50" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="D213" s="52" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F213" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G213" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H213" s="37" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
     </row>
     <row r="214" spans="2:8" ht="38.25">
@@ -8794,22 +9949,22 @@
         <v>15</v>
       </c>
       <c r="C214" s="50" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="D214" s="52" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F214" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G214" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
     </row>
     <row r="215" spans="2:8" ht="38.25">
@@ -8817,22 +9972,22 @@
         <v>16</v>
       </c>
       <c r="C215" s="50" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="D215" s="52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F215" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G215" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H215" s="37" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="2:8" ht="38.25">
@@ -8840,22 +9995,22 @@
         <v>17</v>
       </c>
       <c r="C216" s="50" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="D216" s="52" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F216" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G216" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H216" s="37" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
     </row>
     <row r="217" spans="2:8" ht="51">
@@ -8863,22 +10018,22 @@
         <v>18</v>
       </c>
       <c r="C217" s="50" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="D217" s="52" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F217" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G217" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H217" s="37" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="2:8" ht="38.25">
@@ -8886,22 +10041,22 @@
         <v>19</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="D218" s="52" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F218" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G218" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H218" s="37" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="2:8" ht="38.25">
@@ -8909,22 +10064,22 @@
         <v>20</v>
       </c>
       <c r="C219" s="50" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="D219" s="52" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F219" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G219" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H219" s="37" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="2:8" ht="38.25">
@@ -8932,22 +10087,22 @@
         <v>21</v>
       </c>
       <c r="C220" s="50" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="D220" s="52" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="E220" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F220" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G220" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H220" s="37" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="2:8" ht="51">
@@ -8955,22 +10110,22 @@
         <v>22</v>
       </c>
       <c r="C221" s="50" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="D221" s="52" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="E221" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F221" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G221" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H221" s="37" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
     </row>
     <row r="222" spans="2:8" ht="51">
@@ -8978,22 +10133,22 @@
         <v>23</v>
       </c>
       <c r="C222" s="50" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="D222" s="52" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="E222" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F222" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G222" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H222" s="37" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
     </row>
     <row r="223" spans="2:8" ht="38.25">
@@ -9001,22 +10156,22 @@
         <v>24</v>
       </c>
       <c r="C223" s="50" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D223" s="52" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="E223" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F223" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G223" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H223" s="37" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="2:8" ht="51">
@@ -9024,22 +10179,22 @@
         <v>25</v>
       </c>
       <c r="C224" s="50" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="D224" s="52" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F224" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G224" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H224" s="37" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
     </row>
     <row r="225" spans="2:10" ht="38.25">
@@ -9047,22 +10202,22 @@
         <v>26</v>
       </c>
       <c r="C225" s="50" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="D225" s="52" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="E225" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F225" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G225" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H225" s="37" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="2:10" ht="38.25">
@@ -9070,22 +10225,22 @@
         <v>27</v>
       </c>
       <c r="C226" s="50" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="D226" s="52" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="E226" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F226" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G226" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H226" s="37" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
     </row>
     <row r="227" spans="2:10" ht="51">
@@ -9093,22 +10248,22 @@
         <v>28</v>
       </c>
       <c r="C227" s="50" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="D227" s="52" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="E227" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F227" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G227" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H227" s="37" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
     </row>
     <row r="228" spans="2:10" ht="38.25">
@@ -9116,22 +10271,22 @@
         <v>29</v>
       </c>
       <c r="C228" s="50" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="D228" s="52" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="E228" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F228" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G228" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H228" s="37" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
     </row>
     <row r="229" spans="2:10" ht="38.25">
@@ -9139,22 +10294,22 @@
         <v>30</v>
       </c>
       <c r="C229" s="50" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="D229" s="52" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F229" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G229" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H229" s="37" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
     </row>
     <row r="230" spans="2:10" ht="38.25">
@@ -9162,22 +10317,22 @@
         <v>31</v>
       </c>
       <c r="C230" s="50" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="D230" s="52" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="E230" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F230" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G230" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H230" s="37" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
     </row>
     <row r="231" spans="2:10" ht="38.25">
@@ -9185,22 +10340,22 @@
         <v>32</v>
       </c>
       <c r="C231" s="50" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="D231" s="52" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="E231" s="33" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="F231" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G231" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H231" s="37" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="2:10" s="70" customFormat="1" ht="25.5">
@@ -9208,56 +10363,56 @@
         <v>33</v>
       </c>
       <c r="C232" s="50" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="D232" s="51" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="E232" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F232" s="14"/>
-      <c r="G232" s="120" t="s">
+      <c r="G232" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H232" s="16"/>
-      <c r="J232" s="76"/>
+      <c r="J232" s="72"/>
     </row>
     <row r="233" spans="2:10" s="70" customFormat="1" ht="25.5">
       <c r="B233" s="13">
         <v>34</v>
       </c>
       <c r="C233" s="50" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="D233" s="51" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="E233" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F233" s="14"/>
-      <c r="G233" s="120" t="s">
+      <c r="G233" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H233" s="16"/>
-      <c r="J233" s="76"/>
+      <c r="J233" s="72"/>
     </row>
     <row r="234" spans="2:10" ht="25.5">
       <c r="B234" s="13">
         <v>35</v>
       </c>
       <c r="C234" s="50" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="D234" s="51" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="E234" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F234" s="14"/>
-      <c r="G234" s="120" t="s">
+      <c r="G234" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H234" s="16"/>
@@ -9267,75 +10422,75 @@
         <v>36</v>
       </c>
       <c r="C235" s="50" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="D235" s="51" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="E235" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F235" s="14"/>
-      <c r="G235" s="120" t="s">
+      <c r="G235" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H235" s="16"/>
-      <c r="J235" s="76"/>
+      <c r="J235" s="72"/>
     </row>
     <row r="236" spans="2:10" s="70" customFormat="1" ht="38.25">
       <c r="B236" s="13">
         <v>37</v>
       </c>
       <c r="C236" s="50" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="D236" s="52" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F236" s="50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G236" s="39" t="s">
         <v>80</v>
       </c>
       <c r="H236" s="37" t="s">
-        <v>661</v>
-      </c>
-      <c r="J236" s="76"/>
+        <v>625</v>
+      </c>
+      <c r="J236" s="72"/>
     </row>
     <row r="237" spans="2:10" s="70" customFormat="1" ht="25.5">
       <c r="B237" s="13">
         <v>38</v>
       </c>
       <c r="C237" s="50" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="D237" s="51" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="E237" s="33" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="F237" s="14"/>
-      <c r="G237" s="120" t="s">
+      <c r="G237" s="77" t="s">
         <v>79</v>
       </c>
       <c r="H237" s="16"/>
-      <c r="J237" s="76"/>
+      <c r="J237" s="72"/>
     </row>
     <row r="238" spans="2:10" ht="32.25" customHeight="1"/>
     <row r="239" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B239" s="92" t="s">
+      <c r="B239" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C239" s="84"/>
-      <c r="D239" s="84"/>
-      <c r="E239" s="84"/>
-      <c r="F239" s="84"/>
-      <c r="G239" s="85"/>
+      <c r="C239" s="79"/>
+      <c r="D239" s="79"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="79"/>
+      <c r="G239" s="80"/>
     </row>
     <row r="240" spans="2:10" ht="24.75" customHeight="1">
       <c r="B240" s="2" t="s">
@@ -9654,6 +10809,23 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="H11" location="Bugreports!B5" display="ID: 1"/>
+    <hyperlink ref="H16" location="Bugreports!B6" display="ID: 2"/>
+    <hyperlink ref="H23" location="Bugreports!B7" display="ID: 3"/>
+    <hyperlink ref="H24" location="Bugreports!B8" display="ID: 4"/>
+    <hyperlink ref="H28" location="Bugreports!B9" display="ID: 5"/>
+    <hyperlink ref="H30" location="Bugreports!B10" display="ID: 6"/>
+    <hyperlink ref="H31" location="Bugreports!B11" display="ID: 7"/>
+    <hyperlink ref="H32" location="Bugreports!B12" display="ID: 8"/>
+    <hyperlink ref="H33" location="Bugreports!B13" display="ID: 9"/>
+    <hyperlink ref="H34" location="Bugreports!B14" display="ID: 10"/>
+    <hyperlink ref="H35" location="Bugreports!B15" display="ID: 11"/>
+    <hyperlink ref="H36" location="Bugreports!B16" display="ID: 12"/>
+    <hyperlink ref="H37" location="Bugreports!B17" display="ID: 13"/>
+    <hyperlink ref="H38" location="Bugreports!B18" display="ID: 14"/>
+    <hyperlink ref="H39" location="Bugreports!B19" display="ID: 15"/>
+    <hyperlink ref="H44" location="Bugreports!B20" display="id: 16"/>
+    <hyperlink ref="H51" location="Bugreports!B21" display="id: 17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9668,306 +10840,575 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:R92"/>
+  <dimension ref="A3:R104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="6" width="21.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="33.75" customHeight="1">
-      <c r="B3" s="92" t="s">
+    <row r="3" spans="2:18" ht="33.75" customHeight="1">
+      <c r="B3" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-      <c r="R3" s="109" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="R3" s="112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="26.25" customHeight="1">
-      <c r="B4" s="77" t="s">
+    <row r="4" spans="2:18" ht="26.25" customHeight="1">
+      <c r="B4" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="79"/>
-    </row>
-    <row r="5" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-    </row>
-    <row r="10" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-    </row>
-    <row r="11" spans="1:18" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="31.5" customHeight="1">
-      <c r="B12" s="110" t="s">
+      <c r="R4" s="85"/>
+    </row>
+    <row r="5" spans="2:18" s="44" customFormat="1" ht="102">
+      <c r="B5" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="G5" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H5" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" s="44" customFormat="1" ht="63.75">
+      <c r="B6" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="44" customFormat="1" ht="76.5">
+      <c r="B7" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="75" customFormat="1" ht="76.5">
+      <c r="B8" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B9" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H9" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="75" customFormat="1" ht="102">
+      <c r="B10" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G10" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="75" customFormat="1" ht="102">
+      <c r="B11" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G11" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H11" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="75" customFormat="1" ht="102">
+      <c r="B12" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G12" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H12" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="75" customFormat="1" ht="102">
+      <c r="B13" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G13" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H13" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="75" customFormat="1" ht="102">
+      <c r="B14" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B15" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H15" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B16" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G16" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="75" customFormat="1" ht="89.25">
+      <c r="B17" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G17" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H17" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="75" customFormat="1" ht="89.25">
+      <c r="B18" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G18" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="75" customFormat="1" ht="89.25">
+      <c r="B19" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G19" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H19" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="44" customFormat="1" ht="89.25">
+      <c r="B20" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G20" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H20" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="44" customFormat="1" ht="89.25">
+      <c r="B21" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="G21" s="119" t="s">
+        <v>648</v>
+      </c>
+      <c r="H21" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" customHeight="1">
+      <c r="B23" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-    </row>
-    <row r="13" spans="1:18" ht="26.25" customHeight="1">
-      <c r="B13" s="78" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.25" customHeight="1">
+      <c r="B24" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C24" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D24" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E24" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F24" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G24" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="78" t="s">
+      <c r="H24" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I24" s="74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" s="44" customFormat="1" ht="12.75">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" ht="35.25" customHeight="1"/>
-    <row r="24" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B24" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="85"/>
-    </row>
-    <row r="25" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B25" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B26" s="13"/>
+    <row r="25" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B25" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B26" s="13" t="s">
+        <v>725</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -9976,8 +11417,10 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B27" s="13"/>
+    <row r="27" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B27" s="13" t="s">
+        <v>726</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -9986,8 +11429,10 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B28" s="13" t="s">
+        <v>727</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -9996,8 +11441,10 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B29" s="13"/>
+    <row r="29" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B29" s="13" t="s">
+        <v>728</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -10006,8 +11453,10 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B30" s="13" t="s">
+        <v>729</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -10016,8 +11465,10 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B31" s="13"/>
+    <row r="31" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="B31" s="13" t="s">
+        <v>730</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -10026,76 +11477,80 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9" ht="31.5" customHeight="1"/>
-    <row r="33" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B33" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85"/>
-    </row>
-    <row r="34" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B34" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
-    </row>
-    <row r="35" spans="2:9" ht="24" customHeight="1">
-      <c r="B35" s="77" t="s">
+    <row r="32" spans="1:10" s="75" customFormat="1" ht="25.5">
+      <c r="B32" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" s="44" customFormat="1" ht="25.5">
+      <c r="B33" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" s="44" customFormat="1" ht="25.5">
+      <c r="B34" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" ht="35.25" customHeight="1"/>
+    <row r="36" spans="2:9" ht="30.75" customHeight="1">
+      <c r="B36" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
+    </row>
+    <row r="37" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B37" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C37" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D37" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="77" t="s">
+      <c r="E37" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F37" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="77" t="s">
+      <c r="G37" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="77" t="s">
+      <c r="H37" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="77" t="s">
+      <c r="I37" s="73" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B38" s="13"/>
@@ -10157,64 +11612,66 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" s="44" customFormat="1" ht="30" customHeight="1"/>
-    <row r="47" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B47" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="85"/>
-    </row>
-    <row r="48" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B48" s="77" t="s">
+    <row r="44" spans="2:9" ht="31.5" customHeight="1"/>
+    <row r="45" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B45" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="80"/>
+    </row>
+    <row r="46" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B46" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="80"/>
+    </row>
+    <row r="47" spans="2:9" ht="24" customHeight="1">
+      <c r="B47" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C47" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D47" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E47" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="F47" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G48" s="77" t="s">
+      <c r="G47" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="H47" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I48" s="77" t="s">
+      <c r="I47" s="73" t="s">
         <v>153</v>
       </c>
+    </row>
+    <row r="48" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B49" s="13"/>
@@ -10296,54 +11753,54 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="2:9" ht="29.25" customHeight="1"/>
-    <row r="58" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B58" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85"/>
-    </row>
-    <row r="59" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B59" s="77" t="s">
+    <row r="57" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="2:9" s="44" customFormat="1" ht="30" customHeight="1"/>
+    <row r="59" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B59" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="80"/>
+    </row>
+    <row r="60" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B60" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C60" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D60" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="77" t="s">
+      <c r="E60" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="77" t="s">
+      <c r="F60" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G59" s="77" t="s">
+      <c r="G60" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H59" s="77" t="s">
+      <c r="H60" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I59" s="77" t="s">
+      <c r="I60" s="73" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
     </row>
     <row r="61" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B61" s="13"/>
@@ -10425,42 +11882,42 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="2:9" ht="28.5" customHeight="1"/>
-    <row r="70" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B70" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="85"/>
-    </row>
-    <row r="71" spans="2:9" ht="27" customHeight="1">
-      <c r="B71" s="77" t="s">
+    <row r="69" spans="2:9" ht="29.25" customHeight="1"/>
+    <row r="70" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B70" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="79"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="80"/>
+    </row>
+    <row r="71" spans="2:9" ht="27.75" customHeight="1">
+      <c r="B71" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="77" t="s">
+      <c r="E71" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="77" t="s">
+      <c r="F71" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="77" t="s">
+      <c r="G71" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H71" s="77" t="s">
+      <c r="H71" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I71" s="77" t="s">
+      <c r="I71" s="73" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10514,86 +11971,86 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" customHeight="1"/>
-    <row r="78" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B78" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="85"/>
-    </row>
-    <row r="79" spans="2:9" ht="27" customHeight="1">
-      <c r="B79" s="77" t="s">
+    <row r="77" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="2:9" ht="28.5" customHeight="1"/>
+    <row r="82" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B82" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="80"/>
+    </row>
+    <row r="83" spans="2:9" ht="27" customHeight="1">
+      <c r="B83" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C83" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D83" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E79" s="77" t="s">
+      <c r="E83" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F79" s="77" t="s">
+      <c r="F83" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G79" s="77" t="s">
+      <c r="G83" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H79" s="77" t="s">
+      <c r="H83" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I79" s="77" t="s">
+      <c r="I83" s="73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="75"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="75"/>
-    </row>
-    <row r="81" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B81" s="75"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="75"/>
-    </row>
-    <row r="82" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
-      <c r="E82" s="75"/>
-      <c r="F82" s="75"/>
-      <c r="G82" s="75"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-    </row>
-    <row r="83" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-    </row>
-    <row r="84" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+    <row r="84" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -10603,44 +12060,35 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="2:9" s="59" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="86" spans="2:9" s="59" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B86" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="108"/>
-    </row>
-    <row r="87" spans="2:9" s="59" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B87" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E87" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="G87" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="H87" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="I87" s="77" t="s">
-        <v>153</v>
-      </c>
+    <row r="85" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B88" s="13"/>
@@ -10652,59 +12100,197 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-    </row>
-    <row r="90" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+    <row r="89" spans="2:9" ht="31.5" customHeight="1"/>
+    <row r="90" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B90" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="79"/>
+      <c r="I90" s="80"/>
+    </row>
+    <row r="91" spans="2:9" ht="27" customHeight="1">
+      <c r="B91" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G91" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H91" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I91" s="73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+    </row>
+    <row r="93" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B93" s="71"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+    </row>
+    <row r="94" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+    </row>
+    <row r="96" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" spans="2:9" s="59" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="98" spans="2:9" s="59" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B98" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="116"/>
+      <c r="D98" s="116"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="116"/>
+      <c r="H98" s="116"/>
+      <c r="I98" s="117"/>
+    </row>
+    <row r="99" spans="2:9" s="59" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B99" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H99" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I99" s="73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+    </row>
+    <row r="102" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+    </row>
+    <row r="104" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B36:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10738,7 +12324,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -10749,7 +12335,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -10826,7 +12412,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="44" customFormat="1" ht="51">

--- a/test_form_group_28_Kiselev_A.xlsx
+++ b/test_form_group_28_Kiselev_A.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="813">
   <si>
     <t>Требования к форме</t>
   </si>
@@ -1434,9 +1434,6 @@
     <t>"Name":Fedorfedorfedorfedorfedorfedorfedorfedorfedorfedor</t>
   </si>
   <si>
-    <t>id: 29</t>
-  </si>
-  <si>
     <t>Вводим 2 символа</t>
   </si>
   <si>
@@ -1551,9 +1548,6 @@
 Success! Hello: Fedor #$%^&amp;*</t>
   </si>
   <si>
-    <t>id: 30</t>
-  </si>
-  <si>
     <t>"Surname": No  vak</t>
   </si>
   <si>
@@ -1564,9 +1558,6 @@
   </si>
   <si>
     <t>"Surname": Novak..</t>
-  </si>
-  <si>
-    <t>id: 31</t>
   </si>
   <si>
     <t>Ввод букв через пробел</t>
@@ -1600,13 +1591,7 @@
 Success! Hello: Fedor No$%&amp;vak</t>
   </si>
   <si>
-    <t>id: 32</t>
-  </si>
-  <si>
     <t>"Surname": No34%^&amp;*vak</t>
-  </si>
-  <si>
-    <t>id: 33</t>
   </si>
   <si>
     <t>Успешная регистрация
@@ -1619,9 +1604,6 @@
     <t>"Surname": Новак</t>
   </si>
   <si>
-    <t>id: 34</t>
-  </si>
-  <si>
     <t>"Surname": 諾瓦克瓦克</t>
   </si>
   <si>
@@ -1633,15 +1615,9 @@
 Success! Hello: Fedor 諾瓦克瓦克</t>
   </si>
   <si>
-    <t>id: 35</t>
-  </si>
-  <si>
     <t>"Surname": Nova</t>
   </si>
   <si>
-    <t>id: 36</t>
-  </si>
-  <si>
     <t>"Surname": Novakk</t>
   </si>
   <si>
@@ -1652,9 +1628,6 @@
   </si>
   <si>
     <t>"Surname": NovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakknov</t>
-  </si>
-  <si>
-    <t>id: 37</t>
   </si>
   <si>
     <t>Успешная регистрация
@@ -1667,9 +1640,6 @@
     <t>"Surname": No</t>
   </si>
   <si>
-    <t>id: 38</t>
-  </si>
-  <si>
     <t>Успешная регистрация
 Success! Hello: Fedor No</t>
   </si>
@@ -1683,9 +1653,6 @@
     <t>Ошибка регистрации</t>
   </si>
   <si>
-    <t>id: 39</t>
-  </si>
-  <si>
     <t>Email: fedor@mail.ru</t>
   </si>
   <si>
@@ -1722,42 +1689,27 @@
     <t>Email: ******@mail.ru</t>
   </si>
   <si>
-    <t>id: 40</t>
-  </si>
-  <si>
     <t>Ввод пробела вместе с латинскими буквами</t>
   </si>
   <si>
     <t>Email: fe dor@mail.ru</t>
   </si>
   <si>
-    <t>id: 41</t>
-  </si>
-  <si>
     <t>Email: fe--dor@mail.ru</t>
   </si>
   <si>
-    <t>id: 42</t>
-  </si>
-  <si>
     <t>Ввод спецсимвола вначале</t>
   </si>
   <si>
     <t>Email: -fedor@mail.ru</t>
   </si>
   <si>
-    <t>id: 43</t>
-  </si>
-  <si>
     <t>Ввод недопустимых символов</t>
   </si>
   <si>
     <t>Email: ;*№%?@mail.ru</t>
   </si>
   <si>
-    <t>id: 44</t>
-  </si>
-  <si>
     <t>Ввод цифр, латинских букв в разных регистрах и допустимых символов</t>
   </si>
   <si>
@@ -1767,18 +1719,12 @@
     <t>Email: федор@mail.ru</t>
   </si>
   <si>
-    <t>id: 45</t>
-  </si>
-  <si>
     <t>Вводим 1 символ</t>
   </si>
   <si>
     <t>Email: f@mail.ru</t>
   </si>
   <si>
-    <t>id: 46</t>
-  </si>
-  <si>
     <t>Email: fe@mail.ru</t>
   </si>
   <si>
@@ -1800,9 +1746,6 @@
     <t>Email: fedorfedorfedorfedorfedorfedorfedorfedorfedorfedorfedorfedorfedor@mail.ru</t>
   </si>
   <si>
-    <t>id: 47</t>
-  </si>
-  <si>
     <t>Email: fedorfedorfedorfedorfedorfedorfedorfedorfedorfedorfedorfedorfedo@mail.ru</t>
   </si>
   <si>
@@ -1813,9 +1756,6 @@
   </si>
   <si>
     <t>Email:    @mail.ru</t>
-  </si>
-  <si>
-    <t>id: 48</t>
   </si>
   <si>
     <t>id: 49</t>
@@ -2860,9 +2800,142 @@
     </r>
   </si>
   <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Surname", невалидными данными, а поля 
+"Email", "Password" валидными</t>
+  </si>
+  <si>
+    <t>Windows 10 Google chrome Версия 102.0.5005.61 (Официальная сборка), (64 бит)</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Email" валидными данными, а поля,
+"Surname", "Password" невалидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Password" валидными данными, а поля,
+"Email" ,"Surname",  невалидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Password" невалидными данными, а поля,
+"Email" ,"Surname",  валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name", "Email" невалидными данными, а поля,
+"Surname", "Password" валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении полей "Name", "Surname" невалидными данными, остальные поля пустые</t>
+  </si>
+  <si>
+    <t>ID: 18</t>
+  </si>
+  <si>
+    <t>ID: 19</t>
+  </si>
+  <si>
+    <t>ID: 20</t>
+  </si>
+  <si>
+    <t>ID: 21</t>
+  </si>
+  <si>
+    <t>ID: 22</t>
+  </si>
+  <si>
+    <t>ID: 23</t>
+  </si>
+  <si>
+    <t>ID: 24</t>
+  </si>
+  <si>
+    <t>ID: 25</t>
+  </si>
+  <si>
+    <t>ID: 26</t>
+  </si>
+  <si>
+    <t>ID: 27</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name","Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Surname","Email", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Emale", "Password" валидными данными и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Surname", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поля "Name", "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Name" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении полей "Name","Surname", "Email" невалидными данными остальные поля пустые</t>
+  </si>
+  <si>
+    <t>Bug_19</t>
+  </si>
+  <si>
+    <t>Bug_20</t>
+  </si>
+  <si>
+    <t>Bug_21</t>
+  </si>
+  <si>
+    <t>Bug_22</t>
+  </si>
+  <si>
+    <t>Bug_23</t>
+  </si>
+  <si>
+    <t>Bug_24</t>
+  </si>
+  <si>
+    <t>Bug_25</t>
+  </si>
+  <si>
+    <t>Bug_26</t>
+  </si>
+  <si>
+    <t>Bug_27</t>
+  </si>
+  <si>
+    <t>Ввести только спецсимволы</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: #### Novak</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -2874,12 +2947,24 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Name" : Feda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t xml:space="preserve">"Name" : ####
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -2897,7 +2982,82 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Surname" : Novak</t>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda
+"Surname" : Nova
+"Email": fedo@l.ru
+"Password":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Feda</t>
     </r>
     <r>
       <rPr>
@@ -2914,6 +3074,29 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -2939,7 +3122,7 @@
   <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -2994,7 +3177,7 @@
   <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3071,7 +3254,7 @@
   <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3124,13 +3307,9 @@
     </r>
   </si>
   <si>
-    <t>Пользователь регистрируется при заполнении поля "Name", "Surname", невалидными данными, а поля 
-"Email", "Password" валидными</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3185,7 +3364,7 @@
   <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3227,20 +3406,9 @@
     </r>
   </si>
   <si>
-    <t>Windows 10 Google chrome Версия 102.0.5005.61 (Официальная сборка), (64 бит)</t>
-  </si>
-  <si>
-    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
-Success! Hello: Fedor Novak</t>
-  </si>
-  <si>
-    <t>Пользователь регистрируется при заполнении поля "Name", "Email" валидными данными, а поля,
-"Surname", "Password" невалидными</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3304,13 +3472,9 @@
     </r>
   </si>
   <si>
-    <t>Пользователь регистрируется при заполнении поля "Name", "Password" валидными данными, а поля,
-"Email" ,"Surname",  невалидными</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3387,7 +3551,7 @@
   <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3440,17 +3604,9 @@
     </r>
   </si>
   <si>
-    <t>Пользователь регистрируется при заполнении поля "Name", "Password" невалидными данными, а поля,
-"Email" ,"Surname",  валидными</t>
-  </si>
-  <si>
-    <t>Пользователь регистрируется при заполнении поля "Name", "Email" невалидными данными, а поля,
-"Surname", "Password" валидными</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3525,12 +3681,9 @@
     </r>
   </si>
   <si>
-    <t>Пользователь регистрируется при заполнении полей "Name", "Surname" невалидными данными, остальные поля пустые</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3594,78 +3747,15 @@
     </r>
   </si>
   <si>
-    <t>ID: 18</t>
-  </si>
-  <si>
-    <t>ID: 19</t>
-  </si>
-  <si>
-    <t>ID: 20</t>
-  </si>
-  <si>
-    <t>ID: 21</t>
-  </si>
-  <si>
-    <t>ID: 22</t>
-  </si>
-  <si>
-    <t>ID: 23</t>
-  </si>
-  <si>
-    <t>ID: 24</t>
-  </si>
-  <si>
-    <t>ID: 25</t>
-  </si>
-  <si>
-    <t>ID: 26</t>
-  </si>
-  <si>
-    <t>ID: 27</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Name","Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Surname","Email", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Emale", "Password" валидными данными и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Surname", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Surname", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Name", "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Name", "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поля "Name", "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поле "Password" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поле "Email" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поле "Surname" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Заполнить поле "Name" невалидными данными остальные поля пустые и нажать на кнопку "Submit"</t>
-  </si>
-  <si>
-    <t>Пользователь регистрируется при заполнении полей "Name","Surname", "Email" невалидными данными остальные поля пустые</t>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести только спецсимволы), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести две точки подряд вместе с латинскими буквами), остальные поля валидными</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">1. Открыть страницу регистрации
-2. Ввести данные во поля формы:
+2. Ввести данные в поля формы:
 </t>
     </r>
     <r>
@@ -3677,10 +3767,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Name" : Feda
-"Surname" : Nova
-"Email": fedo@l.ru
-"Password":</t>
+      <t xml:space="preserve">"Name" : Fedor..
+</t>
     </r>
     <r>
       <rPr>
@@ -3691,7 +3779,31 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
     </r>
     <r>
       <rPr>
@@ -3707,31 +3819,1357 @@
     </r>
   </si>
   <si>
-    <t>Bug_19</t>
-  </si>
-  <si>
-    <t>Bug_20</t>
-  </si>
-  <si>
-    <t>Bug_21</t>
-  </si>
-  <si>
-    <t>Bug_22</t>
-  </si>
-  <si>
-    <t>Bug_23</t>
-  </si>
-  <si>
-    <t>Bug_24</t>
-  </si>
-  <si>
-    <t>Bug_25</t>
-  </si>
-  <si>
-    <t>Bug_26</t>
-  </si>
-  <si>
-    <t>Bug_27</t>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor.. Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести спецсимволы вместе с буквами), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : ##De$%?&amp;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: ##De$%?&amp; Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести спецсимволы вместе с буквами и цифрами), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : er##34%^&amp;*456
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: er##34%^&amp;*456 Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести данные на кириллице), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : Федор
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Федор Novak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : 費多爾吉吉
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: 費多爾吉吉 Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести данные на китайском), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Name" : Fedo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedo Novak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" 127 латинскими буквами (проверка граничных значений)</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfe Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" невалидными данными(ввести 4 символа, проверка граничных значений), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: FedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfedorFedorfed Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" 128 латинскими буквами (проверка граничных значений)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedorfedorfedorfedorfedorfedorfedorfedorfedorfedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Surname" : Novak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedorfedorfedorfedorfedorfedorfedorfedorfedorfedor Novak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" 50 латинскими буквами (класс эквивалентности)</t>
+  </si>
+  <si>
+    <t>ID: 28</t>
+  </si>
+  <si>
+    <t>ID: 29</t>
+  </si>
+  <si>
+    <t>ID: 30</t>
+  </si>
+  <si>
+    <t>ID: 31</t>
+  </si>
+  <si>
+    <t>ID: 32</t>
+  </si>
+  <si>
+    <t>ID: 33</t>
+  </si>
+  <si>
+    <t>ID: 34</t>
+  </si>
+  <si>
+    <t>ID: 35</t>
+  </si>
+  <si>
+    <t>Bug_28</t>
+  </si>
+  <si>
+    <t>Bug_29</t>
+  </si>
+  <si>
+    <t>Bug_30</t>
+  </si>
+  <si>
+    <t>Bug_31</t>
+  </si>
+  <si>
+    <t>Bug_32</t>
+  </si>
+  <si>
+    <t>Bug_33</t>
+  </si>
+  <si>
+    <t>Bug_34</t>
+  </si>
+  <si>
+    <t>Bug_35</t>
+  </si>
+  <si>
+    <t>Bug_36</t>
+  </si>
+  <si>
+    <t>Bug_37</t>
+  </si>
+  <si>
+    <t>Bug_38</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : #$%^&amp;*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor #$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести только спецсимволы), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести две точки подряд вместе с латинскими буквами), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести спецсимволы вместе с буквами), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести спецсимволы вместе с буквами и цифрами), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести данные на кириллице), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести данные на китайском), остальные поля валидными</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести 4 символа, проверка граничных значений), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : Novak..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor Novak..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : No$%&amp;vak
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor No$%&amp;vak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : No34%^&amp;*vak
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor No34%^&amp;*vak</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Surname" невалидными данными(ввести только пробелы ), остальные поля валидными</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" :            
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : Новак
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor Новак</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : 諾瓦克瓦克
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor 諾瓦克瓦克</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : Nova
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" 129 латинскими буквами (проверка граничных значений)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : NovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakknov
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor NovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakkNovakknov</t>
+  </si>
+  <si>
+    <t>Пользователь регистрируется при заполнении поля "Name" 2 латинскими буквами (класс эквивалентности)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Открыть страницу регистрации
+2. Ввести данные в поля формы:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Name" : Fedor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Surname" : No
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Email": fedor-86@mail.ru
+"Password": Fivan@8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Нажать кнопку submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован, под формой регистрации появилось сообщение: 
+Success! Hello: Fedor No</t>
+  </si>
+  <si>
+    <t>ID: 39</t>
+  </si>
+  <si>
+    <t>ID: 38</t>
+  </si>
+  <si>
+    <t>ID: 40</t>
+  </si>
+  <si>
+    <t>ID: 41</t>
+  </si>
+  <si>
+    <t>ID: 42</t>
+  </si>
+  <si>
+    <t>ID: 43</t>
+  </si>
+  <si>
+    <t>ID: 44</t>
+  </si>
+  <si>
+    <t>ID: 45</t>
+  </si>
+  <si>
+    <t>ID: 46</t>
+  </si>
+  <si>
+    <t>ID: 47</t>
+  </si>
+  <si>
+    <t>ID: 36</t>
+  </si>
+  <si>
+    <t>ID: 37</t>
+  </si>
+  <si>
+    <t>Bug_39</t>
+  </si>
+  <si>
+    <t>Bug_40</t>
+  </si>
+  <si>
+    <t>Bug_41</t>
+  </si>
+  <si>
+    <t>Bug_42</t>
+  </si>
+  <si>
+    <t>Bug_43</t>
+  </si>
+  <si>
+    <t>Bug_44</t>
+  </si>
+  <si>
+    <t>Bug_45</t>
+  </si>
+  <si>
+    <t>Bug_46</t>
+  </si>
+  <si>
+    <t>Bug_47</t>
   </si>
 </sst>
 </file>
@@ -4216,7 +5654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4399,6 +5837,19 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4480,7 +5931,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4490,27 +5950,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4766,10 +6205,10 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="90"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4777,11 +6216,11 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="2:12" ht="24" customHeight="1">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -4806,10 +6245,10 @@
       <c r="L5" s="62"/>
     </row>
     <row r="6" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="86" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -4822,31 +6261,31 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B7" s="87"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B8" s="87"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B9" s="88"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="86" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -4854,22 +6293,22 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B11" s="89"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B12" s="89"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="44" customFormat="1" ht="12.75">
-      <c r="B13" s="90"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="15" t="s">
         <v>13</v>
       </c>
@@ -4986,11 +6425,11 @@
     </row>
     <row r="24" spans="2:4" ht="27" customHeight="1"/>
     <row r="25" spans="2:4" ht="22.5" customHeight="1">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
     </row>
     <row r="26" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B26" s="13">
@@ -5044,7 +6483,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -5159,11 +6598,11 @@
     </row>
     <row r="41" spans="1:4" ht="25.5" customHeight="1"/>
     <row r="42" spans="1:4" ht="24" customHeight="1">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
     </row>
     <row r="43" spans="1:4" s="44" customFormat="1" ht="25.5">
       <c r="B43" s="13">
@@ -5231,7 +6670,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -5367,11 +6806,11 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="26.25" customHeight="1">
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
     </row>
     <row r="63" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B63" s="13">
@@ -5403,7 +6842,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="72" customFormat="1" ht="12.75">
@@ -5411,10 +6850,10 @@
         <v>4</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="44" customFormat="1" ht="12.75">
@@ -5484,11 +6923,11 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="24.75" customHeight="1">
-      <c r="B74" s="78" t="s">
-        <v>527</v>
-      </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="80"/>
+      <c r="B74" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
     </row>
     <row r="75" spans="2:4" s="44" customFormat="1" ht="12.75">
       <c r="B75" s="13">
@@ -5780,8 +7219,8 @@
   </sheetPr>
   <dimension ref="B2:J278"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5798,49 +7237,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25.5" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="2:8" ht="21.75" customHeight="1">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1">
-      <c r="B5" s="94" t="s">
-        <v>526</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="B5" s="99" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="2:8" ht="26.25" customHeight="1"/>
     <row r="7" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
     </row>
     <row r="8" spans="2:8" ht="45" customHeight="1">
       <c r="B8" s="2" t="s">
@@ -5862,19 +7301,19 @@
         <v>78</v>
       </c>
       <c r="H8" s="76" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="24" customHeight="1">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
     </row>
     <row r="10" spans="2:8" ht="51">
       <c r="B10" s="38" t="s">
@@ -5914,8 +7353,8 @@
       <c r="G11" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="118" t="s">
-        <v>645</v>
+      <c r="H11" s="79" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="51">
@@ -6013,8 +7452,8 @@
       <c r="G16" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="118" t="s">
-        <v>650</v>
+      <c r="H16" s="79" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51">
@@ -6150,11 +7589,11 @@
       <c r="G23" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="118" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="63.75">
+      <c r="H23" s="79" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="51">
       <c r="B24" s="38" t="s">
         <v>183</v>
       </c>
@@ -6173,8 +7612,8 @@
       <c r="G24" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="118" t="s">
-        <v>657</v>
+      <c r="H24" s="79" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="12.75"/>
@@ -6189,15 +7628,15 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="2:10" ht="23.25" customHeight="1">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
     </row>
     <row r="28" spans="2:10" ht="89.25">
       <c r="B28" s="40">
@@ -6210,7 +7649,7 @@
         <v>218</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>219</v>
@@ -6218,8 +7657,8 @@
       <c r="G28" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="118" t="s">
-        <v>654</v>
+      <c r="H28" s="79" t="s">
+        <v>634</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="48" t="s">
@@ -6264,8 +7703,8 @@
       <c r="G30" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="118" t="s">
-        <v>655</v>
+      <c r="H30" s="79" t="s">
+        <v>635</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="49"/>
@@ -6289,8 +7728,8 @@
       <c r="G31" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="118" t="s">
-        <v>660</v>
+      <c r="H31" s="79" t="s">
+        <v>640</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="49"/>
@@ -6314,8 +7753,8 @@
       <c r="G32" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="118" t="s">
-        <v>661</v>
+      <c r="H32" s="79" t="s">
+        <v>641</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="49"/>
@@ -6339,8 +7778,8 @@
       <c r="G33" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="118" t="s">
-        <v>662</v>
+      <c r="H33" s="79" t="s">
+        <v>642</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="49"/>
@@ -6364,8 +7803,8 @@
       <c r="G34" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="118" t="s">
-        <v>663</v>
+      <c r="H34" s="79" t="s">
+        <v>643</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="49"/>
@@ -6389,8 +7828,8 @@
       <c r="G35" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="118" t="s">
-        <v>664</v>
+      <c r="H35" s="79" t="s">
+        <v>644</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="49"/>
@@ -6414,8 +7853,8 @@
       <c r="G36" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="118" t="s">
-        <v>665</v>
+      <c r="H36" s="79" t="s">
+        <v>645</v>
       </c>
       <c r="J36" s="49"/>
     </row>
@@ -6438,8 +7877,8 @@
       <c r="G37" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="118" t="s">
-        <v>666</v>
+      <c r="H37" s="79" t="s">
+        <v>646</v>
       </c>
       <c r="J37" s="49"/>
     </row>
@@ -6462,8 +7901,8 @@
       <c r="G38" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="118" t="s">
-        <v>667</v>
+      <c r="H38" s="79" t="s">
+        <v>647</v>
       </c>
       <c r="J38" s="49"/>
     </row>
@@ -6486,8 +7925,8 @@
       <c r="G39" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="118" t="s">
-        <v>668</v>
+      <c r="H39" s="79" t="s">
+        <v>648</v>
       </c>
       <c r="J39" s="49"/>
     </row>
@@ -6496,7 +7935,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="D40" s="45" t="s">
         <v>246</v>
@@ -6516,7 +7955,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="D41" s="45" t="s">
         <v>247</v>
@@ -6536,7 +7975,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>248</v>
@@ -6551,12 +7990,12 @@
       <c r="H42" s="33"/>
       <c r="J42" s="49"/>
     </row>
-    <row r="43" spans="2:10" s="17" customFormat="1" ht="63.75">
+    <row r="43" spans="2:10" s="17" customFormat="1" ht="51">
       <c r="B43" s="40">
         <v>16</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="D43" s="45" t="s">
         <v>249</v>
@@ -6576,7 +8015,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="D44" s="45" t="s">
         <v>250</v>
@@ -6590,7 +8029,7 @@
       <c r="G44" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="118" t="s">
+      <c r="H44" s="79" t="s">
         <v>244</v>
       </c>
       <c r="J44" s="49"/>
@@ -6600,7 +8039,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>251</v>
@@ -6620,7 +8059,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="D46" s="45" t="s">
         <v>253</v>
@@ -6640,7 +8079,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="D47" s="45" t="s">
         <v>254</v>
@@ -6660,7 +8099,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>255</v>
@@ -6680,7 +8119,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="D49" s="45" t="s">
         <v>256</v>
@@ -6700,7 +8139,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>257</v>
@@ -6720,7 +8159,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>258</v>
@@ -6734,12 +8173,12 @@
       <c r="G51" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H51" s="118" t="s">
+      <c r="H51" s="79" t="s">
         <v>245</v>
       </c>
       <c r="J51" s="49"/>
     </row>
-    <row r="52" spans="2:10" s="17" customFormat="1" ht="76.5">
+    <row r="52" spans="2:10" s="17" customFormat="1" ht="63.75">
       <c r="B52" s="40">
         <v>25</v>
       </c>
@@ -6776,15 +8215,15 @@
       <c r="F54" s="17"/>
     </row>
     <row r="55" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B55" s="109" t="s">
+      <c r="B55" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
-      <c r="H55" s="110"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
     </row>
     <row r="56" spans="2:10" ht="24.75" customHeight="1">
       <c r="B56" s="2" t="s">
@@ -7027,7 +8466,7 @@
         <v>296</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>201</v>
@@ -7062,7 +8501,7 @@
       <c r="B70" s="13">
         <v>14</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="14" t="s">
         <v>283</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -7077,8 +8516,8 @@
       <c r="G70" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H70" s="121" t="s">
-        <v>701</v>
+      <c r="H70" s="79" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="25.5">
@@ -7092,7 +8531,7 @@
         <v>287</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="35" t="s">
@@ -7111,7 +8550,7 @@
         <v>289</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="35" t="s">
@@ -7123,7 +8562,7 @@
       <c r="B73" s="13">
         <v>17</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="14" t="s">
         <v>291</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -7138,8 +8577,8 @@
       <c r="G73" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H73" s="121" t="s">
-        <v>702</v>
+      <c r="H73" s="79" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="25.5">
@@ -7166,10 +8605,10 @@
         <v>19</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
@@ -7202,7 +8641,7 @@
       <c r="B77" s="13">
         <v>21</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="14" t="s">
         <v>300</v>
       </c>
       <c r="D77" s="52" t="s">
@@ -7217,8 +8656,8 @@
       <c r="G77" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H77" s="121" t="s">
-        <v>703</v>
+      <c r="H77" s="79" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="38.25">
@@ -7240,8 +8679,8 @@
       <c r="G78" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H78" s="121" t="s">
-        <v>704</v>
+      <c r="H78" s="79" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="25.5">
@@ -7282,15 +8721,15 @@
       <c r="G80" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H80" s="121" t="s">
-        <v>705</v>
+      <c r="H80" s="79" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="25.5">
       <c r="B81" s="13">
         <v>25</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="14" t="s">
         <v>311</v>
       </c>
       <c r="D81" s="52" t="s">
@@ -7305,15 +8744,15 @@
       <c r="G81" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H81" s="121" t="s">
-        <v>706</v>
+      <c r="H81" s="79" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="25.5">
       <c r="B82" s="13">
         <v>26</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="14" t="s">
         <v>314</v>
       </c>
       <c r="D82" s="52" t="s">
@@ -7328,8 +8767,8 @@
       <c r="G82" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H82" s="121" t="s">
-        <v>707</v>
+      <c r="H82" s="79" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="83" spans="2:10" s="17" customFormat="1" ht="25.5">
@@ -7375,7 +8814,7 @@
       <c r="B85" s="13">
         <v>29</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="14" t="s">
         <v>321</v>
       </c>
       <c r="D85" s="51" t="s">
@@ -7390,8 +8829,8 @@
       <c r="G85" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H85" s="121" t="s">
-        <v>708</v>
+      <c r="H85" s="79" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="63.75">
@@ -7413,8 +8852,8 @@
       <c r="G86" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H86" s="121" t="s">
-        <v>709</v>
+      <c r="H86" s="79" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="63.75">
@@ -7455,8 +8894,8 @@
       <c r="G88" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="121" t="s">
-        <v>710</v>
+      <c r="H88" s="79" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="25.5">
@@ -7464,10 +8903,10 @@
         <v>33</v>
       </c>
       <c r="C89" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" s="52" t="s">
         <v>330</v>
-      </c>
-      <c r="D89" s="52" t="s">
-        <v>331</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>200</v>
@@ -7482,15 +8921,15 @@
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B91" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="102"/>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="102"/>
+      <c r="B91" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="107"/>
     </row>
     <row r="92" spans="2:10" ht="43.5" customHeight="1">
       <c r="B92" s="2" t="s">
@@ -7512,7 +8951,7 @@
         <v>78</v>
       </c>
       <c r="H92" s="76" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="25.5">
@@ -7523,7 +8962,7 @@
         <v>262</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E93" s="33" t="s">
         <v>201</v>
@@ -7542,7 +8981,7 @@
         <v>266</v>
       </c>
       <c r="D94" s="51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>201</v>
@@ -7561,7 +9000,7 @@
         <v>267</v>
       </c>
       <c r="D95" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E95" s="33" t="s">
         <v>201</v>
@@ -7580,7 +9019,7 @@
         <v>268</v>
       </c>
       <c r="D96" s="51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>201</v>
@@ -7599,7 +9038,7 @@
         <v>270</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E97" s="33" t="s">
         <v>201</v>
@@ -7618,7 +9057,7 @@
         <v>272</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>201</v>
@@ -7637,7 +9076,7 @@
         <v>275</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>201</v>
@@ -7656,7 +9095,7 @@
         <v>276</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>201</v>
@@ -7675,7 +9114,7 @@
         <v>279</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>201</v>
@@ -7695,7 +9134,7 @@
         <v>278</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>201</v>
@@ -7714,7 +9153,7 @@
         <v>293</v>
       </c>
       <c r="D103" s="51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E103" s="33" t="s">
         <v>201</v>
@@ -7731,7 +9170,7 @@
         <v>296</v>
       </c>
       <c r="D104" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>201</v>
@@ -7750,10 +9189,10 @@
         <v>307</v>
       </c>
       <c r="D105" s="51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E105" s="50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="35" t="s">
@@ -7765,23 +9204,23 @@
       <c r="B106" s="13">
         <v>13</v>
       </c>
-      <c r="C106" s="50" t="s">
-        <v>283</v>
+      <c r="C106" s="14" t="s">
+        <v>702</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E106" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F106" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G106" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H106" s="37" t="s">
-        <v>329</v>
+      <c r="H106" s="79" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="25.5">
@@ -7792,10 +9231,10 @@
         <v>286</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="35" t="s">
@@ -7811,10 +9250,10 @@
         <v>288</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="35" t="s">
@@ -7830,19 +9269,19 @@
         <v>291</v>
       </c>
       <c r="D109" s="52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G109" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H109" s="37" t="s">
-        <v>350</v>
+      <c r="H109" s="79" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="25.5">
@@ -7853,7 +9292,7 @@
         <v>298</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E110" s="33" t="s">
         <v>201</v>
@@ -7872,7 +9311,7 @@
         <v>297</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E111" s="33" t="s">
         <v>201</v>
@@ -7891,19 +9330,19 @@
         <v>300</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E112" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G112" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H112" s="37" t="s">
-        <v>355</v>
+      <c r="H112" s="79" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="38.25">
@@ -7914,19 +9353,19 @@
         <v>303</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E113" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G113" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H113" s="37" t="s">
-        <v>365</v>
+      <c r="H113" s="79" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="38.25">
@@ -7937,7 +9376,7 @@
         <v>306</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E114" s="33" t="s">
         <v>201</v>
@@ -7948,8 +9387,8 @@
       <c r="G114" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H114" s="37" t="s">
-        <v>367</v>
+      <c r="H114" s="79" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="38.25">
@@ -7960,19 +9399,19 @@
         <v>308</v>
       </c>
       <c r="D115" s="52" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E115" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F115" s="33" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H115" s="37" t="s">
-        <v>371</v>
+      <c r="H115" s="79" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="38.25">
@@ -7983,19 +9422,19 @@
         <v>311</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E116" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G116" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="H116" s="37" t="s">
-        <v>375</v>
+      <c r="H116" s="79" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="25.5">
@@ -8006,7 +9445,7 @@
         <v>314</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E117" s="33" t="s">
         <v>200</v>
@@ -8017,8 +9456,8 @@
       <c r="G117" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H117" s="37" t="s">
-        <v>377</v>
+      <c r="H117" s="79" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="24" customHeight="1">
@@ -8029,7 +9468,7 @@
         <v>320</v>
       </c>
       <c r="D118" s="51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E118" s="33" t="s">
         <v>201</v>
@@ -8048,7 +9487,7 @@
         <v>317</v>
       </c>
       <c r="D119" s="51" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E119" s="33" t="s">
         <v>201</v>
@@ -8067,7 +9506,7 @@
         <v>321</v>
       </c>
       <c r="D120" s="51" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E120" s="33" t="s">
         <v>201</v>
@@ -8086,7 +9525,7 @@
         <v>322</v>
       </c>
       <c r="D121" s="51" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E121" s="33" t="s">
         <v>201</v>
@@ -8105,19 +9544,19 @@
         <v>323</v>
       </c>
       <c r="D122" s="51" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E122" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F122" s="33" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G122" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H122" s="37" t="s">
-        <v>382</v>
+      <c r="H122" s="79" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="38.25">
@@ -8128,7 +9567,7 @@
         <v>327</v>
       </c>
       <c r="D123" s="51" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E123" s="33" t="s">
         <v>201</v>
@@ -8144,35 +9583,35 @@
         <v>30</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E124" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F124" s="33" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G124" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H124" s="37" t="s">
-        <v>386</v>
+      <c r="H124" s="79" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="27.75" customHeight="1"/>
     <row r="126" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B126" s="106" t="s">
+      <c r="B126" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="107"/>
-      <c r="D126" s="107"/>
-      <c r="E126" s="107"/>
-      <c r="F126" s="107"/>
-      <c r="G126" s="107"/>
-      <c r="H126" s="107"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
+      <c r="H126" s="112"/>
     </row>
     <row r="127" spans="2:8" ht="40.5" customHeight="1">
       <c r="B127" s="2" t="s">
@@ -8194,32 +9633,32 @@
         <v>78</v>
       </c>
       <c r="H127" s="76" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="41.25" customHeight="1">
-      <c r="B128" s="98" t="s">
-        <v>528</v>
-      </c>
-      <c r="C128" s="99"/>
-      <c r="D128" s="99"/>
-      <c r="E128" s="99"/>
-      <c r="F128" s="99"/>
-      <c r="G128" s="99"/>
-      <c r="H128" s="99"/>
+      <c r="B128" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" s="104"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
+      <c r="H128" s="104"/>
     </row>
     <row r="129" spans="2:10" ht="38.25">
       <c r="B129" s="13">
         <v>1</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D129" s="52" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F129" s="50" t="s">
         <v>234</v>
@@ -8227,8 +9666,8 @@
       <c r="G129" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H129" s="37" t="s">
-        <v>391</v>
+      <c r="H129" s="82" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="130" spans="2:10" s="56" customFormat="1" ht="51">
@@ -8236,10 +9675,10 @@
         <v>2</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="E130" s="33" t="s">
         <v>201</v>
@@ -8248,7 +9687,7 @@
       <c r="G130" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H130" s="37"/>
+      <c r="H130" s="13"/>
       <c r="J130" s="44"/>
     </row>
     <row r="131" spans="2:10" ht="25.5">
@@ -8259,7 +9698,7 @@
         <v>262</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E131" s="33" t="s">
         <v>201</v>
@@ -8278,7 +9717,7 @@
         <v>270</v>
       </c>
       <c r="D132" s="51" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E132" s="33" t="s">
         <v>201</v>
@@ -8294,10 +9733,10 @@
         <v>5</v>
       </c>
       <c r="C133" s="50" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D133" s="51" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E133" s="33" t="s">
         <v>201</v>
@@ -8313,10 +9752,10 @@
         <v>6</v>
       </c>
       <c r="C134" s="50" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D134" s="51" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E134" s="33" t="s">
         <v>201</v>
@@ -8335,7 +9774,7 @@
         <v>266</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E135" s="33" t="s">
         <v>201</v>
@@ -8351,10 +9790,10 @@
         <v>8</v>
       </c>
       <c r="C136" s="50" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E136" s="33" t="s">
         <v>201</v>
@@ -8370,13 +9809,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="50" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="35" t="s">
@@ -8389,10 +9828,10 @@
         <v>10</v>
       </c>
       <c r="C138" s="50" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E138" s="33" t="s">
         <v>201</v>
@@ -8411,10 +9850,10 @@
         <v>283</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F139" s="50" t="s">
         <v>234</v>
@@ -8422,8 +9861,8 @@
       <c r="G139" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H139" s="37" t="s">
-        <v>404</v>
+      <c r="H139" s="82" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="140" spans="2:10" ht="38.25">
@@ -8431,13 +9870,13 @@
         <v>12</v>
       </c>
       <c r="C140" s="50" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F140" s="50" t="s">
         <v>234</v>
@@ -8445,8 +9884,8 @@
       <c r="G140" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H140" s="37" t="s">
-        <v>407</v>
+      <c r="H140" s="82" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="141" spans="2:10" ht="38.25">
@@ -8454,13 +9893,13 @@
         <v>13</v>
       </c>
       <c r="C141" s="50" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F141" s="50" t="s">
         <v>234</v>
@@ -8468,8 +9907,8 @@
       <c r="G141" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H141" s="37" t="s">
-        <v>409</v>
+      <c r="H141" s="82" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="142" spans="2:10" ht="38.25">
@@ -8477,13 +9916,13 @@
         <v>14</v>
       </c>
       <c r="C142" s="50" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D142" s="52" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F142" s="50" t="s">
         <v>234</v>
@@ -8491,8 +9930,8 @@
       <c r="G142" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H142" s="37" t="s">
-        <v>412</v>
+      <c r="H142" s="82" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="143" spans="2:10" ht="38.25">
@@ -8500,13 +9939,13 @@
         <v>15</v>
       </c>
       <c r="C143" s="50" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D143" s="52" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F143" s="50" t="s">
         <v>234</v>
@@ -8514,8 +9953,8 @@
       <c r="G143" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H143" s="37" t="s">
-        <v>415</v>
+      <c r="H143" s="82" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="144" spans="2:10" ht="38.25">
@@ -8526,10 +9965,10 @@
         <v>308</v>
       </c>
       <c r="D144" s="52" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F144" s="50" t="s">
         <v>234</v>
@@ -8537,8 +9976,8 @@
       <c r="G144" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H144" s="37" t="s">
-        <v>419</v>
+      <c r="H144" s="82" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="38.25">
@@ -8546,13 +9985,13 @@
         <v>17</v>
       </c>
       <c r="C145" s="50" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F145" s="50" t="s">
         <v>234</v>
@@ -8560,8 +9999,8 @@
       <c r="G145" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H145" s="37" t="s">
-        <v>422</v>
+      <c r="H145" s="82" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="146" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -8569,10 +10008,10 @@
         <v>18</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D146" s="51" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E146" s="33" t="s">
         <v>201</v>
@@ -8589,10 +10028,10 @@
         <v>19</v>
       </c>
       <c r="C147" s="50" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D147" s="51" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E147" s="33" t="s">
         <v>201</v>
@@ -8609,10 +10048,10 @@
         <v>20</v>
       </c>
       <c r="C148" s="50" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D148" s="51" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E148" s="33" t="s">
         <v>201</v>
@@ -8629,10 +10068,10 @@
         <v>21</v>
       </c>
       <c r="C149" s="50" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D149" s="51" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E149" s="33" t="s">
         <v>201</v>
@@ -8649,13 +10088,13 @@
         <v>22</v>
       </c>
       <c r="C150" s="50" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D150" s="52" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F150" s="50" t="s">
         <v>234</v>
@@ -8663,8 +10102,8 @@
       <c r="G150" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H150" s="37" t="s">
-        <v>430</v>
+      <c r="H150" s="82" t="s">
+        <v>800</v>
       </c>
       <c r="J150" s="44"/>
     </row>
@@ -8673,10 +10112,10 @@
         <v>23</v>
       </c>
       <c r="C151" s="50" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="D151" s="51" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="E151" s="33" t="s">
         <v>201</v>
@@ -8692,13 +10131,13 @@
         <v>24</v>
       </c>
       <c r="C152" s="50" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D152" s="52" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F152" s="50" t="s">
         <v>234</v>
@@ -8706,30 +10145,30 @@
       <c r="G152" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H152" s="37" t="s">
-        <v>435</v>
+      <c r="H152" s="82" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="2:10" ht="42" customHeight="1">
-      <c r="B153" s="98" t="s">
-        <v>529</v>
-      </c>
-      <c r="C153" s="99"/>
-      <c r="D153" s="99"/>
-      <c r="E153" s="99"/>
-      <c r="F153" s="99"/>
-      <c r="G153" s="99"/>
-      <c r="H153" s="99"/>
+      <c r="B153" s="103" t="s">
+        <v>509</v>
+      </c>
+      <c r="C153" s="104"/>
+      <c r="D153" s="104"/>
+      <c r="E153" s="104"/>
+      <c r="F153" s="104"/>
+      <c r="G153" s="104"/>
+      <c r="H153" s="104"/>
     </row>
     <row r="154" spans="2:10" ht="25.5">
       <c r="B154" s="13">
         <v>25</v>
       </c>
       <c r="C154" s="50" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D154" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E154" s="33" t="s">
         <v>201</v>
@@ -8745,13 +10184,13 @@
         <v>26</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="D155" s="52" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F155" s="50" t="s">
         <v>234</v>
@@ -8760,7 +10199,7 @@
         <v>80</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="2:10" ht="38.25">
@@ -8768,13 +10207,13 @@
         <v>27</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D156" s="52" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F156" s="50" t="s">
         <v>234</v>
@@ -8783,7 +10222,7 @@
         <v>80</v>
       </c>
       <c r="H156" s="37" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="2:10" ht="25.5">
@@ -8794,7 +10233,7 @@
         <v>37</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="E157" s="33" t="s">
         <v>201</v>
@@ -8810,10 +10249,10 @@
         <v>29</v>
       </c>
       <c r="C158" s="50" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D158" s="51" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="E158" s="33" t="s">
         <v>201</v>
@@ -8829,10 +10268,10 @@
         <v>30</v>
       </c>
       <c r="C159" s="50" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D159" s="51" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E159" s="33" t="s">
         <v>201</v>
@@ -8848,13 +10287,13 @@
         <v>31</v>
       </c>
       <c r="C160" s="50" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D160" s="52" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F160" s="50" t="s">
         <v>234</v>
@@ -8863,7 +10302,7 @@
         <v>80</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="2:10" ht="25.5">
@@ -8871,13 +10310,13 @@
         <v>32</v>
       </c>
       <c r="C161" s="50" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D161" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E161" s="50" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="35" t="s">
@@ -8890,13 +10329,13 @@
         <v>33</v>
       </c>
       <c r="C162" s="50" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D162" s="52" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F162" s="50" t="s">
         <v>234</v>
@@ -8905,7 +10344,7 @@
         <v>80</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="38.25">
@@ -8913,13 +10352,13 @@
         <v>34</v>
       </c>
       <c r="C163" s="50" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D163" s="52" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="E163" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F163" s="50" t="s">
         <v>234</v>
@@ -8928,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="2:10" ht="38.25">
@@ -8936,13 +10375,13 @@
         <v>35</v>
       </c>
       <c r="C164" s="50" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D164" s="52" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F164" s="50" t="s">
         <v>234</v>
@@ -8951,7 +10390,7 @@
         <v>80</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="2:10" ht="38.25">
@@ -8959,13 +10398,13 @@
         <v>36</v>
       </c>
       <c r="C165" s="50" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D165" s="52" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F165" s="50" t="s">
         <v>234</v>
@@ -8974,7 +10413,7 @@
         <v>80</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="2:10" ht="38.25">
@@ -8982,13 +10421,13 @@
         <v>37</v>
       </c>
       <c r="C166" s="50" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D166" s="52" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F166" s="50" t="s">
         <v>234</v>
@@ -8997,7 +10436,7 @@
         <v>80</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="2:10" ht="38.25">
@@ -9005,13 +10444,13 @@
         <v>38</v>
       </c>
       <c r="C167" s="50" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="D167" s="52" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F167" s="50" t="s">
         <v>234</v>
@@ -9020,7 +10459,7 @@
         <v>80</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="2:10" ht="38.25">
@@ -9028,13 +10467,13 @@
         <v>39</v>
       </c>
       <c r="C168" s="50" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="D168" s="52" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F168" s="50" t="s">
         <v>234</v>
@@ -9043,7 +10482,7 @@
         <v>80</v>
       </c>
       <c r="H168" s="37" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="2:10" ht="38.25">
@@ -9051,13 +10490,13 @@
         <v>40</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D169" s="52" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="E169" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F169" s="50" t="s">
         <v>234</v>
@@ -9066,7 +10505,7 @@
         <v>80</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -9074,10 +10513,10 @@
         <v>41</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D170" s="51" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E170" s="33" t="s">
         <v>201</v>
@@ -9094,10 +10533,10 @@
         <v>42</v>
       </c>
       <c r="C171" s="50" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D171" s="51" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E171" s="33" t="s">
         <v>201</v>
@@ -9113,10 +10552,10 @@
         <v>43</v>
       </c>
       <c r="C172" s="50" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="D172" s="51" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="E172" s="33" t="s">
         <v>201</v>
@@ -9132,10 +10571,10 @@
         <v>44</v>
       </c>
       <c r="C173" s="50" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="D173" s="51" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="E173" s="33" t="s">
         <v>201</v>
@@ -9151,13 +10590,13 @@
         <v>45</v>
       </c>
       <c r="C174" s="50" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="D174" s="52" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F174" s="50" t="s">
         <v>234</v>
@@ -9166,7 +10605,7 @@
         <v>80</v>
       </c>
       <c r="H174" s="37" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="2:10" ht="18">
@@ -9174,10 +10613,10 @@
         <v>46</v>
       </c>
       <c r="C175" s="50" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="D175" s="51" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="15"/>
@@ -9190,25 +10629,25 @@
       </c>
     </row>
     <row r="176" spans="2:10" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B176" s="100" t="s">
+      <c r="B176" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="C176" s="99"/>
-      <c r="D176" s="99"/>
-      <c r="E176" s="99"/>
-      <c r="F176" s="99"/>
-      <c r="G176" s="99"/>
-      <c r="H176" s="99"/>
+      <c r="C176" s="104"/>
+      <c r="D176" s="104"/>
+      <c r="E176" s="104"/>
+      <c r="F176" s="104"/>
+      <c r="G176" s="104"/>
+      <c r="H176" s="104"/>
     </row>
     <row r="177" spans="2:10" ht="25.5">
       <c r="B177" s="13">
         <v>47</v>
       </c>
       <c r="C177" s="50" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D177" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E177" s="33" t="s">
         <v>201</v>
@@ -9224,10 +10663,10 @@
         <v>48</v>
       </c>
       <c r="C178" s="50" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="D178" s="51" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="E178" s="33" t="s">
         <v>201</v>
@@ -9243,10 +10682,10 @@
         <v>49</v>
       </c>
       <c r="C179" s="50" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D179" s="51" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="E179" s="33" t="s">
         <v>201</v>
@@ -9265,10 +10704,10 @@
         <v>37</v>
       </c>
       <c r="D180" s="52" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="E180" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F180" s="50" t="s">
         <v>234</v>
@@ -9277,7 +10716,7 @@
         <v>80</v>
       </c>
       <c r="H180" s="37" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="2:10" ht="25.5">
@@ -9285,10 +10724,10 @@
         <v>51</v>
       </c>
       <c r="C181" s="50" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D181" s="51" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="E181" s="33" t="s">
         <v>201</v>
@@ -9304,13 +10743,13 @@
         <v>52</v>
       </c>
       <c r="C182" s="50" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D182" s="52" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="E182" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F182" s="50" t="s">
         <v>234</v>
@@ -9319,7 +10758,7 @@
         <v>80</v>
       </c>
       <c r="H182" s="37" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="25.5">
@@ -9327,13 +10766,13 @@
         <v>53</v>
       </c>
       <c r="C183" s="50" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D183" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E183" s="50" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="35" t="s">
@@ -9346,13 +10785,13 @@
         <v>54</v>
       </c>
       <c r="C184" s="50" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D184" s="52" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="E184" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F184" s="50" t="s">
         <v>234</v>
@@ -9361,7 +10800,7 @@
         <v>80</v>
       </c>
       <c r="H184" s="37" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="2:10" ht="38.25">
@@ -9369,13 +10808,13 @@
         <v>55</v>
       </c>
       <c r="C185" s="50" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D185" s="52" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E185" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F185" s="50" t="s">
         <v>234</v>
@@ -9384,7 +10823,7 @@
         <v>80</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="2:10" ht="38.25">
@@ -9392,13 +10831,13 @@
         <v>56</v>
       </c>
       <c r="C186" s="50" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D186" s="52" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F186" s="50" t="s">
         <v>234</v>
@@ -9407,7 +10846,7 @@
         <v>80</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="2:10" ht="38.25">
@@ -9418,10 +10857,10 @@
         <v>308</v>
       </c>
       <c r="D187" s="52" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F187" s="50" t="s">
         <v>234</v>
@@ -9430,7 +10869,7 @@
         <v>80</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="2:10" ht="38.25">
@@ -9438,13 +10877,13 @@
         <v>58</v>
       </c>
       <c r="C188" s="50" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="D188" s="52" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F188" s="50" t="s">
         <v>234</v>
@@ -9453,7 +10892,7 @@
         <v>80</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="38.25">
@@ -9461,13 +10900,13 @@
         <v>59</v>
       </c>
       <c r="C189" s="50" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D189" s="52" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F189" s="50" t="s">
         <v>234</v>
@@ -9476,7 +10915,7 @@
         <v>80</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="38.25">
@@ -9484,13 +10923,13 @@
         <v>60</v>
       </c>
       <c r="C190" s="50" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D190" s="52" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F190" s="50" t="s">
         <v>234</v>
@@ -9499,7 +10938,7 @@
         <v>80</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="2:10" s="56" customFormat="1" ht="25.5">
@@ -9507,10 +10946,10 @@
         <v>61</v>
       </c>
       <c r="C191" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D191" s="51" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E191" s="33" t="s">
         <v>201</v>
@@ -9527,10 +10966,10 @@
         <v>62</v>
       </c>
       <c r="C192" s="50" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D192" s="51" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="E192" s="33" t="s">
         <v>201</v>
@@ -9547,10 +10986,10 @@
         <v>63</v>
       </c>
       <c r="C193" s="50" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="E193" s="33" t="s">
         <v>201</v>
@@ -9567,10 +11006,10 @@
         <v>64</v>
       </c>
       <c r="C194" s="50" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E194" s="33" t="s">
         <v>201</v>
@@ -9586,13 +11025,13 @@
         <v>65</v>
       </c>
       <c r="C195" s="50" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="D195" s="52" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="E195" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F195" s="50" t="s">
         <v>234</v>
@@ -9601,7 +11040,7 @@
         <v>80</v>
       </c>
       <c r="H195" s="37" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="2:10" ht="25.5">
@@ -9609,10 +11048,10 @@
         <v>66</v>
       </c>
       <c r="C196" s="50" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="E196" s="14" t="s">
         <v>201</v>
@@ -9625,15 +11064,15 @@
     </row>
     <row r="197" spans="2:10" ht="27" customHeight="1"/>
     <row r="198" spans="2:10" ht="36.75" customHeight="1">
-      <c r="B198" s="108" t="s">
-        <v>532</v>
-      </c>
-      <c r="C198" s="107"/>
-      <c r="D198" s="107"/>
-      <c r="E198" s="107"/>
-      <c r="F198" s="107"/>
-      <c r="G198" s="107"/>
-      <c r="H198" s="107"/>
+      <c r="B198" s="113" t="s">
+        <v>512</v>
+      </c>
+      <c r="C198" s="112"/>
+      <c r="D198" s="112"/>
+      <c r="E198" s="112"/>
+      <c r="F198" s="112"/>
+      <c r="G198" s="112"/>
+      <c r="H198" s="112"/>
     </row>
     <row r="199" spans="2:10" ht="43.5" customHeight="1">
       <c r="B199" s="2" t="s">
@@ -9655,7 +11094,7 @@
         <v>78</v>
       </c>
       <c r="H199" s="76" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="2:10" ht="25.5">
@@ -9663,13 +11102,13 @@
         <v>1</v>
       </c>
       <c r="C200" s="50" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="D200" s="51" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F200" s="14"/>
       <c r="G200" s="35" t="s">
@@ -9677,18 +11116,18 @@
       </c>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="2:10" ht="63.75">
+    <row r="201" spans="2:10" ht="51">
       <c r="B201" s="13">
         <v>2</v>
       </c>
       <c r="C201" s="50" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="E201" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F201" s="14"/>
       <c r="G201" s="77" t="s">
@@ -9701,13 +11140,13 @@
         <v>3</v>
       </c>
       <c r="C202" s="50" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="D202" s="51" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="E202" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F202" s="14"/>
       <c r="G202" s="77" t="s">
@@ -9720,13 +11159,13 @@
         <v>4</v>
       </c>
       <c r="C203" s="50" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D203" s="51" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="E203" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F203" s="14"/>
       <c r="G203" s="77" t="s">
@@ -9739,13 +11178,13 @@
         <v>5</v>
       </c>
       <c r="C204" s="50" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="D204" s="51" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="E204" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F204" s="14"/>
       <c r="G204" s="77" t="s">
@@ -9758,13 +11197,13 @@
         <v>6</v>
       </c>
       <c r="C205" s="50" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="D205" s="51" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E205" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="77" t="s">
@@ -9777,13 +11216,13 @@
         <v>7</v>
       </c>
       <c r="C206" s="50" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D206" s="51" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="E206" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="77" t="s">
@@ -9796,13 +11235,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="50" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="D207" s="51" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F207" s="14"/>
       <c r="G207" s="77" t="s">
@@ -9818,10 +11257,10 @@
         <v>307</v>
       </c>
       <c r="D208" s="51" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="E208" s="50" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="F208" s="14"/>
       <c r="G208" s="77" t="s">
@@ -9834,13 +11273,13 @@
         <v>10</v>
       </c>
       <c r="C209" s="50" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D209" s="52" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F209" s="50" t="s">
         <v>234</v>
@@ -9849,7 +11288,7 @@
         <v>80</v>
       </c>
       <c r="H209" s="37" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="2:8" ht="38.25">
@@ -9857,13 +11296,13 @@
         <v>11</v>
       </c>
       <c r="C210" s="50" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D210" s="52" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F210" s="50" t="s">
         <v>234</v>
@@ -9872,7 +11311,7 @@
         <v>80</v>
       </c>
       <c r="H210" s="37" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211" spans="2:8" ht="38.25">
@@ -9880,13 +11319,13 @@
         <v>12</v>
       </c>
       <c r="C211" s="50" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="D211" s="52" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F211" s="50" t="s">
         <v>234</v>
@@ -9895,7 +11334,7 @@
         <v>80</v>
       </c>
       <c r="H211" s="37" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="2:8" ht="38.25">
@@ -9903,13 +11342,13 @@
         <v>13</v>
       </c>
       <c r="C212" s="50" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="D212" s="52" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F212" s="50" t="s">
         <v>234</v>
@@ -9918,7 +11357,7 @@
         <v>80</v>
       </c>
       <c r="H212" s="37" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="2:8" ht="38.25">
@@ -9926,13 +11365,13 @@
         <v>14</v>
       </c>
       <c r="C213" s="50" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="D213" s="52" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F213" s="50" t="s">
         <v>234</v>
@@ -9941,7 +11380,7 @@
         <v>80</v>
       </c>
       <c r="H213" s="37" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214" spans="2:8" ht="38.25">
@@ -9949,13 +11388,13 @@
         <v>15</v>
       </c>
       <c r="C214" s="50" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D214" s="52" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F214" s="50" t="s">
         <v>234</v>
@@ -9964,7 +11403,7 @@
         <v>80</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215" spans="2:8" ht="38.25">
@@ -9972,13 +11411,13 @@
         <v>16</v>
       </c>
       <c r="C215" s="50" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="D215" s="52" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F215" s="50" t="s">
         <v>234</v>
@@ -9987,7 +11426,7 @@
         <v>80</v>
       </c>
       <c r="H215" s="37" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216" spans="2:8" ht="38.25">
@@ -9995,13 +11434,13 @@
         <v>17</v>
       </c>
       <c r="C216" s="50" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="D216" s="52" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F216" s="50" t="s">
         <v>234</v>
@@ -10010,7 +11449,7 @@
         <v>80</v>
       </c>
       <c r="H216" s="37" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217" spans="2:8" ht="51">
@@ -10018,13 +11457,13 @@
         <v>18</v>
       </c>
       <c r="C217" s="50" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="D217" s="52" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F217" s="50" t="s">
         <v>234</v>
@@ -10033,7 +11472,7 @@
         <v>80</v>
       </c>
       <c r="H217" s="37" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="2:8" ht="38.25">
@@ -10041,13 +11480,13 @@
         <v>19</v>
       </c>
       <c r="C218" s="50" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D218" s="52" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F218" s="50" t="s">
         <v>234</v>
@@ -10056,7 +11495,7 @@
         <v>80</v>
       </c>
       <c r="H218" s="37" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="2:8" ht="38.25">
@@ -10064,13 +11503,13 @@
         <v>20</v>
       </c>
       <c r="C219" s="50" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="D219" s="52" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F219" s="50" t="s">
         <v>234</v>
@@ -10079,7 +11518,7 @@
         <v>80</v>
       </c>
       <c r="H219" s="37" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="2:8" ht="38.25">
@@ -10087,13 +11526,13 @@
         <v>21</v>
       </c>
       <c r="C220" s="50" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="D220" s="52" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="E220" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F220" s="50" t="s">
         <v>234</v>
@@ -10102,7 +11541,7 @@
         <v>80</v>
       </c>
       <c r="H220" s="37" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="221" spans="2:8" ht="51">
@@ -10110,13 +11549,13 @@
         <v>22</v>
       </c>
       <c r="C221" s="50" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D221" s="52" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="E221" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F221" s="50" t="s">
         <v>234</v>
@@ -10125,7 +11564,7 @@
         <v>80</v>
       </c>
       <c r="H221" s="37" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
     </row>
     <row r="222" spans="2:8" ht="51">
@@ -10133,13 +11572,13 @@
         <v>23</v>
       </c>
       <c r="C222" s="50" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D222" s="52" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="E222" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F222" s="50" t="s">
         <v>234</v>
@@ -10148,7 +11587,7 @@
         <v>80</v>
       </c>
       <c r="H222" s="37" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
     </row>
     <row r="223" spans="2:8" ht="38.25">
@@ -10156,13 +11595,13 @@
         <v>24</v>
       </c>
       <c r="C223" s="50" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="D223" s="52" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="E223" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F223" s="50" t="s">
         <v>234</v>
@@ -10171,7 +11610,7 @@
         <v>80</v>
       </c>
       <c r="H223" s="37" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" spans="2:8" ht="51">
@@ -10179,13 +11618,13 @@
         <v>25</v>
       </c>
       <c r="C224" s="50" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D224" s="52" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F224" s="50" t="s">
         <v>234</v>
@@ -10194,7 +11633,7 @@
         <v>80</v>
       </c>
       <c r="H224" s="37" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="2:10" ht="38.25">
@@ -10202,13 +11641,13 @@
         <v>26</v>
       </c>
       <c r="C225" s="50" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="D225" s="52" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="E225" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F225" s="50" t="s">
         <v>234</v>
@@ -10217,7 +11656,7 @@
         <v>80</v>
       </c>
       <c r="H225" s="37" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="2:10" ht="38.25">
@@ -10225,13 +11664,13 @@
         <v>27</v>
       </c>
       <c r="C226" s="50" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="D226" s="52" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="E226" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F226" s="50" t="s">
         <v>234</v>
@@ -10240,7 +11679,7 @@
         <v>80</v>
       </c>
       <c r="H226" s="37" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="2:10" ht="51">
@@ -10248,13 +11687,13 @@
         <v>28</v>
       </c>
       <c r="C227" s="50" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="D227" s="52" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="E227" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F227" s="50" t="s">
         <v>234</v>
@@ -10263,7 +11702,7 @@
         <v>80</v>
       </c>
       <c r="H227" s="37" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="2:10" ht="38.25">
@@ -10271,13 +11710,13 @@
         <v>29</v>
       </c>
       <c r="C228" s="50" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="D228" s="52" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="E228" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F228" s="50" t="s">
         <v>234</v>
@@ -10286,7 +11725,7 @@
         <v>80</v>
       </c>
       <c r="H228" s="37" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="2:10" ht="38.25">
@@ -10294,13 +11733,13 @@
         <v>30</v>
       </c>
       <c r="C229" s="50" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="D229" s="52" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F229" s="50" t="s">
         <v>234</v>
@@ -10309,7 +11748,7 @@
         <v>80</v>
       </c>
       <c r="H229" s="37" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="2:10" ht="38.25">
@@ -10317,13 +11756,13 @@
         <v>31</v>
       </c>
       <c r="C230" s="50" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="D230" s="52" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="E230" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F230" s="50" t="s">
         <v>234</v>
@@ -10332,7 +11771,7 @@
         <v>80</v>
       </c>
       <c r="H230" s="37" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="2:10" ht="38.25">
@@ -10340,13 +11779,13 @@
         <v>32</v>
       </c>
       <c r="C231" s="50" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="D231" s="52" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="E231" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F231" s="50" t="s">
         <v>234</v>
@@ -10355,7 +11794,7 @@
         <v>80</v>
       </c>
       <c r="H231" s="37" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
     </row>
     <row r="232" spans="2:10" s="70" customFormat="1" ht="25.5">
@@ -10363,13 +11802,13 @@
         <v>33</v>
       </c>
       <c r="C232" s="50" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="D232" s="51" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="E232" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F232" s="14"/>
       <c r="G232" s="77" t="s">
@@ -10383,13 +11822,13 @@
         <v>34</v>
       </c>
       <c r="C233" s="50" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D233" s="51" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E233" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F233" s="14"/>
       <c r="G233" s="77" t="s">
@@ -10403,13 +11842,13 @@
         <v>35</v>
       </c>
       <c r="C234" s="50" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="D234" s="51" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="E234" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F234" s="14"/>
       <c r="G234" s="77" t="s">
@@ -10422,13 +11861,13 @@
         <v>36</v>
       </c>
       <c r="C235" s="50" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D235" s="51" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="E235" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F235" s="14"/>
       <c r="G235" s="77" t="s">
@@ -10442,13 +11881,13 @@
         <v>37</v>
       </c>
       <c r="C236" s="50" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="D236" s="52" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F236" s="50" t="s">
         <v>234</v>
@@ -10457,7 +11896,7 @@
         <v>80</v>
       </c>
       <c r="H236" s="37" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="J236" s="72"/>
     </row>
@@ -10466,13 +11905,13 @@
         <v>38</v>
       </c>
       <c r="C237" s="50" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="D237" s="51" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E237" s="33" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F237" s="14"/>
       <c r="G237" s="77" t="s">
@@ -10483,14 +11922,14 @@
     </row>
     <row r="238" spans="2:10" ht="32.25" customHeight="1"/>
     <row r="239" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B239" s="91" t="s">
+      <c r="B239" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C239" s="79"/>
-      <c r="D239" s="79"/>
-      <c r="E239" s="79"/>
-      <c r="F239" s="79"/>
-      <c r="G239" s="80"/>
+      <c r="C239" s="84"/>
+      <c r="D239" s="84"/>
+      <c r="E239" s="84"/>
+      <c r="F239" s="84"/>
+      <c r="G239" s="85"/>
     </row>
     <row r="240" spans="2:10" ht="24.75" customHeight="1">
       <c r="B240" s="2" t="s">
@@ -10826,6 +12265,26 @@
     <hyperlink ref="H39" location="Bugreports!B19" display="ID: 15"/>
     <hyperlink ref="H44" location="Bugreports!B20" display="id: 16"/>
     <hyperlink ref="H51" location="Bugreports!B21" display="id: 17"/>
+    <hyperlink ref="H70" location="Bugreports!B25" display="ID: 18"/>
+    <hyperlink ref="H73" location="Bugreports!B26" display="ID: 19"/>
+    <hyperlink ref="H77" location="Bugreports!B27" display="ID: 20"/>
+    <hyperlink ref="H78" location="Bugreports!B28" display="ID: 21"/>
+    <hyperlink ref="H80" location="Bugreports!B29" display="ID: 22"/>
+    <hyperlink ref="H81" location="Bugreports!B30" display="ID: 23"/>
+    <hyperlink ref="H82" location="Bugreports!B31" display="ID: 24"/>
+    <hyperlink ref="H85" location="Bugreports!B32" display="ID: 25"/>
+    <hyperlink ref="H86" location="Bugreports!B33" display="ID: 26"/>
+    <hyperlink ref="H88" location="Bugreports!B34" display="ID: 27"/>
+    <hyperlink ref="H106" location="Bugreports!B38" display="ID: 28"/>
+    <hyperlink ref="H109" location="Bugreports!B39" display="ID: 29"/>
+    <hyperlink ref="H112" location="Bugreports!B40" display="ID: 30"/>
+    <hyperlink ref="H113" location="Bugreports!B41" display="ID: 31"/>
+    <hyperlink ref="H114" location="Bugreports!B42" display="ID: 32"/>
+    <hyperlink ref="H115" location="Bugreports!B43" display="ID: 33"/>
+    <hyperlink ref="H116" location="Bugreports!B44" display="ID: 34"/>
+    <hyperlink ref="H117" location="Bugreports!B45" display="ID: 35"/>
+    <hyperlink ref="H124" location="Bugreports!B47" display="ID: 37"/>
+    <hyperlink ref="H122" location="Bugreports!B46" display="ID: 36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -10840,10 +12299,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:R104"/>
+  <dimension ref="A3:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10860,17 +12319,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="33.75" customHeight="1">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="R3" s="112" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="R3" s="120" t="s">
         <v>94</v>
       </c>
     </row>
@@ -10899,448 +12358,448 @@
       <c r="I4" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="2:18" s="44" customFormat="1" ht="102">
       <c r="B5" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>647</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="G5" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H5" s="120" t="s">
-        <v>649</v>
+        <v>632</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="44" customFormat="1" ht="63.75">
       <c r="B6" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G6" s="80" t="s">
         <v>628</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G6" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H6" s="120" t="s">
-        <v>649</v>
+      <c r="H6" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="44" customFormat="1" ht="76.5">
       <c r="B7" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H7" s="81" t="s">
         <v>629</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G7" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>649</v>
-      </c>
       <c r="I7" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="75" customFormat="1" ht="76.5">
       <c r="B8" s="13" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H8" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="2:18" s="75" customFormat="1" ht="89.25">
       <c r="B9" s="13" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H9" s="120" t="s">
+        <v>627</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B10" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B11" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B12" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" s="75" customFormat="1" ht="102">
-      <c r="B10" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G10" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H10" s="120" t="s">
+      <c r="F12" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B13" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" s="75" customFormat="1" ht="102">
-      <c r="B11" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>683</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G11" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H11" s="120" t="s">
+      <c r="F13" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="75" customFormat="1" ht="89.25">
+      <c r="B14" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" s="75" customFormat="1" ht="102">
-      <c r="B12" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G12" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H12" s="120" t="s">
-        <v>649</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" s="75" customFormat="1" ht="102">
-      <c r="B13" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>676</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G13" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H13" s="120" t="s">
-        <v>649</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" s="75" customFormat="1" ht="102">
-      <c r="B14" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>669</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H14" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="2:18" s="75" customFormat="1" ht="89.25">
       <c r="B15" s="13" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="75" customFormat="1" ht="89.25">
       <c r="B16" s="13" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H16" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="75" customFormat="1" ht="89.25">
       <c r="B17" s="13" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G17" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H17" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="75" customFormat="1" ht="89.25">
       <c r="B18" s="13" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G18" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H18" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="75" customFormat="1" ht="89.25">
       <c r="B19" s="13" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G19" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H19" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="44" customFormat="1" ht="89.25">
       <c r="B20" s="13" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G20" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H20" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="44" customFormat="1" ht="89.25">
       <c r="B21" s="13" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="G21" s="119" t="s">
-        <v>648</v>
-      </c>
-      <c r="H21" s="120" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>629</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="44" customFormat="1" ht="26.25" customHeight="1">
@@ -11356,18 +12815,18 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" customHeight="1">
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-    </row>
-    <row r="24" spans="1:10" ht="26.25" customHeight="1">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.75" customHeight="1">
       <c r="B24" s="74" t="s">
         <v>76</v>
       </c>
@@ -11393,138 +12852,278 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="44" customFormat="1" ht="25.5">
+    <row r="25" spans="1:10" s="44" customFormat="1" ht="89.25">
       <c r="B25" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" s="44" customFormat="1" ht="25.5">
+        <v>624</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="44" customFormat="1" ht="89.25">
       <c r="B26" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="44" customFormat="1" ht="89.25">
+      <c r="B27" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="44" customFormat="1" ht="89.25">
+      <c r="B28" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" s="44" customFormat="1" ht="25.5">
-      <c r="B27" s="13" t="s">
+      <c r="E28" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" s="44" customFormat="1" ht="25.5">
-      <c r="B28" s="13" t="s">
+      <c r="F28" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="44" customFormat="1" ht="89.25">
+      <c r="B29" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" s="44" customFormat="1" ht="25.5">
-      <c r="B29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" s="44" customFormat="1" ht="25.5">
+      <c r="E29" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="44" customFormat="1" ht="89.25">
       <c r="B30" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" s="44" customFormat="1" ht="25.5">
+        <v>697</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H30" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="44" customFormat="1" ht="89.25">
       <c r="B31" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" s="75" customFormat="1" ht="25.5">
+        <v>698</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G31" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="75" customFormat="1" ht="127.5">
       <c r="B32" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" s="44" customFormat="1" ht="25.5">
+        <v>699</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="44" customFormat="1" ht="127.5">
       <c r="B33" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" s="44" customFormat="1" ht="25.5">
+        <v>700</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="G33" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="44" customFormat="1" ht="89.25">
       <c r="B34" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+        <v>701</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="G34" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="35.25" customHeight="1"/>
     <row r="36" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="80"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="2:9" ht="24.75" customHeight="1">
       <c r="B37" s="73" t="s">
@@ -11552,295 +13151,535 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.5" customHeight="1"/>
-    <row r="45" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B45" s="91" t="s">
+    <row r="38" spans="2:9" s="44" customFormat="1" ht="89.25">
+      <c r="B38" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G38" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H38" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" s="78" customFormat="1" ht="89.25">
+      <c r="B39" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G39" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H39" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="78" customFormat="1" ht="89.25">
+      <c r="B40" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G40" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" s="44" customFormat="1" ht="89.25">
+      <c r="B41" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H41" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="78" customFormat="1" ht="89.25">
+      <c r="B42" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="G42" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H42" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="78" customFormat="1" ht="89.25">
+      <c r="B43" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G43" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H43" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="78" customFormat="1" ht="89.25">
+      <c r="B44" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G44" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H44" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" s="78" customFormat="1" ht="89.25">
+      <c r="B45" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G45" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H45" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" s="44" customFormat="1" ht="127.5">
+      <c r="B46" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G46" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H46" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" s="44" customFormat="1" ht="89.25">
+      <c r="B47" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="G47" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H47" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="31.5" customHeight="1"/>
+    <row r="49" spans="2:9" ht="31.5" customHeight="1">
+      <c r="B49" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="80"/>
-    </row>
-    <row r="46" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B46" s="111" t="s">
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="85"/>
+    </row>
+    <row r="50" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B50" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="80"/>
-    </row>
-    <row r="47" spans="2:9" ht="24" customHeight="1">
-      <c r="B47" s="73" t="s">
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="85"/>
+    </row>
+    <row r="51" spans="2:9" ht="24" customHeight="1">
+      <c r="B51" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C51" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D51" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E51" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="73" t="s">
+      <c r="F51" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G51" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H47" s="73" t="s">
+      <c r="H51" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I47" s="73" t="s">
+      <c r="I51" s="73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B52" s="13"/>
+    <row r="52" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B52" s="13" t="s">
+        <v>763</v>
+      </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B53" s="13"/>
+      <c r="G52" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H52" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B53" s="13" t="s">
+        <v>804</v>
+      </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B54" s="13"/>
+      <c r="G53" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H53" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B54" s="13" t="s">
+        <v>805</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B55" s="13"/>
+      <c r="G54" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H54" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B55" s="13" t="s">
+        <v>806</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B56" s="13"/>
+      <c r="G55" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H55" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B56" s="13" t="s">
+        <v>807</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B57" s="13"/>
+      <c r="G56" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H56" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B57" s="13" t="s">
+        <v>808</v>
+      </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="2:9" s="44" customFormat="1" ht="30" customHeight="1"/>
-    <row r="59" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B59" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="80"/>
-    </row>
-    <row r="60" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B60" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F60" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H60" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" s="73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B61" s="13"/>
+      <c r="G57" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B58" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H58" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B59" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H59" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B60" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H60" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="44" customFormat="1" ht="38.25">
+      <c r="B61" s="13" t="s">
+        <v>812</v>
+      </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="G61" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="H61" s="81" t="s">
+        <v>629</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" s="44" customFormat="1" ht="30" customHeight="1"/>
+    <row r="63" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B63" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="85"/>
+    </row>
+    <row r="64" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B64" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64" s="73" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="65" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B65" s="13"/>
@@ -11882,44 +13721,35 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="2:9" ht="29.25" customHeight="1"/>
-    <row r="70" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B70" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="80"/>
-    </row>
-    <row r="71" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B71" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="G71" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="I71" s="73" t="s">
-        <v>153</v>
-      </c>
+    <row r="69" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B72" s="13"/>
@@ -11931,35 +13761,44 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-    </row>
-    <row r="74" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-    </row>
-    <row r="75" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+    <row r="73" spans="2:9" ht="29.25" customHeight="1"/>
+    <row r="74" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B74" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="85"/>
+    </row>
+    <row r="75" spans="2:9" ht="27.75" customHeight="1">
+      <c r="B75" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" s="73" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="76" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B76" s="13"/>
@@ -12011,44 +13850,35 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="2:9" ht="28.5" customHeight="1"/>
-    <row r="82" spans="2:9" ht="26.25" customHeight="1">
-      <c r="B82" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="80"/>
-    </row>
-    <row r="83" spans="2:9" ht="27" customHeight="1">
-      <c r="B83" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F83" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="G83" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="I83" s="73" t="s">
-        <v>153</v>
-      </c>
+    <row r="81" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B84" s="13"/>
@@ -12060,35 +13890,44 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-    </row>
-    <row r="86" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-    </row>
-    <row r="87" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B87" s="13"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+    <row r="85" spans="2:9" ht="28.5" customHeight="1"/>
+    <row r="86" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B86" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="85"/>
+    </row>
+    <row r="87" spans="2:9" ht="27" customHeight="1">
+      <c r="B87" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G87" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H87" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I87" s="73" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="88" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B88" s="13"/>
@@ -12100,135 +13939,126 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" customHeight="1"/>
-    <row r="90" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B90" s="111" t="s">
+    <row r="89" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="93" spans="2:9" ht="31.5" customHeight="1"/>
+    <row r="94" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B94" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="80"/>
-    </row>
-    <row r="91" spans="2:9" ht="27" customHeight="1">
-      <c r="B91" s="73" t="s">
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="85"/>
+    </row>
+    <row r="95" spans="2:9" ht="27" customHeight="1">
+      <c r="B95" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C95" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="73" t="s">
+      <c r="D95" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E91" s="73" t="s">
+      <c r="E95" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="73" t="s">
+      <c r="F95" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G91" s="73" t="s">
+      <c r="G95" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="73" t="s">
+      <c r="H95" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I91" s="73" t="s">
+      <c r="I95" s="73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-    </row>
-    <row r="93" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-    </row>
-    <row r="94" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-    </row>
-    <row r="95" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-    </row>
     <row r="96" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-    </row>
-    <row r="97" spans="2:9" s="59" customFormat="1" ht="29.25" customHeight="1"/>
-    <row r="98" spans="2:9" s="59" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B98" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="116"/>
-      <c r="D98" s="116"/>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="116"/>
-      <c r="H98" s="116"/>
-      <c r="I98" s="117"/>
-    </row>
-    <row r="99" spans="2:9" s="59" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B99" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E99" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="F99" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H99" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="I99" s="73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+    </row>
+    <row r="97" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+    </row>
+    <row r="98" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+    </row>
+    <row r="99" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+    </row>
+    <row r="100" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
@@ -12238,35 +14068,44 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-    </row>
-    <row r="103" spans="2:9" s="44" customFormat="1" ht="12.75">
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+    <row r="101" spans="2:9" s="59" customFormat="1" ht="29.25" customHeight="1"/>
+    <row r="102" spans="2:9" s="59" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B102" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="118"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="118"/>
+      <c r="F102" s="118"/>
+      <c r="G102" s="118"/>
+      <c r="H102" s="118"/>
+      <c r="I102" s="119"/>
+    </row>
+    <row r="103" spans="2:9" s="59" customFormat="1" ht="24.75" customHeight="1">
+      <c r="B103" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="H103" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="I103" s="73" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="104" spans="2:9" s="44" customFormat="1" ht="12.75">
       <c r="B104" s="13"/>
@@ -12278,21 +14117,62 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
     </row>
+    <row r="105" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+    </row>
+    <row r="108" spans="2:9" s="44" customFormat="1" ht="12.75">
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B102:I102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12324,7 +14204,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -12335,7 +14215,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="44" customFormat="1" ht="25.5">
@@ -12412,7 +14292,7 @@
         <v>127</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="2:4" s="44" customFormat="1" ht="51">
